--- a/soccer/php/result/analyze/分析辅助.xlsx
+++ b/soccer/php/result/analyze/分析辅助.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>作成者</author>
+    <author>作者</author>
   </authors>
   <commentList>
     <comment ref="AI1" authorId="0" shapeId="0">
@@ -30,7 +30,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>作成者:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>作成者:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -383,7 +383,7 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>作成者:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -460,7 +460,7 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>作成者:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -536,7 +536,7 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>作成者:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -863,7 +863,7 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>作成者:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -1210,7 +1210,7 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>作成者:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -1308,7 +1308,7 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>作成者:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -1358,7 +1358,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4546" uniqueCount="1025">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4847" uniqueCount="1049">
   <si>
     <t>降1次</t>
   </si>
@@ -1481,7 +1481,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1498,7 +1498,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1599,7 +1599,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1610,7 +1610,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1887,7 +1887,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1898,7 +1898,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2024,7 +2024,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2053,7 +2053,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2079,7 +2079,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -2090,7 +2090,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2210,7 +2210,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2277,7 +2277,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2712,7 +2712,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3519,7 +3519,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3898,7 +3898,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4227,7 +4227,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4278,7 +4278,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4304,7 +4304,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4330,7 +4330,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4356,7 +4356,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4562,7 +4562,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4572,10 +4572,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>这一次一致导向并没有出现反结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4591,7 +4587,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4608,7 +4604,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4820,7 +4816,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4841,7 +4837,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4858,7 +4854,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4875,7 +4871,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -4886,7 +4882,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4903,7 +4899,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4920,7 +4916,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4937,7 +4933,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4954,7 +4950,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4971,7 +4967,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4981,11 +4977,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>实际这场只差0.002的赔率就是一边倒了，如果认为是一边倒，然后反买，就中了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这场是自己2了，非要反宣，结果明明已经导向了0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赔率升了之后结果反转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再任性一把，买赢。果然中了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这场不太好判断，12结果的可能性都很大，是否要选小赔率呢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇葩赔率造了个大冷门，这次算是栽了，最小赔没出现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再任性一把，反买,任性失败，实际上这次还是很合理的，不应该挑战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这场就是太顺利了，感觉要冷。结果并没有。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这场，所有的结果都一致了，该出冷门了吧？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这场应该买40，感觉，结果导向了3。自己的预测确实是对的，这个导向应该任性买40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整后冷门颠倒，不好说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这场太热门了，意大利德比，赔率也乱的一比，根本无法判断。从结果来看也都不靠谱。最低赔买主负。结果国米真的赢了，中了赔率方差相近的结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐隐觉得要冷，这个预感果然没错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃了没有同类型的亏了，而且买最低赔出了冷门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模棱两可的赔率变化就买最低的，又忘了是不是？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常成功的反买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不相信36的结果，输</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这次的反买感觉会失败呢。然而依然没有失败，正确的反买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>无</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>实际这场只差0.002的赔率就是一边倒了，如果认为是一边倒，然后反买，就中了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意其他结果又变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说了要反买咋就是不信邪呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妥妥的反买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次妥妥的反买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反买？YEAH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4997,20 +5093,20 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -5018,7 +5114,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5026,7 +5122,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -5208,7 +5304,7 @@
     <xf numFmtId="22" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -5295,7 +5391,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5584,10 +5680,10 @@
   <dimension ref="A1:AS889"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="16" ySplit="8" topLeftCell="W440" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="16" ySplit="8" topLeftCell="V480" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="AR460" sqref="AR460"/>
+      <selection pane="bottomRight" activeCell="AF507" sqref="AF507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5780,64 +5876,64 @@
         <v>42631</v>
       </c>
       <c r="C4" s="3">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>86</v>
+        <v>212</v>
       </c>
       <c r="E4" s="4">
-        <v>42631.8125</v>
+        <v>42632.291666666664</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>87</v>
+        <v>311</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>981</v>
+        <v>741</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>87</v>
+        <v>311</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>981</v>
+        <v>743</v>
       </c>
       <c r="J4" s="5">
-        <v>2.65</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="K4" s="5">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L4" s="5">
-        <v>2.2799999999999998</v>
+        <v>3.05</v>
       </c>
       <c r="M4" s="3">
-        <v>1.45</v>
+        <v>4.05</v>
       </c>
       <c r="N4" s="3">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O4" s="3">
-        <v>4.95</v>
+        <v>1.58</v>
       </c>
       <c r="P4" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T4" s="10"/>
       <c r="U4" s="11"/>
       <c r="V4" s="6" t="str">
         <f>D4</f>
-        <v>德乙</v>
+        <v>墨联</v>
       </c>
       <c r="W4" s="6" t="s">
-        <v>1023</v>
+        <v>1044</v>
       </c>
       <c r="X4" s="12" t="s">
-        <v>1023</v>
+        <v>1046</v>
       </c>
       <c r="Y4" s="6" t="s">
-        <v>1023</v>
+        <v>1040</v>
       </c>
       <c r="Z4" s="6" t="s">
-        <v>943</v>
+        <v>1047</v>
       </c>
       <c r="AA4" s="12"/>
       <c r="AB4" s="12"/>
@@ -5852,11 +5948,11 @@
       <c r="U5" s="11"/>
       <c r="V5" s="12" t="str">
         <f>V4</f>
-        <v>德乙</v>
+        <v>墨联</v>
       </c>
       <c r="W5" s="6" t="str">
         <f>IF(COUNT(FIND("升",W4)),SUBSTITUTE(W4,"升","降"),SUBSTITUTE(W4,"降","升"))</f>
-        <v>无</v>
+        <v>升1次</v>
       </c>
       <c r="X5" s="6" t="str">
         <f>IF(COUNT(FIND("升",X4)),SUBSTITUTE(X4,"升","降"),SUBSTITUTE(X4,"降","升"))</f>
@@ -5868,7 +5964,7 @@
       </c>
       <c r="Z5" s="6" t="str">
         <f>Z4</f>
-        <v>中</v>
+        <v>低</v>
       </c>
       <c r="AA5" s="12" t="str">
         <f>IF(AA4=1,1,"")</f>
@@ -5902,7 +5998,7 @@
         <v>42</v>
       </c>
       <c r="W6" s="13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" s="13" t="s">
         <v>1</v>
@@ -5911,20 +6007,16 @@
         <v>1</v>
       </c>
       <c r="Z6" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA6" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB6" s="13">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="13" t="s">
-        <v>44</v>
+        <v>317</v>
+      </c>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13">
+        <v>1</v>
       </c>
       <c r="AE6" s="12">
         <f>AE8</f>
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="AF6" s="6">
         <f>MAX(AE10:AE5002)</f>
@@ -5932,23 +6024,23 @@
       </c>
       <c r="AG6" s="12">
         <f>COUNTIFS(AE10:AE5002,MAX(AE10:AE5002),AF10:AF5002,MAX(AF10:AF5002))</f>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AH6" s="6">
         <f>MAX(AF10:AF5002)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI6" s="12">
         <f>MIN(AG10:AG5002)</f>
-        <v>0.13839999999999991</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="6">
         <f>MIN(AH10:AH5002)</f>
-        <v>0.16750000000000037</v>
+        <v>0</v>
       </c>
       <c r="AK6" s="12">
         <f>AI8</f>
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="AL6" s="6">
         <f t="shared" ref="AL6:AO6" si="0">AF7</f>
@@ -5956,19 +6048,19 @@
       </c>
       <c r="AM6" s="6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN6" s="6">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO6" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.6000000000000087E-2</v>
       </c>
       <c r="AP6" s="6">
         <f>AJ7</f>
-        <v>0</v>
+        <v>3.6000000000000087E-2</v>
       </c>
     </row>
     <row r="7" spans="2:44">
@@ -5984,7 +6076,7 @@
       </c>
       <c r="AE7" s="6">
         <f>AI8</f>
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="AF7" s="6">
         <f>MAX(AI10:AI5002)</f>
@@ -5992,19 +6084,19 @@
       </c>
       <c r="AG7" s="6">
         <f>COUNTIFS(AI10:AI5002,MAX(AI10:AI5002),AJ10:AJ5002,MAX(AJ10:AJ5002))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH7" s="6">
         <f>MAX(AJ10:AJ5002)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI7" s="6">
         <f>MIN(AK10:AK5002)</f>
-        <v>0</v>
+        <v>3.6000000000000087E-2</v>
       </c>
       <c r="AJ7" s="6">
         <f>MIN(AL10:AL5002)</f>
-        <v>0</v>
+        <v>3.6000000000000087E-2</v>
       </c>
     </row>
     <row r="8" spans="2:44">
@@ -6018,19 +6110,19 @@
       <c r="AC8" s="13"/>
       <c r="AE8" s="12">
         <f>COUNTIF(AE10:AE5002,MAX(AE10:AE5002))</f>
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="AF8" s="12">
         <f>COUNTIF(AF10:AF5002,MAX(AF10:AF5002))</f>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AI8" s="12">
         <f>COUNTIF(AI10:AI5002,MAX(AI10:AI5002))</f>
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="AJ8" s="12">
         <f>COUNTIF(AJ10:AJ5002,MAX(AJ10:AJ5002))</f>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:44">
@@ -6524,7 +6616,7 @@
       </c>
       <c r="AJ13" s="6">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK13" s="6" t="str">
         <f t="shared" si="8"/>
@@ -6725,7 +6817,7 @@
       </c>
       <c r="AF15" s="6">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG15" s="6" t="str">
         <f t="shared" si="4"/>
@@ -6845,7 +6937,7 @@
       </c>
       <c r="AJ16" s="6">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK16" s="6" t="str">
         <f t="shared" si="8"/>
@@ -6949,7 +7041,7 @@
       </c>
       <c r="AJ17" s="6">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK17" s="6" t="str">
         <f t="shared" si="8"/>
@@ -7380,7 +7472,7 @@
       </c>
       <c r="AJ21" s="6">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK21" s="6" t="str">
         <f t="shared" si="8"/>
@@ -7800,11 +7892,11 @@
       </c>
       <c r="AE25" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF25" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG25" s="6" t="str">
         <f t="shared" si="4"/>
@@ -8147,7 +8239,7 @@
       </c>
       <c r="AJ28" s="6">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK28" s="6" t="str">
         <f t="shared" si="8"/>
@@ -8691,7 +8783,7 @@
       </c>
       <c r="AJ33" s="6">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK33" s="6" t="str">
         <f t="shared" si="8"/>
@@ -10309,7 +10401,7 @@
       </c>
       <c r="AJ48" s="6">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK48" s="6" t="str">
         <f t="shared" si="8"/>
@@ -10648,7 +10740,7 @@
       </c>
       <c r="AJ51" s="6">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK51" s="6" t="str">
         <f t="shared" si="8"/>
@@ -10745,7 +10837,7 @@
       </c>
       <c r="AF52" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG52" s="6" t="str">
         <f t="shared" si="4"/>
@@ -10996,7 +11088,7 @@
       </c>
       <c r="AJ54" s="6">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK54" s="6" t="str">
         <f t="shared" si="8"/>
@@ -11105,15 +11197,15 @@
       </c>
       <c r="AI55" s="6">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ55" s="6">
         <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="AK55" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK55" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>18.680099999999999</v>
+        <v/>
       </c>
       <c r="AL55" s="6" t="str">
         <f t="shared" si="9"/>
@@ -11209,7 +11301,7 @@
       </c>
       <c r="AF56" s="6">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG56" s="6" t="str">
         <f t="shared" si="4"/>
@@ -11567,7 +11659,7 @@
       </c>
       <c r="AJ59" s="6">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK59" s="6" t="str">
         <f t="shared" si="8"/>
@@ -12502,15 +12594,15 @@
       </c>
       <c r="AE68" s="6">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF68" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="AG68" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG68" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>20.256599999999999</v>
+        <v/>
       </c>
       <c r="AH68" s="6" t="str">
         <f t="shared" si="5"/>
@@ -13071,7 +13163,7 @@
       </c>
       <c r="AF73" s="6">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG73" s="6" t="str">
         <f t="shared" si="4"/>
@@ -13183,19 +13275,19 @@
       </c>
       <c r="AE74" s="6">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF74" s="6">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="AG74" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG74" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>0.51440000000000019</v>
-      </c>
-      <c r="AH74" s="6">
+        <v/>
+      </c>
+      <c r="AH74" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>0.51440000000000019</v>
+        <v/>
       </c>
       <c r="AI74" s="6">
         <f t="shared" si="6"/>
@@ -13312,15 +13404,15 @@
       </c>
       <c r="AI75" s="6">
         <f t="shared" ref="AI75:AI138" si="15">IF(AND(AB75=$AB$5,AC75=$AC$5),IF(W75=$W$5,1,0)+IF(X75=$X$5,1,0)+IF(Y75=$Y$5,1,0),0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ75" s="6">
         <f t="shared" ref="AJ75:AJ138" si="16">IF(AND(AB75=$AB$5,AC75=$AC$5),IF(W75=$W$5,1,0)+IF(Z75=$Z$5,1,0)+IF(X75=$X$5,1,0)+IF(Y75=$Y$5,1,0)+IF(AA75=$AA$5,1,0)+IF(V75=$V$5,1,0),0)</f>
         <v>4</v>
       </c>
-      <c r="AK75" s="6" t="str">
+      <c r="AK75" s="6">
         <f t="shared" ref="AK75:AK138" si="17">IF(AND(AB75=$AB$5,AC75=$AC$5,AI75=MAX(AI$10:AI$5002)),(J75-J$4)^2+(K75-K$4)^2+(L75-L$4)^2+(M75-M$4)^2+(N75-N$4)^2+(O75-O$4)^2,"")</f>
-        <v/>
+        <v>0.72989999999999988</v>
       </c>
       <c r="AL75" s="6" t="str">
         <f t="shared" ref="AL75:AL138" si="18">IF(AND(AB75=$AB$5,AC75=$AC$5,AI75=MAX(AI$10:AI$5002),AJ75=MAX(AJ$10:AJ$5002)),(J75-J$4)^2+(K75-K$4)^2+(L75-L$4)^2+(M75-M$4)^2+(N75-N$4)^2+(O75-O$4)^2,"")</f>
@@ -13525,15 +13617,15 @@
       </c>
       <c r="AE77" s="6">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF77" s="6">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="AG77" s="6" t="str">
+      <c r="AG77" s="6">
         <f t="shared" si="13"/>
-        <v/>
+        <v>19.827200000000001</v>
       </c>
       <c r="AH77" s="6" t="str">
         <f t="shared" si="14"/>
@@ -13748,15 +13840,15 @@
       </c>
       <c r="AE79" s="6">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF79" s="6">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="AG79" s="6" t="str">
+      <c r="AG79" s="6">
         <f t="shared" si="13"/>
-        <v/>
+        <v>0.57790000000000052</v>
       </c>
       <c r="AH79" s="6" t="str">
         <f t="shared" si="14"/>
@@ -13977,15 +14069,15 @@
       </c>
       <c r="AE81" s="6">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF81" s="6">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="AG81" s="6">
+      <c r="AG81" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>19.883800000000001</v>
+        <v/>
       </c>
       <c r="AH81" s="6" t="str">
         <f t="shared" si="14"/>
@@ -14200,15 +14292,15 @@
       </c>
       <c r="AE83" s="6">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF83" s="6">
         <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="AG83" s="6" t="str">
+        <v>5</v>
+      </c>
+      <c r="AG83" s="6">
         <f t="shared" si="13"/>
-        <v/>
+        <v>0.52030000000000054</v>
       </c>
       <c r="AH83" s="6" t="str">
         <f t="shared" si="14"/>
@@ -14329,15 +14421,15 @@
       </c>
       <c r="AI84" s="6">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ84" s="6">
         <f t="shared" si="16"/>
-        <v>5</v>
-      </c>
-      <c r="AK84" s="6">
+        <v>3</v>
+      </c>
+      <c r="AK84" s="6" t="str">
         <f t="shared" si="17"/>
-        <v>24.515700000000002</v>
+        <v/>
       </c>
       <c r="AL84" s="6" t="str">
         <f t="shared" si="18"/>
@@ -14552,15 +14644,15 @@
       </c>
       <c r="AI86" s="6">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ86" s="6">
         <f t="shared" si="16"/>
-        <v>4</v>
-      </c>
-      <c r="AK86" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK86" s="6" t="str">
         <f t="shared" si="17"/>
-        <v>21.082500000000003</v>
+        <v/>
       </c>
       <c r="AL86" s="6" t="str">
         <f t="shared" si="18"/>
@@ -14873,7 +14965,7 @@
       </c>
       <c r="AF89" s="6">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG89" s="6" t="str">
         <f t="shared" si="13"/>
@@ -14989,7 +15081,7 @@
       </c>
       <c r="AF90" s="6">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG90" s="6" t="str">
         <f t="shared" si="13"/>
@@ -15098,15 +15190,15 @@
       </c>
       <c r="AE91" s="6">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF91" s="6">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="AG91" s="6">
+      <c r="AG91" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>0.39230000000000026</v>
+        <v/>
       </c>
       <c r="AH91" s="6" t="str">
         <f t="shared" si="14"/>
@@ -15234,7 +15326,7 @@
       </c>
       <c r="AJ92" s="6">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK92" s="6" t="str">
         <f t="shared" si="17"/>
@@ -15331,7 +15423,7 @@
       </c>
       <c r="AF93" s="6">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG93" s="6" t="str">
         <f t="shared" si="13"/>
@@ -15444,7 +15536,7 @@
       </c>
       <c r="AF94" s="6">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG94" s="6" t="str">
         <f t="shared" si="13"/>
@@ -16031,7 +16123,7 @@
       </c>
       <c r="AJ99" s="6">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK99" s="6" t="str">
         <f t="shared" si="17"/>
@@ -16238,7 +16330,7 @@
       </c>
       <c r="AF101" s="6">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG101" s="6" t="str">
         <f t="shared" si="13"/>
@@ -17024,7 +17116,7 @@
       </c>
       <c r="AJ108" s="6">
         <f t="shared" si="16"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK108" s="6" t="str">
         <f t="shared" si="17"/>
@@ -17247,7 +17339,7 @@
       </c>
       <c r="AJ110" s="6">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK110" s="6" t="str">
         <f t="shared" si="17"/>
@@ -17466,11 +17558,11 @@
       </c>
       <c r="AI112" s="6">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ112" s="6">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AK112" s="6" t="str">
         <f t="shared" si="17"/>
@@ -17563,11 +17655,11 @@
       </c>
       <c r="AE113" s="6">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF113" s="6">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AG113" s="6" t="str">
         <f t="shared" si="13"/>
@@ -17699,7 +17791,7 @@
       </c>
       <c r="AJ114" s="6">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK114" s="6" t="str">
         <f t="shared" si="17"/>
@@ -17812,7 +17904,7 @@
       </c>
       <c r="AJ115" s="6">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK115" s="6" t="str">
         <f t="shared" si="17"/>
@@ -17909,7 +18001,7 @@
       </c>
       <c r="AF116" s="6">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG116" s="6" t="str">
         <f t="shared" si="13"/>
@@ -18144,7 +18236,7 @@
       </c>
       <c r="AF118" s="6">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG118" s="6" t="str">
         <f t="shared" si="13"/>
@@ -18272,11 +18364,11 @@
       </c>
       <c r="AI119" s="6">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ119" s="6">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AK119" s="6" t="str">
         <f t="shared" si="17"/>
@@ -18724,19 +18816,19 @@
       </c>
       <c r="AI123" s="6">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ123" s="6">
         <f t="shared" si="16"/>
-        <v>3</v>
-      </c>
-      <c r="AK123" s="6" t="str">
+        <v>5</v>
+      </c>
+      <c r="AK123" s="6">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AL123" s="6" t="str">
+        <v>18.314899999999998</v>
+      </c>
+      <c r="AL123" s="6">
         <f t="shared" si="18"/>
-        <v/>
+        <v>18.314899999999998</v>
       </c>
     </row>
     <row r="124" spans="2:43">
@@ -19218,7 +19310,7 @@
       </c>
       <c r="AJ128" s="6">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK128" s="6" t="str">
         <f t="shared" si="17"/>
@@ -19875,7 +19967,7 @@
       </c>
       <c r="AJ134" s="6">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK134" s="6" t="str">
         <f t="shared" si="17"/>
@@ -19981,11 +20073,11 @@
       </c>
       <c r="AI135" s="6">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ135" s="6">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK135" s="6" t="str">
         <f t="shared" si="17"/>
@@ -21075,15 +21167,15 @@
       </c>
       <c r="AE145" s="6">
         <f t="shared" si="20"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF145" s="6">
         <f t="shared" si="21"/>
         <v>4</v>
       </c>
-      <c r="AG145" s="6" t="str">
+      <c r="AG145" s="6">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0.94960000000000067</v>
       </c>
       <c r="AH145" s="6" t="str">
         <f t="shared" si="23"/>
@@ -22367,15 +22459,15 @@
       </c>
       <c r="AE158" s="6">
         <f t="shared" si="20"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF158" s="6">
         <f t="shared" si="21"/>
-        <v>3</v>
-      </c>
-      <c r="AG158" s="6" t="str">
+        <v>4</v>
+      </c>
+      <c r="AG158" s="6">
         <f t="shared" si="22"/>
-        <v/>
+        <v>17.455599999999997</v>
       </c>
       <c r="AH158" s="6" t="str">
         <f t="shared" si="23"/>
@@ -22714,7 +22806,7 @@
       </c>
       <c r="AJ161" s="6">
         <f t="shared" si="25"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK161" s="6" t="str">
         <f t="shared" si="26"/>
@@ -22824,7 +22916,7 @@
       </c>
       <c r="AJ162" s="6">
         <f t="shared" si="25"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK162" s="6" t="str">
         <f t="shared" si="26"/>
@@ -23921,7 +24013,7 @@
       </c>
       <c r="AJ172" s="6">
         <f t="shared" si="25"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK172" s="6" t="str">
         <f t="shared" si="26"/>
@@ -24118,19 +24210,19 @@
       </c>
       <c r="AE174" s="6">
         <f t="shared" si="20"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF174" s="6">
         <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
-      <c r="AG174" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG174" s="6" t="str">
         <f t="shared" si="22"/>
-        <v>29.121500000000001</v>
-      </c>
-      <c r="AH174" s="6">
+        <v/>
+      </c>
+      <c r="AH174" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>29.121500000000001</v>
+        <v/>
       </c>
       <c r="AI174" s="6">
         <f t="shared" si="24"/>
@@ -24232,7 +24324,7 @@
       </c>
       <c r="AF175" s="6">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG175" s="6" t="str">
         <f t="shared" si="22"/>
@@ -24354,7 +24446,7 @@
       </c>
       <c r="AI176" s="6">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ176" s="6">
         <f t="shared" si="25"/>
@@ -24468,7 +24560,7 @@
       </c>
       <c r="AJ177" s="6">
         <f t="shared" si="25"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK177" s="6" t="str">
         <f t="shared" si="26"/>
@@ -24578,7 +24670,7 @@
       </c>
       <c r="AJ178" s="6">
         <f t="shared" si="25"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK178" s="6" t="str">
         <f t="shared" si="26"/>
@@ -24892,7 +24984,7 @@
       </c>
       <c r="AF181" s="6">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG181" s="6" t="str">
         <f t="shared" si="22"/>
@@ -25232,7 +25324,7 @@
       </c>
       <c r="AJ184" s="6">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK184" s="6" t="str">
         <f t="shared" si="26"/>
@@ -25326,7 +25418,7 @@
       </c>
       <c r="AF185" s="6">
         <f t="shared" si="21"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG185" s="6" t="str">
         <f t="shared" si="22"/>
@@ -25452,7 +25544,7 @@
       </c>
       <c r="AJ186" s="6">
         <f t="shared" si="25"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK186" s="6" t="str">
         <f t="shared" si="26"/>
@@ -25869,19 +25961,19 @@
       </c>
       <c r="AE190" s="6">
         <f t="shared" si="20"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF190" s="6">
         <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
-      <c r="AG190" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG190" s="6" t="str">
         <f t="shared" si="22"/>
-        <v>20.496400000000001</v>
-      </c>
-      <c r="AH190" s="6">
+        <v/>
+      </c>
+      <c r="AH190" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>20.496400000000001</v>
+        <v/>
       </c>
       <c r="AI190" s="6">
         <f t="shared" si="24"/>
@@ -26196,19 +26288,19 @@
       </c>
       <c r="AE193" s="6">
         <f t="shared" si="20"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF193" s="6">
         <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
-      <c r="AG193" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG193" s="6" t="str">
         <f t="shared" si="22"/>
-        <v>19.069700000000001</v>
-      </c>
-      <c r="AH193" s="6">
+        <v/>
+      </c>
+      <c r="AH193" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>19.069700000000001</v>
+        <v/>
       </c>
       <c r="AI193" s="6">
         <f t="shared" si="24"/>
@@ -26306,19 +26398,19 @@
       </c>
       <c r="AE194" s="6">
         <f t="shared" si="20"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF194" s="6">
         <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
-      <c r="AG194" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG194" s="6" t="str">
         <f t="shared" si="22"/>
-        <v>20.323999999999998</v>
-      </c>
-      <c r="AH194" s="6">
+        <v/>
+      </c>
+      <c r="AH194" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>20.323999999999998</v>
+        <v/>
       </c>
       <c r="AI194" s="6">
         <f t="shared" si="24"/>
@@ -26640,7 +26732,7 @@
       </c>
       <c r="AF197" s="6">
         <f t="shared" si="21"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG197" s="6" t="str">
         <f t="shared" si="22"/>
@@ -27429,7 +27521,7 @@
       </c>
       <c r="AJ204" s="6">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AK204" s="6" t="str">
         <f t="shared" si="35"/>
@@ -27843,15 +27935,15 @@
       </c>
       <c r="AE208" s="6">
         <f t="shared" si="29"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF208" s="6">
         <f t="shared" si="30"/>
-        <v>4</v>
-      </c>
-      <c r="AG208" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG208" s="6" t="str">
         <f t="shared" si="31"/>
-        <v>28.817999999999998</v>
+        <v/>
       </c>
       <c r="AH208" s="6" t="str">
         <f t="shared" si="32"/>
@@ -27972,15 +28064,15 @@
       </c>
       <c r="AI209" s="6">
         <f t="shared" si="33"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ209" s="6">
         <f t="shared" si="34"/>
-        <v>5</v>
-      </c>
-      <c r="AK209" s="6">
+        <v>3</v>
+      </c>
+      <c r="AK209" s="6" t="str">
         <f t="shared" si="35"/>
-        <v>28.135040999999994</v>
+        <v/>
       </c>
       <c r="AL209" s="6" t="str">
         <f t="shared" si="36"/>
@@ -28070,7 +28162,7 @@
       </c>
       <c r="AF210" s="6">
         <f t="shared" si="30"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG210" s="6" t="str">
         <f t="shared" si="31"/>
@@ -28180,7 +28272,7 @@
       </c>
       <c r="AF211" s="6">
         <f t="shared" si="30"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG211" s="6" t="str">
         <f t="shared" si="31"/>
@@ -28286,19 +28378,19 @@
       </c>
       <c r="AE212" s="6">
         <f t="shared" si="29"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF212" s="6">
         <f t="shared" si="30"/>
-        <v>5</v>
-      </c>
-      <c r="AG212" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG212" s="6" t="str">
         <f t="shared" si="31"/>
-        <v>28.841000000000008</v>
-      </c>
-      <c r="AH212" s="6">
+        <v/>
+      </c>
+      <c r="AH212" s="6" t="str">
         <f t="shared" si="32"/>
-        <v>28.841000000000008</v>
+        <v/>
       </c>
       <c r="AI212" s="6">
         <f t="shared" si="33"/>
@@ -29292,7 +29384,7 @@
       </c>
       <c r="AF221" s="6">
         <f t="shared" si="30"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG221" s="6" t="str">
         <f t="shared" si="31"/>
@@ -29511,19 +29603,19 @@
       </c>
       <c r="AE223" s="6">
         <f t="shared" si="29"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF223" s="6">
         <f t="shared" si="30"/>
-        <v>5</v>
-      </c>
-      <c r="AG223" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG223" s="6" t="str">
         <f t="shared" si="31"/>
-        <v>20.325000000000003</v>
-      </c>
-      <c r="AH223" s="6">
+        <v/>
+      </c>
+      <c r="AH223" s="6" t="str">
         <f t="shared" si="32"/>
-        <v>20.325000000000003</v>
+        <v/>
       </c>
       <c r="AI223" s="6">
         <f t="shared" si="33"/>
@@ -29732,7 +29824,7 @@
       </c>
       <c r="AF225" s="6">
         <f t="shared" si="30"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG225" s="6" t="str">
         <f t="shared" si="31"/>
@@ -29838,7 +29930,7 @@
       </c>
       <c r="AE226" s="6">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF226" s="6">
         <f t="shared" si="30"/>
@@ -30074,15 +30166,15 @@
       </c>
       <c r="AI228" s="6">
         <f t="shared" si="33"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ228" s="6">
         <f t="shared" si="34"/>
-        <v>5</v>
-      </c>
-      <c r="AK228" s="6">
+        <v>3</v>
+      </c>
+      <c r="AK228" s="6" t="str">
         <f t="shared" si="35"/>
-        <v>17.087600999999999</v>
+        <v/>
       </c>
       <c r="AL228" s="6" t="str">
         <f t="shared" si="36"/>
@@ -30300,15 +30392,15 @@
       </c>
       <c r="AI230" s="6">
         <f t="shared" si="33"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ230" s="6">
         <f t="shared" si="34"/>
         <v>4</v>
       </c>
-      <c r="AK230" s="6">
+      <c r="AK230" s="6" t="str">
         <f t="shared" si="35"/>
-        <v>18.0779</v>
+        <v/>
       </c>
       <c r="AL230" s="6" t="str">
         <f t="shared" si="36"/>
@@ -32059,15 +32151,15 @@
       </c>
       <c r="AE246" s="6">
         <f t="shared" si="29"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF246" s="6">
         <f t="shared" si="30"/>
-        <v>4</v>
-      </c>
-      <c r="AG246" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG246" s="6" t="str">
         <f t="shared" si="31"/>
-        <v>0.13839999999999991</v>
+        <v/>
       </c>
       <c r="AH246" s="6" t="str">
         <f t="shared" si="32"/>
@@ -32528,7 +32620,7 @@
       </c>
       <c r="AJ250" s="6">
         <f t="shared" si="34"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK250" s="6" t="str">
         <f t="shared" si="35"/>
@@ -32977,7 +33069,7 @@
       </c>
       <c r="AJ254" s="6">
         <f t="shared" si="34"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK254" s="6" t="str">
         <f t="shared" si="35"/>
@@ -33090,7 +33182,7 @@
       </c>
       <c r="AJ255" s="6">
         <f t="shared" si="34"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK255" s="6" t="str">
         <f t="shared" si="35"/>
@@ -33184,7 +33276,7 @@
       </c>
       <c r="AF256" s="6">
         <f t="shared" si="30"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG256" s="6" t="str">
         <f t="shared" si="31"/>
@@ -33294,7 +33386,7 @@
       </c>
       <c r="AF257" s="6">
         <f t="shared" si="30"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG257" s="6" t="str">
         <f t="shared" si="31"/>
@@ -33645,15 +33737,15 @@
       </c>
       <c r="AI260" s="6">
         <f t="shared" si="33"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ260" s="6">
         <f t="shared" si="34"/>
-        <v>5</v>
-      </c>
-      <c r="AK260" s="6">
+        <v>3</v>
+      </c>
+      <c r="AK260" s="6" t="str">
         <f t="shared" si="35"/>
-        <v>34.660599999999995</v>
+        <v/>
       </c>
       <c r="AL260" s="6" t="str">
         <f t="shared" si="36"/>
@@ -33758,7 +33850,7 @@
       </c>
       <c r="AI261" s="6">
         <f t="shared" si="33"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ261" s="6">
         <f t="shared" si="34"/>
@@ -34244,15 +34336,15 @@
       </c>
       <c r="AE266" s="6">
         <f t="shared" si="29"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF266" s="6">
         <f t="shared" si="30"/>
-        <v>4</v>
-      </c>
-      <c r="AG266" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG266" s="6" t="str">
         <f t="shared" si="31"/>
-        <v>0.24800000000000044</v>
+        <v/>
       </c>
       <c r="AH266" s="6" t="str">
         <f t="shared" si="32"/>
@@ -35047,15 +35139,15 @@
       </c>
       <c r="AI274" s="6">
         <f t="shared" si="42"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ274" s="6">
         <f t="shared" si="43"/>
-        <v>3</v>
-      </c>
-      <c r="AK274" s="6" t="str">
+        <v>4</v>
+      </c>
+      <c r="AK274" s="6">
         <f t="shared" si="44"/>
-        <v/>
+        <v>18.636999999999993</v>
       </c>
       <c r="AL274" s="6" t="str">
         <f t="shared" si="45"/>
@@ -35350,11 +35442,11 @@
       </c>
       <c r="AI277" s="6">
         <f t="shared" si="42"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ277" s="6">
         <f t="shared" si="43"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK277" s="6" t="str">
         <f t="shared" si="44"/>
@@ -36321,7 +36413,7 @@
       </c>
       <c r="AF287" s="6">
         <f t="shared" si="39"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG287" s="6" t="str">
         <f t="shared" si="40"/>
@@ -37003,15 +37095,15 @@
       </c>
       <c r="AE294" s="6">
         <f t="shared" si="38"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF294" s="6">
         <f t="shared" si="39"/>
-        <v>3</v>
-      </c>
-      <c r="AG294" s="6" t="str">
+        <v>4</v>
+      </c>
+      <c r="AG294" s="6">
         <f t="shared" si="40"/>
-        <v/>
+        <v>0.43029999999999985</v>
       </c>
       <c r="AH294" s="6" t="str">
         <f t="shared" si="41"/>
@@ -37196,15 +37288,15 @@
       </c>
       <c r="AE296" s="6">
         <f t="shared" si="38"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF296" s="6">
         <f t="shared" si="39"/>
-        <v>3</v>
-      </c>
-      <c r="AG296" s="6" t="str">
+        <v>4</v>
+      </c>
+      <c r="AG296" s="6">
         <f t="shared" si="40"/>
-        <v/>
+        <v>0.81109999999999949</v>
       </c>
       <c r="AH296" s="6" t="str">
         <f t="shared" si="41"/>
@@ -37706,7 +37798,7 @@
       </c>
       <c r="AJ301" s="6">
         <f t="shared" si="43"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK301" s="6" t="str">
         <f t="shared" si="44"/>
@@ -37807,7 +37899,7 @@
       </c>
       <c r="AJ302" s="6">
         <f t="shared" si="43"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK302" s="6" t="str">
         <f t="shared" si="44"/>
@@ -37889,7 +37981,7 @@
       </c>
       <c r="AF303" s="6">
         <f t="shared" si="39"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AG303" s="6" t="str">
         <f t="shared" si="40"/>
@@ -37983,19 +38075,19 @@
       </c>
       <c r="AE304" s="6">
         <f t="shared" si="38"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF304" s="6">
         <f t="shared" si="39"/>
-        <v>5</v>
-      </c>
-      <c r="AG304" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG304" s="6" t="str">
         <f t="shared" si="40"/>
-        <v>0.16750000000000037</v>
-      </c>
-      <c r="AH304" s="6">
+        <v/>
+      </c>
+      <c r="AH304" s="6" t="str">
         <f t="shared" si="41"/>
-        <v>0.16750000000000037</v>
+        <v/>
       </c>
       <c r="AI304" s="6">
         <f t="shared" si="42"/>
@@ -38208,7 +38300,7 @@
       </c>
       <c r="AJ306" s="6">
         <f t="shared" si="43"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK306" s="6" t="str">
         <f t="shared" si="44"/>
@@ -38309,7 +38401,7 @@
       </c>
       <c r="AJ307" s="6">
         <f t="shared" si="43"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK307" s="6" t="str">
         <f t="shared" si="44"/>
@@ -38406,15 +38498,15 @@
       </c>
       <c r="AI308" s="6">
         <f t="shared" si="42"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ308" s="6">
         <f t="shared" si="43"/>
-        <v>5</v>
-      </c>
-      <c r="AK308" s="6">
+        <v>3</v>
+      </c>
+      <c r="AK308" s="6" t="str">
         <f t="shared" si="44"/>
-        <v>29.079600000000006</v>
+        <v/>
       </c>
       <c r="AL308" s="6" t="str">
         <f t="shared" si="45"/>
@@ -38510,15 +38602,15 @@
       </c>
       <c r="AI309" s="6">
         <f t="shared" si="42"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ309" s="6">
         <f t="shared" si="43"/>
         <v>4</v>
       </c>
-      <c r="AK309" s="6" t="str">
+      <c r="AK309" s="6">
         <f t="shared" si="44"/>
-        <v/>
+        <v>0.62390000000000034</v>
       </c>
       <c r="AL309" s="6" t="str">
         <f t="shared" si="45"/>
@@ -38615,7 +38707,7 @@
       </c>
       <c r="AJ310" s="6">
         <f t="shared" si="43"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK310" s="6" t="str">
         <f t="shared" si="44"/>
@@ -38697,7 +38789,7 @@
       </c>
       <c r="AF311" s="6">
         <f t="shared" si="39"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG311" s="6" t="str">
         <f t="shared" si="40"/>
@@ -38814,7 +38906,7 @@
       </c>
       <c r="AJ312" s="6">
         <f t="shared" si="43"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK312" s="6" t="str">
         <f t="shared" si="44"/>
@@ -38911,15 +39003,15 @@
       </c>
       <c r="AI313" s="6">
         <f t="shared" si="42"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ313" s="6">
         <f t="shared" si="43"/>
-        <v>5</v>
-      </c>
-      <c r="AK313" s="6">
+        <v>3</v>
+      </c>
+      <c r="AK313" s="6" t="str">
         <f t="shared" si="44"/>
-        <v>4.4179000000000013</v>
+        <v/>
       </c>
       <c r="AL313" s="6" t="str">
         <f t="shared" si="45"/>
@@ -39019,7 +39111,7 @@
       </c>
       <c r="AJ314" s="6">
         <f t="shared" si="43"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK314" s="6" t="str">
         <f t="shared" si="44"/>
@@ -39198,7 +39290,7 @@
       </c>
       <c r="AE316" s="6">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF316" s="6">
         <f t="shared" si="39"/>
@@ -39512,7 +39604,7 @@
       </c>
       <c r="AJ319" s="6">
         <f t="shared" si="43"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK319" s="6" t="str">
         <f t="shared" si="44"/>
@@ -39989,7 +40081,7 @@
       </c>
       <c r="AF324" s="6">
         <f t="shared" si="39"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG324" s="6" t="str">
         <f t="shared" si="40"/>
@@ -40207,7 +40299,7 @@
       </c>
       <c r="AJ326" s="6">
         <f t="shared" si="43"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK326" s="6" t="str">
         <f t="shared" si="44"/>
@@ -40803,15 +40895,15 @@
       </c>
       <c r="AI332" s="6">
         <f t="shared" si="51"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ332" s="6">
         <f t="shared" si="52"/>
-        <v>3</v>
-      </c>
-      <c r="AK332" s="6">
+        <v>2</v>
+      </c>
+      <c r="AK332" s="6" t="str">
         <f t="shared" si="53"/>
-        <v>19.269399999999997</v>
+        <v/>
       </c>
       <c r="AL332" s="6" t="str">
         <f t="shared" si="54"/>
@@ -40888,15 +40980,15 @@
       </c>
       <c r="AE333" s="6">
         <f t="shared" si="47"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF333" s="6">
         <f t="shared" si="48"/>
-        <v>4</v>
-      </c>
-      <c r="AG333" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG333" s="6" t="str">
         <f t="shared" si="49"/>
-        <v>25.499200000000002</v>
+        <v/>
       </c>
       <c r="AH333" s="6" t="str">
         <f t="shared" si="50"/>
@@ -41005,15 +41097,15 @@
       </c>
       <c r="AI334" s="6">
         <f t="shared" si="51"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ334" s="6">
         <f t="shared" si="52"/>
         <v>4</v>
       </c>
-      <c r="AK334" s="6">
+      <c r="AK334" s="6" t="str">
         <f t="shared" si="53"/>
-        <v>17.695900000000002</v>
+        <v/>
       </c>
       <c r="AL334" s="6" t="str">
         <f t="shared" si="54"/>
@@ -41087,19 +41179,19 @@
       </c>
       <c r="AE335" s="6">
         <f t="shared" si="47"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF335" s="6">
         <f t="shared" si="48"/>
-        <v>5</v>
-      </c>
-      <c r="AG335" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG335" s="6" t="str">
         <f t="shared" si="49"/>
-        <v>22.508299999999998</v>
-      </c>
-      <c r="AH335" s="6">
+        <v/>
+      </c>
+      <c r="AH335" s="6" t="str">
         <f t="shared" si="50"/>
-        <v>22.508299999999998</v>
+        <v/>
       </c>
       <c r="AI335" s="6">
         <f t="shared" si="51"/>
@@ -41204,15 +41296,15 @@
       </c>
       <c r="AI336" s="6">
         <f t="shared" si="51"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ336" s="6">
         <f t="shared" si="52"/>
-        <v>4</v>
-      </c>
-      <c r="AK336" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK336" s="6" t="str">
         <f t="shared" si="53"/>
-        <v>21.537500000000001</v>
+        <v/>
       </c>
       <c r="AL336" s="6" t="str">
         <f t="shared" si="54"/>
@@ -41293,7 +41385,7 @@
       </c>
       <c r="AF337" s="6">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG337" s="6" t="str">
         <f t="shared" si="49"/>
@@ -41406,15 +41498,15 @@
       </c>
       <c r="AI338" s="6">
         <f t="shared" si="51"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ338" s="6">
         <f t="shared" si="52"/>
         <v>4</v>
       </c>
-      <c r="AK338" s="6">
+      <c r="AK338" s="6" t="str">
         <f t="shared" si="53"/>
-        <v>0.27040000000000031</v>
+        <v/>
       </c>
       <c r="AL338" s="6" t="str">
         <f t="shared" si="54"/>
@@ -41596,7 +41688,7 @@
       </c>
       <c r="AF340" s="6">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG340" s="6" t="str">
         <f t="shared" si="49"/>
@@ -41890,7 +41982,7 @@
       </c>
       <c r="AF343" s="6">
         <f t="shared" si="48"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG343" s="6" t="str">
         <f t="shared" si="49"/>
@@ -42003,15 +42095,15 @@
       </c>
       <c r="AI344" s="6">
         <f t="shared" si="51"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ344" s="6">
         <f t="shared" si="52"/>
         <v>4</v>
       </c>
-      <c r="AK344" s="6">
+      <c r="AK344" s="6" t="str">
         <f t="shared" si="53"/>
-        <v>17.7852</v>
+        <v/>
       </c>
       <c r="AL344" s="6" t="str">
         <f t="shared" si="54"/>
@@ -42190,7 +42282,7 @@
       </c>
       <c r="AF346" s="6">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG346" s="6" t="str">
         <f t="shared" si="49"/>
@@ -42303,15 +42395,15 @@
       </c>
       <c r="AI347" s="6">
         <f t="shared" si="51"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ347" s="6">
         <f t="shared" si="52"/>
         <v>4</v>
       </c>
-      <c r="AK347" s="6">
+      <c r="AK347" s="6" t="str">
         <f t="shared" si="53"/>
-        <v>3.2949999999999999</v>
+        <v/>
       </c>
       <c r="AL347" s="6" t="str">
         <f t="shared" si="54"/>
@@ -42392,7 +42484,7 @@
       </c>
       <c r="AF348" s="6">
         <f t="shared" si="48"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AG348" s="6" t="str">
         <f t="shared" si="49"/>
@@ -42490,7 +42582,7 @@
       </c>
       <c r="AF349" s="6">
         <f t="shared" si="48"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG349" s="6" t="str">
         <f t="shared" si="49"/>
@@ -42762,7 +42854,7 @@
       </c>
       <c r="AE352" s="6">
         <f t="shared" si="47"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF352" s="6">
         <f t="shared" si="48"/>
@@ -42883,7 +42975,7 @@
       </c>
       <c r="AJ353" s="6">
         <f t="shared" si="52"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK353" s="6" t="str">
         <f t="shared" si="53"/>
@@ -42980,11 +43072,11 @@
       </c>
       <c r="AI354" s="6">
         <f t="shared" si="51"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ354" s="6">
         <f t="shared" si="52"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK354" s="6" t="str">
         <f t="shared" si="53"/>
@@ -43062,15 +43154,15 @@
       </c>
       <c r="AE355" s="6">
         <f t="shared" si="47"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF355" s="6">
         <f t="shared" si="48"/>
-        <v>4</v>
-      </c>
-      <c r="AG355" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG355" s="6" t="str">
         <f t="shared" si="49"/>
-        <v>0.23350000000000021</v>
+        <v/>
       </c>
       <c r="AH355" s="6" t="str">
         <f t="shared" si="50"/>
@@ -43379,7 +43471,7 @@
       </c>
       <c r="AJ358" s="6">
         <f t="shared" si="52"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK358" s="6" t="str">
         <f t="shared" si="53"/>
@@ -43881,7 +43973,7 @@
       </c>
       <c r="AJ363" s="6">
         <f t="shared" si="52"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK363" s="6" t="str">
         <f t="shared" si="53"/>
@@ -43963,7 +44055,7 @@
       </c>
       <c r="AF364" s="6">
         <f t="shared" si="48"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG364" s="6" t="str">
         <f t="shared" si="49"/>
@@ -44057,7 +44149,7 @@
       </c>
       <c r="AE365" s="6">
         <f t="shared" si="47"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF365" s="6">
         <f t="shared" si="48"/>
@@ -44177,15 +44269,15 @@
       </c>
       <c r="AI366" s="6">
         <f t="shared" si="51"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ366" s="6">
         <f t="shared" si="52"/>
         <v>4</v>
       </c>
-      <c r="AK366" s="6" t="str">
+      <c r="AK366" s="6">
         <f t="shared" si="53"/>
-        <v/>
+        <v>2.0665999999999993</v>
       </c>
       <c r="AL366" s="6" t="str">
         <f t="shared" si="54"/>
@@ -44282,7 +44374,7 @@
       </c>
       <c r="AJ367" s="6">
         <f t="shared" si="52"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK367" s="6" t="str">
         <f t="shared" si="53"/>
@@ -44464,19 +44556,19 @@
       </c>
       <c r="AE369" s="6">
         <f t="shared" si="47"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF369" s="6">
         <f t="shared" si="48"/>
-        <v>5</v>
-      </c>
-      <c r="AG369" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG369" s="6" t="str">
         <f t="shared" si="49"/>
-        <v>1.1790000000000007</v>
-      </c>
-      <c r="AH369" s="6">
+        <v/>
+      </c>
+      <c r="AH369" s="6" t="str">
         <f t="shared" si="50"/>
-        <v>1.1790000000000007</v>
+        <v/>
       </c>
       <c r="AI369" s="6">
         <f t="shared" si="51"/>
@@ -44588,7 +44680,7 @@
       </c>
       <c r="AJ370" s="6">
         <f t="shared" si="52"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK370" s="6" t="str">
         <f t="shared" si="53"/>
@@ -44670,7 +44762,7 @@
       </c>
       <c r="AF371" s="6">
         <f t="shared" si="48"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG371" s="6" t="str">
         <f t="shared" si="49"/>
@@ -44787,7 +44879,7 @@
       </c>
       <c r="AJ372" s="6">
         <f t="shared" si="52"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK372" s="6" t="str">
         <f t="shared" si="53"/>
@@ -45197,7 +45289,7 @@
       </c>
       <c r="AJ376" s="6">
         <f t="shared" si="52"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK376" s="6" t="str">
         <f t="shared" si="53"/>
@@ -45297,15 +45389,15 @@
       </c>
       <c r="AI377" s="6">
         <f t="shared" si="51"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ377" s="6">
         <f t="shared" si="52"/>
         <v>4</v>
       </c>
-      <c r="AK377" s="6">
+      <c r="AK377" s="6" t="str">
         <f t="shared" si="53"/>
-        <v>18.493800000000004</v>
+        <v/>
       </c>
       <c r="AL377" s="6" t="str">
         <f t="shared" si="54"/>
@@ -45379,11 +45471,11 @@
       </c>
       <c r="AE378" s="6">
         <f t="shared" si="47"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF378" s="6">
         <f t="shared" si="48"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AG378" s="6" t="str">
         <f t="shared" si="49"/>
@@ -45480,15 +45572,15 @@
       </c>
       <c r="AE379" s="6">
         <f t="shared" si="47"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF379" s="6">
         <f t="shared" si="48"/>
         <v>4</v>
       </c>
-      <c r="AG379" s="6">
+      <c r="AG379" s="6" t="str">
         <f t="shared" si="49"/>
-        <v>22.340199999999999</v>
+        <v/>
       </c>
       <c r="AH379" s="6" t="str">
         <f t="shared" si="50"/>
@@ -45676,15 +45768,15 @@
       </c>
       <c r="AE381" s="6">
         <f t="shared" si="47"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF381" s="6">
         <f t="shared" si="48"/>
         <v>4</v>
       </c>
-      <c r="AG381" s="6">
+      <c r="AG381" s="6" t="str">
         <f t="shared" si="49"/>
-        <v>1.6063000000000005</v>
+        <v/>
       </c>
       <c r="AH381" s="6" t="str">
         <f t="shared" si="50"/>
@@ -45803,7 +45895,7 @@
       </c>
       <c r="AJ382" s="6">
         <f t="shared" si="52"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK382" s="6" t="str">
         <f t="shared" si="53"/>
@@ -45891,7 +45983,7 @@
       </c>
       <c r="AF383" s="6">
         <f t="shared" si="48"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG383" s="6" t="str">
         <f t="shared" si="49"/>
@@ -46011,7 +46103,7 @@
       </c>
       <c r="AJ384" s="6">
         <f t="shared" si="52"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK384" s="6" t="str">
         <f t="shared" si="53"/>
@@ -46118,7 +46210,7 @@
       </c>
       <c r="AJ385" s="6">
         <f t="shared" si="52"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK385" s="6" t="str">
         <f t="shared" si="53"/>
@@ -46325,7 +46417,7 @@
       </c>
       <c r="AI387" s="6">
         <f t="shared" si="51"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ387" s="6">
         <f t="shared" si="52"/>
@@ -46413,19 +46505,19 @@
       </c>
       <c r="AE388" s="6">
         <f t="shared" si="47"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF388" s="6">
         <f t="shared" si="48"/>
-        <v>5</v>
-      </c>
-      <c r="AG388" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG388" s="6" t="str">
         <f t="shared" si="49"/>
-        <v>21.614300000000004</v>
-      </c>
-      <c r="AH388" s="6">
+        <v/>
+      </c>
+      <c r="AH388" s="6" t="str">
         <f t="shared" si="50"/>
-        <v>21.614300000000004</v>
+        <v/>
       </c>
       <c r="AI388" s="6">
         <f t="shared" si="51"/>
@@ -46514,19 +46606,19 @@
       </c>
       <c r="AE389" s="6">
         <f t="shared" si="47"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF389" s="6">
         <f t="shared" si="48"/>
-        <v>5</v>
-      </c>
-      <c r="AG389" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG389" s="6" t="str">
         <f t="shared" si="49"/>
-        <v>20.829499999999999</v>
-      </c>
-      <c r="AH389" s="6">
+        <v/>
+      </c>
+      <c r="AH389" s="6" t="str">
         <f t="shared" si="50"/>
-        <v>20.829499999999999</v>
+        <v/>
       </c>
       <c r="AI389" s="6">
         <f t="shared" si="51"/>
@@ -46717,7 +46809,7 @@
       </c>
       <c r="AF391" s="6">
         <f t="shared" si="48"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG391" s="6" t="str">
         <f t="shared" si="49"/>
@@ -47121,15 +47213,15 @@
       </c>
       <c r="AI395" s="6">
         <f t="shared" ref="AI395:AI458" si="60">IF(AND(AB395=$AB$5,AC395=$AC$5),IF(W395=$W$5,1,0)+IF(X395=$X$5,1,0)+IF(Y395=$Y$5,1,0),0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ395" s="6">
         <f t="shared" ref="AJ395:AJ458" si="61">IF(AND(AB395=$AB$5,AC395=$AC$5),IF(W395=$W$5,1,0)+IF(Z395=$Z$5,1,0)+IF(X395=$X$5,1,0)+IF(Y395=$Y$5,1,0)+IF(AA395=$AA$5,1,0)+IF(V395=$V$5,1,0),0)</f>
-        <v>5</v>
-      </c>
-      <c r="AK395" s="6">
+        <v>3</v>
+      </c>
+      <c r="AK395" s="6" t="str">
         <f t="shared" ref="AK395:AK458" si="62">IF(AND(AB395=$AB$5,AC395=$AC$5,AI395=MAX(AI$10:AI$5002)),(J395-J$4)^2+(K395-K$4)^2+(L395-L$4)^2+(M395-M$4)^2+(N395-N$4)^2+(O395-O$4)^2,"")</f>
-        <v>0.16689999999999991</v>
+        <v/>
       </c>
       <c r="AL395" s="6" t="str">
         <f t="shared" ref="AL395:AL458" si="63">IF(AND(AB395=$AB$5,AC395=$AC$5,AI395=MAX(AI$10:AI$5002),AJ395=MAX(AJ$10:AJ$5002)),(J395-J$4)^2+(K395-K$4)^2+(L395-L$4)^2+(M395-M$4)^2+(N395-N$4)^2+(O395-O$4)^2,"")</f>
@@ -47329,15 +47421,15 @@
       </c>
       <c r="AI397" s="6">
         <f t="shared" si="60"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ397" s="6">
         <f t="shared" si="61"/>
-        <v>5</v>
-      </c>
-      <c r="AK397" s="6">
+        <v>3</v>
+      </c>
+      <c r="AK397" s="6" t="str">
         <f t="shared" si="62"/>
-        <v>22.6739</v>
+        <v/>
       </c>
       <c r="AL397" s="6" t="str">
         <f t="shared" si="63"/>
@@ -47629,15 +47721,15 @@
       </c>
       <c r="AI400" s="6">
         <f t="shared" si="60"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ400" s="6">
         <f t="shared" si="61"/>
-        <v>5</v>
-      </c>
-      <c r="AK400" s="6">
+        <v>3</v>
+      </c>
+      <c r="AK400" s="6" t="str">
         <f t="shared" si="62"/>
-        <v>0.28230000000000011</v>
+        <v/>
       </c>
       <c r="AL400" s="6" t="str">
         <f t="shared" si="63"/>
@@ -47917,7 +48009,7 @@
       </c>
       <c r="AF403" s="6">
         <f t="shared" si="57"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG403" s="6" t="str">
         <f t="shared" si="58"/>
@@ -48219,7 +48311,7 @@
       </c>
       <c r="AE406" s="6">
         <f t="shared" si="56"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF406" s="6">
         <f t="shared" si="57"/>
@@ -48434,15 +48526,15 @@
       </c>
       <c r="AI408" s="6">
         <f t="shared" si="60"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ408" s="6">
         <f t="shared" si="61"/>
-        <v>4</v>
-      </c>
-      <c r="AK408" s="6">
+        <v>3</v>
+      </c>
+      <c r="AK408" s="6" t="str">
         <f t="shared" si="62"/>
-        <v>25.0824</v>
+        <v/>
       </c>
       <c r="AL408" s="6" t="str">
         <f t="shared" si="63"/>
@@ -49034,7 +49126,7 @@
       </c>
       <c r="AF414" s="6">
         <f t="shared" si="57"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG414" s="6" t="str">
         <f t="shared" si="58"/>
@@ -49128,19 +49220,19 @@
       </c>
       <c r="AE415" s="6">
         <f t="shared" si="56"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF415" s="6">
         <f t="shared" si="57"/>
-        <v>5</v>
-      </c>
-      <c r="AG415" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG415" s="6" t="str">
         <f t="shared" si="58"/>
-        <v>16.851200000000002</v>
-      </c>
-      <c r="AH415" s="6">
+        <v/>
+      </c>
+      <c r="AH415" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>16.851200000000002</v>
+        <v/>
       </c>
       <c r="AI415" s="6">
         <f t="shared" si="60"/>
@@ -49324,11 +49416,11 @@
       </c>
       <c r="AE417" s="6">
         <f t="shared" si="56"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF417" s="6">
         <f t="shared" si="57"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG417" s="6" t="str">
         <f t="shared" si="58"/>
@@ -49548,15 +49640,15 @@
       </c>
       <c r="AI419" s="6">
         <f t="shared" si="60"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ419" s="6">
         <f t="shared" si="61"/>
-        <v>5</v>
-      </c>
-      <c r="AK419" s="6">
+        <v>3</v>
+      </c>
+      <c r="AK419" s="6" t="str">
         <f t="shared" si="62"/>
-        <v>22.675599999999996</v>
+        <v/>
       </c>
       <c r="AL419" s="6" t="str">
         <f t="shared" si="63"/>
@@ -49953,7 +50045,7 @@
       </c>
       <c r="AJ423" s="6">
         <f t="shared" si="61"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK423" s="6" t="str">
         <f t="shared" si="62"/>
@@ -50152,7 +50244,7 @@
       </c>
       <c r="AJ425" s="6">
         <f t="shared" si="61"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK425" s="6" t="str">
         <f t="shared" si="62"/>
@@ -50230,15 +50322,15 @@
       </c>
       <c r="AE426" s="6">
         <f t="shared" si="56"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF426" s="6">
         <f t="shared" si="57"/>
-        <v>4</v>
-      </c>
-      <c r="AG426" s="6">
+        <v>5</v>
+      </c>
+      <c r="AG426" s="6" t="str">
         <f t="shared" si="58"/>
-        <v>22.656300000000002</v>
+        <v/>
       </c>
       <c r="AH426" s="6" t="str">
         <f t="shared" si="59"/>
@@ -50356,7 +50448,7 @@
         <v/>
       </c>
       <c r="AQ427" s="12" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="428" spans="2:43">
@@ -50460,7 +50552,7 @@
         <v/>
       </c>
       <c r="AQ428" s="12" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="429" spans="2:43">
@@ -50556,7 +50648,7 @@
       </c>
       <c r="AJ429" s="6">
         <f t="shared" si="61"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK429" s="6" t="str">
         <f t="shared" si="62"/>
@@ -50656,22 +50748,22 @@
       </c>
       <c r="AI430" s="6">
         <f t="shared" si="60"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ430" s="6">
         <f t="shared" si="61"/>
         <v>4</v>
       </c>
-      <c r="AK430" s="6" t="str">
+      <c r="AK430" s="6">
         <f t="shared" si="62"/>
-        <v/>
+        <v>27.837399999999999</v>
       </c>
       <c r="AL430" s="6" t="str">
         <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="AQ430" s="6" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="431" spans="2:43">
@@ -50867,11 +50959,11 @@
       </c>
       <c r="AI432" s="6">
         <f t="shared" si="60"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ432" s="6">
         <f t="shared" si="61"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AK432" s="6" t="str">
         <f t="shared" si="62"/>
@@ -50971,15 +51063,15 @@
       </c>
       <c r="AI433" s="6">
         <f t="shared" si="60"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ433" s="6">
         <f t="shared" si="61"/>
-        <v>4</v>
-      </c>
-      <c r="AK433" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK433" s="6" t="str">
         <f t="shared" si="62"/>
-        <v>20.1585</v>
+        <v/>
       </c>
       <c r="AL433" s="6" t="str">
         <f t="shared" si="63"/>
@@ -51148,15 +51240,15 @@
       </c>
       <c r="AE435" s="6">
         <f t="shared" si="56"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF435" s="6">
         <f t="shared" si="57"/>
-        <v>4</v>
-      </c>
-      <c r="AG435" s="6">
+        <v>5</v>
+      </c>
+      <c r="AG435" s="6" t="str">
         <f t="shared" si="58"/>
-        <v>0.89440000000000053</v>
+        <v/>
       </c>
       <c r="AH435" s="6" t="str">
         <f t="shared" si="59"/>
@@ -51376,7 +51468,7 @@
       </c>
       <c r="AJ437" s="6">
         <f t="shared" si="61"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK437" s="6" t="str">
         <f t="shared" si="62"/>
@@ -51595,7 +51687,7 @@
         <v/>
       </c>
       <c r="AQ439" s="6" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="440" spans="2:43">
@@ -51612,16 +51704,16 @@
         <v>42631.541666666664</v>
       </c>
       <c r="F440" s="5" t="s">
+        <v>947</v>
+      </c>
+      <c r="G440" s="5" t="s">
         <v>948</v>
       </c>
-      <c r="G440" s="5" t="s">
-        <v>949</v>
-      </c>
       <c r="H440" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="I440" s="3" t="s">
         <v>948</v>
-      </c>
-      <c r="I440" s="3" t="s">
-        <v>949</v>
       </c>
       <c r="J440" s="5">
         <v>5</v>
@@ -51707,16 +51799,16 @@
         <v>42631.625</v>
       </c>
       <c r="F441" s="5" t="s">
+        <v>949</v>
+      </c>
+      <c r="G441" s="5" t="s">
         <v>950</v>
       </c>
-      <c r="G441" s="5" t="s">
+      <c r="H441" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="I441" s="3" t="s">
         <v>951</v>
-      </c>
-      <c r="H441" s="3" t="s">
-        <v>950</v>
-      </c>
-      <c r="I441" s="3" t="s">
-        <v>952</v>
       </c>
       <c r="J441" s="5">
         <v>2.04</v>
@@ -51786,7 +51878,7 @@
       </c>
       <c r="AJ441" s="6">
         <f t="shared" si="61"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK441" s="6" t="str">
         <f t="shared" si="62"/>
@@ -51797,7 +51889,7 @@
         <v/>
       </c>
       <c r="AQ441" s="6" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="442" spans="2:43">
@@ -51895,7 +51987,7 @@
         <v/>
       </c>
       <c r="AQ442" s="12" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="443" spans="2:43">
@@ -51965,15 +52057,15 @@
       </c>
       <c r="AE443" s="6">
         <f t="shared" si="56"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF443" s="6">
         <f t="shared" si="57"/>
         <v>4</v>
       </c>
-      <c r="AG443" s="6">
+      <c r="AG443" s="6" t="str">
         <f t="shared" si="58"/>
-        <v>19.634400000000003</v>
+        <v/>
       </c>
       <c r="AH443" s="6" t="str">
         <f t="shared" si="59"/>
@@ -52013,13 +52105,13 @@
         <v>68</v>
       </c>
       <c r="G444" s="5" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H444" s="3" t="s">
         <v>68</v>
       </c>
       <c r="I444" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J444" s="5">
         <v>1.82</v>
@@ -52089,7 +52181,7 @@
       </c>
       <c r="AJ444" s="6">
         <f t="shared" si="61"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK444" s="6" t="str">
         <f t="shared" si="62"/>
@@ -52100,7 +52192,7 @@
         <v/>
       </c>
       <c r="AQ444" s="6" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="445" spans="2:43">
@@ -52117,13 +52209,13 @@
         <v>42631.666666666664</v>
       </c>
       <c r="F445" s="5" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="G445" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H445" s="3" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="I445" s="3" t="s">
         <v>63</v>
@@ -52196,7 +52288,7 @@
       </c>
       <c r="AJ445" s="6">
         <f t="shared" si="61"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK445" s="6" t="str">
         <f t="shared" si="62"/>
@@ -52207,7 +52299,7 @@
         <v/>
       </c>
       <c r="AQ445" s="6" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="446" spans="2:43">
@@ -52224,16 +52316,16 @@
         <v>42631.708333333336</v>
       </c>
       <c r="F446" s="5" t="s">
+        <v>956</v>
+      </c>
+      <c r="G446" s="5" t="s">
         <v>957</v>
       </c>
-      <c r="G446" s="5" t="s">
-        <v>958</v>
-      </c>
       <c r="H446" s="3" t="s">
+        <v>956</v>
+      </c>
+      <c r="I446" s="3" t="s">
         <v>957</v>
-      </c>
-      <c r="I446" s="3" t="s">
-        <v>958</v>
       </c>
       <c r="J446" s="5">
         <v>2.2200000000000002</v>
@@ -52281,7 +52373,7 @@
       </c>
       <c r="AF446" s="6">
         <f t="shared" si="57"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG446" s="6" t="str">
         <f t="shared" si="58"/>
@@ -52308,7 +52400,7 @@
         <v/>
       </c>
       <c r="AQ446" s="12" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="447" spans="2:43">
@@ -52325,16 +52417,16 @@
         <v>42631.708333333336</v>
       </c>
       <c r="F447" s="5" t="s">
+        <v>958</v>
+      </c>
+      <c r="G447" s="5" t="s">
         <v>959</v>
       </c>
-      <c r="G447" s="5" t="s">
+      <c r="H447" s="3" t="s">
         <v>960</v>
       </c>
-      <c r="H447" s="3" t="s">
-        <v>961</v>
-      </c>
       <c r="I447" s="3" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J447" s="5">
         <v>3.1</v>
@@ -52382,7 +52474,7 @@
       </c>
       <c r="AF447" s="6">
         <f t="shared" si="57"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG447" s="6" t="str">
         <f t="shared" si="58"/>
@@ -52580,15 +52672,15 @@
       </c>
       <c r="AE449" s="6">
         <f t="shared" si="56"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF449" s="6">
         <f t="shared" si="57"/>
         <v>4</v>
       </c>
-      <c r="AG449" s="6">
+      <c r="AG449" s="6" t="str">
         <f t="shared" si="58"/>
-        <v>22.669800000000002</v>
+        <v/>
       </c>
       <c r="AH449" s="6" t="str">
         <f t="shared" si="59"/>
@@ -52625,13 +52717,13 @@
         <v>42631.708333333336</v>
       </c>
       <c r="F450" s="5" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="G450" s="5" t="s">
         <v>72</v>
       </c>
       <c r="H450" s="3" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="I450" s="3" t="s">
         <v>72</v>
@@ -52704,7 +52796,7 @@
       </c>
       <c r="AJ450" s="6">
         <f t="shared" si="61"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK450" s="6" t="str">
         <f t="shared" si="62"/>
@@ -52729,13 +52821,13 @@
         <v>42631.75</v>
       </c>
       <c r="F451" s="5" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="G451" s="5" t="s">
         <v>315</v>
       </c>
       <c r="H451" s="3" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="I451" s="3" t="s">
         <v>316</v>
@@ -52804,22 +52896,22 @@
       </c>
       <c r="AI451" s="6">
         <f t="shared" si="60"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ451" s="6">
         <f t="shared" si="61"/>
         <v>4</v>
       </c>
-      <c r="AK451" s="6">
+      <c r="AK451" s="6" t="str">
         <f t="shared" si="62"/>
-        <v>1.2448000000000006</v>
+        <v/>
       </c>
       <c r="AL451" s="6" t="str">
         <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="AQ451" s="6" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="452" spans="2:43">
@@ -52839,13 +52931,13 @@
         <v>314</v>
       </c>
       <c r="G452" s="5" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H452" s="3" t="s">
         <v>314</v>
       </c>
       <c r="I452" s="3" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="J452" s="5">
         <v>3.7</v>
@@ -52915,7 +53007,7 @@
       </c>
       <c r="AJ452" s="6">
         <f t="shared" si="61"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK452" s="6" t="str">
         <f t="shared" si="62"/>
@@ -52940,16 +53032,16 @@
         <v>42631.75</v>
       </c>
       <c r="F453" s="5" t="s">
+        <v>967</v>
+      </c>
+      <c r="G453" s="5" t="s">
         <v>968</v>
       </c>
-      <c r="G453" s="5" t="s">
+      <c r="H453" s="3" t="s">
         <v>969</v>
       </c>
-      <c r="H453" s="3" t="s">
-        <v>970</v>
-      </c>
       <c r="I453" s="3" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="J453" s="5">
         <v>4.25</v>
@@ -53030,7 +53122,7 @@
         <v/>
       </c>
       <c r="AQ453" s="6" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="454" spans="2:43">
@@ -53047,13 +53139,13 @@
         <v>42631.75</v>
       </c>
       <c r="F454" s="5" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="G454" s="5" t="s">
         <v>698</v>
       </c>
       <c r="H454" s="3" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="I454" s="3" t="s">
         <v>699</v>
@@ -53151,16 +53243,16 @@
         <v>42631.770833333336</v>
       </c>
       <c r="F455" s="5" t="s">
+        <v>971</v>
+      </c>
+      <c r="G455" s="5" t="s">
         <v>972</v>
       </c>
-      <c r="G455" s="5" t="s">
+      <c r="H455" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="H455" s="3" t="s">
+      <c r="I455" s="3" t="s">
         <v>974</v>
-      </c>
-      <c r="I455" s="3" t="s">
-        <v>975</v>
       </c>
       <c r="J455" s="5">
         <v>3.16</v>
@@ -53230,7 +53322,7 @@
       </c>
       <c r="AJ455" s="6">
         <f t="shared" si="61"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK455" s="6" t="str">
         <f t="shared" si="62"/>
@@ -53241,7 +53333,7 @@
         <v/>
       </c>
       <c r="AQ455" s="6" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="456" spans="2:43">
@@ -53333,22 +53425,22 @@
       </c>
       <c r="AI456" s="6">
         <f t="shared" si="60"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ456" s="6">
         <f t="shared" si="61"/>
-        <v>4</v>
-      </c>
-      <c r="AK456" s="6">
+        <v>3</v>
+      </c>
+      <c r="AK456" s="6" t="str">
         <f t="shared" si="62"/>
-        <v>21.5441</v>
+        <v/>
       </c>
       <c r="AL456" s="6" t="str">
         <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="AQ456" s="6" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="457" spans="2:43">
@@ -53365,13 +53457,13 @@
         <v>42631.770833333336</v>
       </c>
       <c r="F457" s="5" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="G457" s="5" t="s">
         <v>152</v>
       </c>
       <c r="H457" s="3" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="I457" s="3" t="s">
         <v>152</v>
@@ -53446,7 +53538,7 @@
         <v/>
       </c>
       <c r="AQ457" s="6" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="458" spans="2:43">
@@ -53463,13 +53555,13 @@
         <v>42631.791666666664</v>
       </c>
       <c r="F458" s="5" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="G458" s="5" t="s">
         <v>670</v>
       </c>
       <c r="H458" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I458" s="3" t="s">
         <v>671</v>
@@ -53567,16 +53659,16 @@
         <v>42631.791666666664</v>
       </c>
       <c r="F459" s="5" t="s">
+        <v>977</v>
+      </c>
+      <c r="G459" s="5" t="s">
         <v>978</v>
       </c>
-      <c r="G459" s="5" t="s">
+      <c r="H459" s="3" t="s">
         <v>979</v>
       </c>
-      <c r="H459" s="3" t="s">
-        <v>980</v>
-      </c>
       <c r="I459" s="3" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="J459" s="5">
         <v>3.8</v>
@@ -53620,19 +53712,19 @@
       </c>
       <c r="AE459" s="6">
         <f t="shared" ref="AE459:AE522" si="65">IF(AND(AB459=$AB$4,AC459=$AC$4),IF(W459=$W$4,1,0)+IF(X459=$X$4,1,0)+IF(Y459=$Y$4,1,0),0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF459" s="6">
         <f t="shared" ref="AF459:AF522" si="66">IF(AND(AB459=$AB$4,AC459=$AC$4),IF(W459=$W$4,1,0)+IF(Z459=$Z$4,1,0)+IF(X459=$X$4,1,0)+IF(Y459=$Y$4,1,0)+IF(AA459=$AA$4,1,0)+IF(V459=$V$4,1,0),0)</f>
-        <v>5</v>
-      </c>
-      <c r="AG459" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG459" s="6" t="str">
         <f t="shared" ref="AG459:AG522" si="67">IF(AND(AB459=$AB$4,AC459=$AC$4,AE459=MAX(AE$10:AE$5002)),(J459-J$4)^2+(K459-K$4)^2+(L459-L$4)^2+(M459-M$4)^2+(N459-N$4)^2+(O459-O$4)^2,"")</f>
-        <v>3.6125000000000003</v>
-      </c>
-      <c r="AH459" s="6">
+        <v/>
+      </c>
+      <c r="AH459" s="6" t="str">
         <f t="shared" ref="AH459:AH522" si="68">IF(AND(AB459=$AB$4,AC459=$AC$4,AE459=MAX(AE$10:AE$5002),AF459=MAX(AF$10:AF$5002)),(J459-J$4)^2+(K459-K$4)^2+(L459-L$4)^2+(M459-M$4)^2+(N459-N$4)^2+(O459-O$4)^2,"")</f>
-        <v>3.6125000000000003</v>
+        <v/>
       </c>
       <c r="AI459" s="6">
         <f t="shared" ref="AI459:AI522" si="69">IF(AND(AB459=$AB$5,AC459=$AC$5),IF(W459=$W$5,1,0)+IF(X459=$X$5,1,0)+IF(Y459=$Y$5,1,0),0)</f>
@@ -53668,13 +53760,13 @@
         <v>87</v>
       </c>
       <c r="G460" s="5" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H460" s="3" t="s">
         <v>87</v>
       </c>
       <c r="I460" s="3" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J460" s="5">
         <v>2.65</v>
@@ -53740,22 +53832,22 @@
       </c>
       <c r="AI460" s="6">
         <f t="shared" si="69"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ460" s="6">
         <f t="shared" si="70"/>
-        <v>6</v>
-      </c>
-      <c r="AK460" s="6">
+        <v>3</v>
+      </c>
+      <c r="AK460" s="6" t="str">
         <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="AL460" s="6">
+        <v/>
+      </c>
+      <c r="AL460" s="6" t="str">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="AQ460" s="12" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="461" spans="2:43">
@@ -53775,13 +53867,13 @@
         <v>90</v>
       </c>
       <c r="G461" s="5" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H461" s="3" t="s">
         <v>90</v>
       </c>
       <c r="I461" s="3" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="J461" s="5">
         <v>1.96</v>
@@ -53808,6 +53900,27 @@
         <f t="shared" si="64"/>
         <v>德乙</v>
       </c>
+      <c r="W461" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="X461" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y461" s="6" t="s">
+        <v>878</v>
+      </c>
+      <c r="Z461" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA461" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB461" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC461" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="AE461" s="6">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -53826,11 +53939,11 @@
       </c>
       <c r="AI461" s="6">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ461" s="6">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK461" s="6" t="str">
         <f t="shared" si="71"/>
@@ -53855,13 +53968,13 @@
         <v>42631.8125</v>
       </c>
       <c r="F462" s="5" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="G462" s="5" t="s">
         <v>91</v>
       </c>
       <c r="H462" s="3" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I462" s="3" t="s">
         <v>91</v>
@@ -53891,6 +54004,27 @@
         <f t="shared" si="64"/>
         <v>德乙</v>
       </c>
+      <c r="W462" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="X462" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y462" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z462" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA462" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB462" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC462" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="AE462" s="6">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -53913,7 +54047,7 @@
       </c>
       <c r="AJ462" s="6">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK462" s="6" t="str">
         <f t="shared" si="71"/>
@@ -53938,13 +54072,13 @@
         <v>42631.854166666664</v>
       </c>
       <c r="F463" s="5" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="G463" s="5" t="s">
         <v>151</v>
       </c>
       <c r="H463" s="3" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="I463" s="3" t="s">
         <v>151</v>
@@ -53974,13 +54108,28 @@
         <f t="shared" si="64"/>
         <v>荷甲</v>
       </c>
+      <c r="W463" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="X463" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y463" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z463" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC463" s="6">
+        <v>1</v>
+      </c>
       <c r="AE463" s="6">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF463" s="6">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG463" s="6" t="str">
         <f t="shared" si="67"/>
@@ -54005,6 +54154,9 @@
       <c r="AL463" s="6" t="str">
         <f t="shared" si="72"/>
         <v/>
+      </c>
+      <c r="AQ463" s="6" t="s">
+        <v>1023</v>
       </c>
     </row>
     <row r="464" spans="2:43">
@@ -54057,6 +54209,27 @@
         <f t="shared" si="64"/>
         <v>荷甲</v>
       </c>
+      <c r="W464" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="X464" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y464" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z464" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA464" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB464" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC464" s="6">
+        <v>1</v>
+      </c>
       <c r="AE464" s="6">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -54090,7 +54263,7 @@
         <v/>
       </c>
     </row>
-    <row r="465" spans="2:38">
+    <row r="465" spans="2:43">
       <c r="B465" s="2">
         <v>42631</v>
       </c>
@@ -54140,6 +54313,27 @@
         <f t="shared" si="64"/>
         <v>比甲</v>
       </c>
+      <c r="W465" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="X465" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y465" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z465" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA465" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB465" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC465" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="AE465" s="6">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -54172,8 +54366,11 @@
         <f t="shared" si="72"/>
         <v/>
       </c>
-    </row>
-    <row r="466" spans="2:38">
+      <c r="AQ465" s="6" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="466" spans="2:43">
       <c r="B466" s="2">
         <v>42631</v>
       </c>
@@ -54223,13 +54420,28 @@
         <f t="shared" si="64"/>
         <v>意甲</v>
       </c>
+      <c r="W466" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X466" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y466" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z466" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC466" s="6">
+        <v>1</v>
+      </c>
       <c r="AE466" s="6">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF466" s="6">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG466" s="6" t="str">
         <f t="shared" si="67"/>
@@ -54256,7 +54468,7 @@
         <v/>
       </c>
     </row>
-    <row r="467" spans="2:38">
+    <row r="467" spans="2:43">
       <c r="B467" s="2">
         <v>42631</v>
       </c>
@@ -54306,6 +54518,27 @@
         <f t="shared" si="64"/>
         <v>意甲</v>
       </c>
+      <c r="W467" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X467" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y467" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z467" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA467" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB467" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC467" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="AE467" s="6">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -54324,11 +54557,11 @@
       </c>
       <c r="AI467" s="6">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ467" s="6">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK467" s="6" t="str">
         <f t="shared" si="71"/>
@@ -54339,7 +54572,7 @@
         <v/>
       </c>
     </row>
-    <row r="468" spans="2:38">
+    <row r="468" spans="2:43">
       <c r="B468" s="2">
         <v>42631</v>
       </c>
@@ -54389,6 +54622,27 @@
         <f t="shared" si="64"/>
         <v>意甲</v>
       </c>
+      <c r="W468" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="X468" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y468" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z468" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA468" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB468" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC468" s="6">
+        <v>1</v>
+      </c>
       <c r="AE468" s="6">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -54422,7 +54676,7 @@
         <v/>
       </c>
     </row>
-    <row r="469" spans="2:38">
+    <row r="469" spans="2:43">
       <c r="B469" s="2">
         <v>42631</v>
       </c>
@@ -54472,13 +54726,28 @@
         <f t="shared" si="64"/>
         <v>意甲</v>
       </c>
+      <c r="W469" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="X469" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y469" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z469" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC469" s="6">
+        <v>1</v>
+      </c>
       <c r="AE469" s="6">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AF469" s="6">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG469" s="6" t="str">
         <f t="shared" si="67"/>
@@ -54505,7 +54774,7 @@
         <v/>
       </c>
     </row>
-    <row r="470" spans="2:38">
+    <row r="470" spans="2:43">
       <c r="B470" s="2">
         <v>42631</v>
       </c>
@@ -54519,13 +54788,13 @@
         <v>42631.875</v>
       </c>
       <c r="F470" s="5" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="G470" s="5" t="s">
         <v>704</v>
       </c>
       <c r="H470" s="3" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="I470" s="3" t="s">
         <v>704</v>
@@ -54555,6 +54824,27 @@
         <f t="shared" si="64"/>
         <v>法甲</v>
       </c>
+      <c r="W470" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="X470" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y470" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="Z470" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA470" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB470" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC470" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="AE470" s="6">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -54573,11 +54863,11 @@
       </c>
       <c r="AI470" s="6">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ470" s="6">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK470" s="6" t="str">
         <f t="shared" si="71"/>
@@ -54588,7 +54878,7 @@
         <v/>
       </c>
     </row>
-    <row r="471" spans="2:38">
+    <row r="471" spans="2:43">
       <c r="B471" s="2">
         <v>42631</v>
       </c>
@@ -54638,6 +54928,18 @@
         <f t="shared" si="64"/>
         <v>瑞典超</v>
       </c>
+      <c r="W471" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="X471" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y471" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z471" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="AE471" s="6">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -54671,7 +54973,7 @@
         <v/>
       </c>
     </row>
-    <row r="472" spans="2:38">
+    <row r="472" spans="2:43">
       <c r="B472" s="2">
         <v>42631</v>
       </c>
@@ -54688,13 +54990,13 @@
         <v>169</v>
       </c>
       <c r="G472" s="5" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H472" s="3" t="s">
         <v>169</v>
       </c>
       <c r="I472" s="3" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="J472" s="5">
         <v>3.6</v>
@@ -54721,6 +55023,18 @@
         <f t="shared" si="64"/>
         <v>瑞典超</v>
       </c>
+      <c r="W472" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="X472" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y472" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z472" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="AE472" s="6">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -54754,7 +55068,7 @@
         <v/>
       </c>
     </row>
-    <row r="473" spans="2:38">
+    <row r="473" spans="2:43">
       <c r="B473" s="2">
         <v>42631</v>
       </c>
@@ -54804,6 +55118,18 @@
         <f t="shared" si="64"/>
         <v>瑞典超</v>
       </c>
+      <c r="W473" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="X473" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y473" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z473" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="AE473" s="6">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -54837,7 +55163,7 @@
         <v/>
       </c>
     </row>
-    <row r="474" spans="2:38">
+    <row r="474" spans="2:43">
       <c r="B474" s="2">
         <v>42631</v>
       </c>
@@ -54851,16 +55177,16 @@
         <v>42631.885416666664</v>
       </c>
       <c r="F474" s="5" t="s">
+        <v>987</v>
+      </c>
+      <c r="G474" s="5" t="s">
         <v>988</v>
       </c>
-      <c r="G474" s="5" t="s">
-        <v>989</v>
-      </c>
       <c r="H474" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="I474" s="3" t="s">
         <v>988</v>
-      </c>
-      <c r="I474" s="3" t="s">
-        <v>989</v>
       </c>
       <c r="J474" s="5">
         <v>1.88</v>
@@ -54887,13 +55213,31 @@
         <f t="shared" si="64"/>
         <v>英超</v>
       </c>
+      <c r="W474" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="X474" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y474" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z474" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA474" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC474" s="6">
+        <v>1</v>
+      </c>
       <c r="AE474" s="6">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF474" s="6">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG474" s="6" t="str">
         <f t="shared" si="67"/>
@@ -54919,8 +55263,11 @@
         <f t="shared" si="72"/>
         <v/>
       </c>
-    </row>
-    <row r="475" spans="2:38">
+      <c r="AQ474" s="6" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="475" spans="2:43">
       <c r="B475" s="2">
         <v>42631</v>
       </c>
@@ -54937,13 +55284,13 @@
         <v>710</v>
       </c>
       <c r="G475" s="5" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H475" s="3" t="s">
         <v>712</v>
       </c>
       <c r="I475" s="3" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="J475" s="5">
         <v>1.56</v>
@@ -54970,6 +55317,18 @@
         <f t="shared" si="64"/>
         <v>英超</v>
       </c>
+      <c r="W475" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X475" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y475" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z475" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AE475" s="6">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -55003,7 +55362,7 @@
         <v/>
       </c>
     </row>
-    <row r="476" spans="2:38">
+    <row r="476" spans="2:43">
       <c r="B476" s="2">
         <v>42631</v>
       </c>
@@ -55053,6 +55412,27 @@
         <f t="shared" si="64"/>
         <v>德甲</v>
       </c>
+      <c r="W476" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="X476" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y476" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z476" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA476" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB476" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC476" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="AE476" s="6">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -55071,11 +55451,11 @@
       </c>
       <c r="AI476" s="6">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ476" s="6">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK476" s="6" t="str">
         <f t="shared" si="71"/>
@@ -55086,7 +55466,7 @@
         <v/>
       </c>
     </row>
-    <row r="477" spans="2:38">
+    <row r="477" spans="2:43">
       <c r="B477" s="2">
         <v>42631</v>
       </c>
@@ -55103,13 +55483,13 @@
         <v>138</v>
       </c>
       <c r="G477" s="5" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H477" s="3" t="s">
         <v>138</v>
       </c>
       <c r="I477" s="3" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="J477" s="5">
         <v>2.13</v>
@@ -55136,13 +55516,28 @@
         <f t="shared" si="64"/>
         <v>挪超</v>
       </c>
+      <c r="W477" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="X477" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y477" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z477" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC477" s="6">
+        <v>1</v>
+      </c>
       <c r="AE477" s="6">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF477" s="6">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG477" s="6" t="str">
         <f t="shared" si="67"/>
@@ -55168,8 +55563,11 @@
         <f t="shared" si="72"/>
         <v/>
       </c>
-    </row>
-    <row r="478" spans="2:38">
+      <c r="AQ477" s="6" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="478" spans="2:43">
       <c r="B478" s="2">
         <v>42631</v>
       </c>
@@ -55183,16 +55581,16 @@
         <v>42631.916666666664</v>
       </c>
       <c r="F478" s="5" t="s">
+        <v>991</v>
+      </c>
+      <c r="G478" s="5" t="s">
         <v>992</v>
       </c>
-      <c r="G478" s="5" t="s">
+      <c r="H478" s="3" t="s">
         <v>993</v>
       </c>
-      <c r="H478" s="3" t="s">
-        <v>994</v>
-      </c>
       <c r="I478" s="3" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="J478" s="5">
         <v>9.8000000000000007</v>
@@ -55219,6 +55617,27 @@
         <f t="shared" si="64"/>
         <v>苏超</v>
       </c>
+      <c r="W478" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="X478" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y478" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z478" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA478" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB478" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC478" s="6">
+        <v>1</v>
+      </c>
       <c r="AE478" s="6">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -55251,8 +55670,11 @@
         <f t="shared" si="72"/>
         <v/>
       </c>
-    </row>
-    <row r="479" spans="2:38">
+      <c r="AQ478" s="6" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="479" spans="2:43">
       <c r="B479" s="2">
         <v>42631</v>
       </c>
@@ -55302,6 +55724,18 @@
         <f t="shared" si="64"/>
         <v>巴西甲</v>
       </c>
+      <c r="W479" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="X479" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y479" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z479" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="AE479" s="6">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -55335,7 +55769,7 @@
         <v/>
       </c>
     </row>
-    <row r="480" spans="2:38">
+    <row r="480" spans="2:43">
       <c r="B480" s="2">
         <v>42631</v>
       </c>
@@ -55385,6 +55819,21 @@
         <f t="shared" si="64"/>
         <v>西甲</v>
       </c>
+      <c r="W480" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="X480" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y480" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z480" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA480" s="6">
+        <v>1</v>
+      </c>
       <c r="AE480" s="6">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -55417,8 +55866,11 @@
         <f t="shared" si="72"/>
         <v/>
       </c>
-    </row>
-    <row r="481" spans="2:38">
+      <c r="AQ480" s="6" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="481" spans="2:43">
       <c r="B481" s="2">
         <v>42631</v>
       </c>
@@ -55432,13 +55884,13 @@
         <v>42631.927083333336</v>
       </c>
       <c r="F481" s="5" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="G481" s="5" t="s">
         <v>637</v>
       </c>
       <c r="H481" s="3" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="I481" s="3" t="s">
         <v>638</v>
@@ -55468,6 +55920,18 @@
         <f t="shared" si="64"/>
         <v>俄超</v>
       </c>
+      <c r="W481" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="X481" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y481" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z481" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="AE481" s="6">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -55501,7 +55965,7 @@
         <v/>
       </c>
     </row>
-    <row r="482" spans="2:38">
+    <row r="482" spans="2:43">
       <c r="B482" s="2">
         <v>42631</v>
       </c>
@@ -55551,6 +56015,18 @@
         <f t="shared" si="64"/>
         <v>荷甲</v>
       </c>
+      <c r="W482" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="X482" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y482" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z482" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="AE482" s="6">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -55583,8 +56059,11 @@
         <f t="shared" si="72"/>
         <v/>
       </c>
-    </row>
-    <row r="483" spans="2:38">
+      <c r="AQ482" s="6" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="483" spans="2:43">
       <c r="B483" s="2">
         <v>42631</v>
       </c>
@@ -55601,13 +56080,13 @@
         <v>157</v>
       </c>
       <c r="G483" s="5" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H483" s="3" t="s">
         <v>157</v>
       </c>
       <c r="I483" s="3" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="J483" s="5">
         <v>1.54</v>
@@ -55634,6 +56113,18 @@
         <f t="shared" si="64"/>
         <v>法甲</v>
       </c>
+      <c r="W483" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="X483" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y483" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z483" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AE483" s="6">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -55666,8 +56157,11 @@
         <f t="shared" si="72"/>
         <v/>
       </c>
-    </row>
-    <row r="484" spans="2:38">
+      <c r="AQ483" s="6" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="484" spans="2:43">
       <c r="B484" s="2">
         <v>42631</v>
       </c>
@@ -55717,6 +56211,27 @@
         <f t="shared" si="64"/>
         <v>葡超</v>
       </c>
+      <c r="W484" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X484" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y484" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z484" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA484" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB484" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC484" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="AE484" s="6">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -55735,11 +56250,11 @@
       </c>
       <c r="AI484" s="6">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ484" s="6">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK484" s="6" t="str">
         <f t="shared" si="71"/>
@@ -55750,7 +56265,7 @@
         <v/>
       </c>
     </row>
-    <row r="485" spans="2:38">
+    <row r="485" spans="2:43">
       <c r="B485" s="2">
         <v>42631</v>
       </c>
@@ -55800,6 +56315,27 @@
         <f t="shared" si="64"/>
         <v>葡超</v>
       </c>
+      <c r="W485" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="X485" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y485" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z485" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA485" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB485" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC485" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="AE485" s="6">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -55818,11 +56354,11 @@
       </c>
       <c r="AI485" s="6">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ485" s="6">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK485" s="6" t="str">
         <f t="shared" si="71"/>
@@ -55832,8 +56368,11 @@
         <f t="shared" si="72"/>
         <v/>
       </c>
-    </row>
-    <row r="486" spans="2:38">
+      <c r="AQ485" s="6" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="486" spans="2:43">
       <c r="B486" s="2">
         <v>42631</v>
       </c>
@@ -55883,6 +56422,21 @@
         <f t="shared" si="64"/>
         <v>英超</v>
       </c>
+      <c r="W486" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="X486" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y486" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z486" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA486" s="6">
+        <v>1</v>
+      </c>
       <c r="AE486" s="6">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -55916,7 +56470,7 @@
         <v/>
       </c>
     </row>
-    <row r="487" spans="2:38">
+    <row r="487" spans="2:43">
       <c r="B487" s="2">
         <v>42631</v>
       </c>
@@ -55966,13 +56520,28 @@
         <f t="shared" si="64"/>
         <v>德甲</v>
       </c>
+      <c r="W487" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="X487" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y487" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z487" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC487" s="6">
+        <v>1</v>
+      </c>
       <c r="AE487" s="6">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF487" s="6">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG487" s="6" t="str">
         <f t="shared" si="67"/>
@@ -55998,8 +56567,11 @@
         <f t="shared" si="72"/>
         <v/>
       </c>
-    </row>
-    <row r="488" spans="2:38">
+      <c r="AQ487" s="6" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="488" spans="2:43">
       <c r="B488" s="2">
         <v>42631</v>
       </c>
@@ -56013,13 +56585,13 @@
         <v>42631.979166666664</v>
       </c>
       <c r="F488" s="5" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="G488" s="5" t="s">
         <v>166</v>
       </c>
       <c r="H488" s="3" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="I488" s="3" t="s">
         <v>166</v>
@@ -56049,6 +56621,27 @@
         <f t="shared" si="64"/>
         <v>瑞典超</v>
       </c>
+      <c r="W488" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="X488" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y488" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z488" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA488" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB488" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC488" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="AE488" s="6">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -56067,11 +56660,11 @@
       </c>
       <c r="AI488" s="6">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ488" s="6">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK488" s="6" t="str">
         <f t="shared" si="71"/>
@@ -56082,7 +56675,7 @@
         <v/>
       </c>
     </row>
-    <row r="489" spans="2:38">
+    <row r="489" spans="2:43">
       <c r="B489" s="2">
         <v>42631</v>
       </c>
@@ -56132,6 +56725,27 @@
         <f t="shared" si="64"/>
         <v>意甲</v>
       </c>
+      <c r="W489" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="X489" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y489" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z489" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA489" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB489" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC489" s="6">
+        <v>1</v>
+      </c>
       <c r="AE489" s="6">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -56164,8 +56778,11 @@
         <f t="shared" si="72"/>
         <v/>
       </c>
-    </row>
-    <row r="490" spans="2:38">
+      <c r="AQ489" s="6" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="490" spans="2:43">
       <c r="B490" s="2">
         <v>42631</v>
       </c>
@@ -56179,16 +56796,16 @@
         <v>42632</v>
       </c>
       <c r="F490" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="G490" s="5" t="s">
         <v>998</v>
       </c>
-      <c r="G490" s="5" t="s">
-        <v>999</v>
-      </c>
       <c r="H490" s="3" t="s">
+        <v>997</v>
+      </c>
+      <c r="I490" s="3" t="s">
         <v>998</v>
-      </c>
-      <c r="I490" s="3" t="s">
-        <v>999</v>
       </c>
       <c r="J490" s="5">
         <v>2.83</v>
@@ -56215,6 +56832,27 @@
         <f t="shared" si="64"/>
         <v>挪超</v>
       </c>
+      <c r="W490" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X490" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y490" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z490" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA490" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB490" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC490" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="AE490" s="6">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -56233,11 +56871,11 @@
       </c>
       <c r="AI490" s="6">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ490" s="6">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK490" s="6" t="str">
         <f t="shared" si="71"/>
@@ -56248,7 +56886,7 @@
         <v/>
       </c>
     </row>
-    <row r="491" spans="2:38">
+    <row r="491" spans="2:43">
       <c r="B491" s="2">
         <v>42631</v>
       </c>
@@ -56265,13 +56903,13 @@
         <v>179</v>
       </c>
       <c r="G491" s="5" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H491" s="3" t="s">
         <v>181</v>
       </c>
       <c r="I491" s="3" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="J491" s="5">
         <v>2.6</v>
@@ -56298,13 +56936,28 @@
         <f t="shared" si="64"/>
         <v>挪超</v>
       </c>
+      <c r="W491" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X491" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y491" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z491" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC491" s="6">
+        <v>1</v>
+      </c>
       <c r="AE491" s="6">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF491" s="6">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG491" s="6" t="str">
         <f t="shared" si="67"/>
@@ -56330,8 +56983,11 @@
         <f t="shared" si="72"/>
         <v/>
       </c>
-    </row>
-    <row r="492" spans="2:38">
+      <c r="AQ491" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="492" spans="2:43">
       <c r="B492" s="2">
         <v>42631</v>
       </c>
@@ -56381,6 +57037,27 @@
         <f t="shared" si="64"/>
         <v>挪超</v>
       </c>
+      <c r="W492" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="X492" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y492" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z492" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA492" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB492" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC492" s="6">
+        <v>1</v>
+      </c>
       <c r="AE492" s="6">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -56414,7 +57091,7 @@
         <v/>
       </c>
     </row>
-    <row r="493" spans="2:38">
+    <row r="493" spans="2:43">
       <c r="B493" s="2">
         <v>42631</v>
       </c>
@@ -56428,13 +57105,13 @@
         <v>42632</v>
       </c>
       <c r="F493" s="5" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="G493" s="5" t="s">
         <v>116</v>
       </c>
       <c r="H493" s="3" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="I493" s="3" t="s">
         <v>116</v>
@@ -56464,13 +57141,28 @@
         <f t="shared" si="64"/>
         <v>比甲</v>
       </c>
+      <c r="W493" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="X493" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y493" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z493" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC493" s="6">
+        <v>1</v>
+      </c>
       <c r="AE493" s="6">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AF493" s="6">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG493" s="6" t="str">
         <f t="shared" si="67"/>
@@ -56497,7 +57189,7 @@
         <v/>
       </c>
     </row>
-    <row r="494" spans="2:38">
+    <row r="494" spans="2:43">
       <c r="B494" s="2">
         <v>42631</v>
       </c>
@@ -56514,13 +57206,13 @@
         <v>284</v>
       </c>
       <c r="G494" s="5" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="H494" s="3" t="s">
         <v>284</v>
       </c>
       <c r="I494" s="3" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="J494" s="5">
         <v>1.68</v>
@@ -56547,6 +57239,18 @@
         <f t="shared" si="64"/>
         <v>西甲</v>
       </c>
+      <c r="W494" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="X494" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y494" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z494" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AE494" s="6">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -56580,7 +57284,7 @@
         <v/>
       </c>
     </row>
-    <row r="495" spans="2:38">
+    <row r="495" spans="2:43">
       <c r="B495" s="2">
         <v>42631</v>
       </c>
@@ -56630,6 +57334,27 @@
         <f t="shared" si="64"/>
         <v>葡超</v>
       </c>
+      <c r="W495" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="X495" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y495" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z495" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA495" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB495" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC495" s="6">
+        <v>1</v>
+      </c>
       <c r="AE495" s="6">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -56662,8 +57387,11 @@
         <f t="shared" si="72"/>
         <v/>
       </c>
-    </row>
-    <row r="496" spans="2:38">
+      <c r="AQ495" s="6" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="496" spans="2:43">
       <c r="B496" s="2">
         <v>42631</v>
       </c>
@@ -56713,6 +57441,18 @@
         <f t="shared" si="64"/>
         <v>俄超</v>
       </c>
+      <c r="W496" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="X496" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y496" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z496" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="AE496" s="6">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -56746,7 +57486,7 @@
         <v/>
       </c>
     </row>
-    <row r="497" spans="2:38">
+    <row r="497" spans="2:43">
       <c r="B497" s="2">
         <v>42631</v>
       </c>
@@ -56796,6 +57536,27 @@
         <f t="shared" si="64"/>
         <v>阿甲</v>
       </c>
+      <c r="W497" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X497" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y497" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z497" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA497" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB497" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC497" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="AE497" s="6">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -56814,11 +57575,11 @@
       </c>
       <c r="AI497" s="6">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ497" s="6">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK497" s="6" t="str">
         <f t="shared" si="71"/>
@@ -56829,7 +57590,7 @@
         <v/>
       </c>
     </row>
-    <row r="498" spans="2:38">
+    <row r="498" spans="2:43">
       <c r="B498" s="2">
         <v>42631</v>
       </c>
@@ -56879,6 +57640,27 @@
         <f t="shared" si="64"/>
         <v>阿甲</v>
       </c>
+      <c r="W498" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="X498" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y498" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z498" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA498" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB498" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC498" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="AE498" s="6">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -56897,11 +57679,11 @@
       </c>
       <c r="AI498" s="6">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ498" s="6">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK498" s="6" t="str">
         <f t="shared" si="71"/>
@@ -56912,7 +57694,7 @@
         <v/>
       </c>
     </row>
-    <row r="499" spans="2:38">
+    <row r="499" spans="2:43">
       <c r="B499" s="2">
         <v>42631</v>
       </c>
@@ -56926,13 +57708,13 @@
         <v>42632.083333333336</v>
       </c>
       <c r="F499" s="5" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="G499" s="5" t="s">
         <v>189</v>
       </c>
       <c r="H499" s="3" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="I499" s="3" t="s">
         <v>189</v>
@@ -56962,6 +57744,27 @@
         <f t="shared" si="64"/>
         <v>比甲</v>
       </c>
+      <c r="W499" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="X499" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y499" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z499" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA499" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB499" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC499" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="AE499" s="6">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -56980,11 +57783,11 @@
       </c>
       <c r="AI499" s="6">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ499" s="6">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK499" s="6" t="str">
         <f t="shared" si="71"/>
@@ -56994,8 +57797,11 @@
         <f t="shared" si="72"/>
         <v/>
       </c>
-    </row>
-    <row r="500" spans="2:38">
+      <c r="AQ499" s="6" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="500" spans="2:43">
       <c r="B500" s="2">
         <v>42631</v>
       </c>
@@ -57045,6 +57851,27 @@
         <f t="shared" si="64"/>
         <v>美职</v>
       </c>
+      <c r="W500" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="X500" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y500" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z500" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA500" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB500" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC500" s="6">
+        <v>1</v>
+      </c>
       <c r="AE500" s="6">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -57077,8 +57904,11 @@
         <f t="shared" si="72"/>
         <v/>
       </c>
-    </row>
-    <row r="501" spans="2:38">
+      <c r="AQ500" s="6" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="501" spans="2:43">
       <c r="B501" s="2">
         <v>42631</v>
       </c>
@@ -57128,6 +57958,27 @@
         <f t="shared" si="64"/>
         <v>意甲</v>
       </c>
+      <c r="W501" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="X501" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y501" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z501" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA501" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB501" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC501" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="AE501" s="6">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -57161,7 +58012,7 @@
         <v/>
       </c>
     </row>
-    <row r="502" spans="2:38">
+    <row r="502" spans="2:43">
       <c r="B502" s="2">
         <v>42631</v>
       </c>
@@ -57175,13 +58026,13 @@
         <v>42632.114583333336</v>
       </c>
       <c r="F502" s="5" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G502" s="5" t="s">
         <v>646</v>
       </c>
       <c r="H502" s="3" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="I502" s="3" t="s">
         <v>646</v>
@@ -57211,6 +58062,21 @@
         <f t="shared" si="64"/>
         <v>西甲</v>
       </c>
+      <c r="W502" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="X502" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y502" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z502" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA502" s="6">
+        <v>1</v>
+      </c>
       <c r="AE502" s="6">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -57244,7 +58110,7 @@
         <v/>
       </c>
     </row>
-    <row r="503" spans="2:38">
+    <row r="503" spans="2:43">
       <c r="B503" s="2">
         <v>42631</v>
       </c>
@@ -57258,13 +58124,13 @@
         <v>42632.114583333336</v>
       </c>
       <c r="F503" s="5" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="G503" s="5" t="s">
         <v>650</v>
       </c>
       <c r="H503" s="3" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="I503" s="3" t="s">
         <v>650</v>
@@ -57294,6 +58160,27 @@
         <f t="shared" si="64"/>
         <v>法甲</v>
       </c>
+      <c r="W503" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X503" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y503" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z503" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA503" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB503" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC503" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="AE503" s="6">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -57312,11 +58199,11 @@
       </c>
       <c r="AI503" s="6">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ503" s="6">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK503" s="6" t="str">
         <f t="shared" si="71"/>
@@ -57327,7 +58214,7 @@
         <v/>
       </c>
     </row>
-    <row r="504" spans="2:38">
+    <row r="504" spans="2:43">
       <c r="B504" s="2">
         <v>42631</v>
       </c>
@@ -57377,6 +58264,24 @@
         <f t="shared" si="64"/>
         <v>巴西甲</v>
       </c>
+      <c r="W504" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X504" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y504" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z504" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB504" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC504" s="6">
+        <v>1</v>
+      </c>
       <c r="AE504" s="6">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -57409,8 +58314,11 @@
         <f t="shared" si="72"/>
         <v/>
       </c>
-    </row>
-    <row r="505" spans="2:38">
+      <c r="AQ504" s="6" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="505" spans="2:43">
       <c r="B505" s="2">
         <v>42631</v>
       </c>
@@ -57460,6 +58368,27 @@
         <f t="shared" si="64"/>
         <v>巴西甲</v>
       </c>
+      <c r="W505" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="X505" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y505" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z505" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA505" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB505" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC505" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="AE505" s="6">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -57478,11 +58407,11 @@
       </c>
       <c r="AI505" s="6">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ505" s="6">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK505" s="6" t="str">
         <f t="shared" si="71"/>
@@ -57492,8 +58421,11 @@
         <f t="shared" si="72"/>
         <v/>
       </c>
-    </row>
-    <row r="506" spans="2:38">
+      <c r="AQ505" s="6" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="506" spans="2:43">
       <c r="B506" s="2">
         <v>42631</v>
       </c>
@@ -57543,6 +58475,27 @@
         <f t="shared" si="64"/>
         <v>巴西甲</v>
       </c>
+      <c r="W506" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="X506" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y506" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z506" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA506" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB506" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC506" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="AE506" s="6">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -57561,11 +58514,11 @@
       </c>
       <c r="AI506" s="6">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ506" s="6">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK506" s="6" t="str">
         <f t="shared" si="71"/>
@@ -57575,8 +58528,11 @@
         <f t="shared" si="72"/>
         <v/>
       </c>
-    </row>
-    <row r="507" spans="2:38">
+      <c r="AQ506" s="6" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="507" spans="2:43">
       <c r="B507" s="2">
         <v>42631</v>
       </c>
@@ -57626,6 +58582,27 @@
         <f t="shared" si="64"/>
         <v>巴西甲</v>
       </c>
+      <c r="W507" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X507" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y507" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z507" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA507" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB507" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC507" s="6">
+        <v>1</v>
+      </c>
       <c r="AE507" s="6">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -57659,7 +58636,7 @@
         <v/>
       </c>
     </row>
-    <row r="508" spans="2:38">
+    <row r="508" spans="2:43">
       <c r="B508" s="2">
         <v>42631</v>
       </c>
@@ -57709,6 +58686,27 @@
         <f t="shared" si="64"/>
         <v>巴西甲</v>
       </c>
+      <c r="W508" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="X508" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y508" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z508" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA508" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB508" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC508" s="6">
+        <v>1</v>
+      </c>
       <c r="AE508" s="6">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -57741,8 +58739,11 @@
         <f t="shared" si="72"/>
         <v/>
       </c>
-    </row>
-    <row r="509" spans="2:38">
+      <c r="AQ508" s="6" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="509" spans="2:43">
       <c r="B509" s="2">
         <v>42631</v>
       </c>
@@ -57792,6 +58793,27 @@
         <f t="shared" si="64"/>
         <v>阿甲</v>
       </c>
+      <c r="W509" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="X509" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y509" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z509" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA509" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB509" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC509" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="AE509" s="6">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -57810,11 +58832,11 @@
       </c>
       <c r="AI509" s="6">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ509" s="6">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK509" s="6" t="str">
         <f t="shared" si="71"/>
@@ -57825,7 +58847,7 @@
         <v/>
       </c>
     </row>
-    <row r="510" spans="2:38">
+    <row r="510" spans="2:43">
       <c r="B510" s="2">
         <v>42631</v>
       </c>
@@ -57839,13 +58861,13 @@
         <v>42632.125</v>
       </c>
       <c r="F510" s="5" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="G510" s="5" t="s">
         <v>302</v>
       </c>
       <c r="H510" s="3" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="I510" s="3" t="s">
         <v>302</v>
@@ -57875,6 +58897,27 @@
         <f t="shared" si="64"/>
         <v>阿甲</v>
       </c>
+      <c r="W510" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="X510" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y510" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z510" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA510" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB510" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC510" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="AE510" s="6">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -57893,11 +58936,11 @@
       </c>
       <c r="AI510" s="6">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ510" s="6">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK510" s="6" t="str">
         <f t="shared" si="71"/>
@@ -57908,7 +58951,7 @@
         <v/>
       </c>
     </row>
-    <row r="511" spans="2:38">
+    <row r="511" spans="2:43">
       <c r="B511" s="2">
         <v>42631</v>
       </c>
@@ -57958,6 +59001,27 @@
         <f t="shared" si="64"/>
         <v>葡超</v>
       </c>
+      <c r="W511" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="X511" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y511" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z511" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA511" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB511" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC511" s="6">
+        <v>1</v>
+      </c>
       <c r="AE511" s="6">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -57991,7 +59055,7 @@
         <v/>
       </c>
     </row>
-    <row r="512" spans="2:38">
+    <row r="512" spans="2:43">
       <c r="B512" s="2">
         <v>42631</v>
       </c>
@@ -58008,13 +59072,13 @@
         <v>290</v>
       </c>
       <c r="G512" s="5" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H512" s="3" t="s">
         <v>290</v>
       </c>
       <c r="I512" s="3" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="J512" s="5">
         <v>1.3</v>
@@ -58041,6 +59105,27 @@
         <f t="shared" si="64"/>
         <v>阿甲</v>
       </c>
+      <c r="W512" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="X512" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y512" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z512" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA512" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB512" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC512" s="6">
+        <v>1</v>
+      </c>
       <c r="AE512" s="6">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -58073,8 +59158,11 @@
         <f t="shared" si="72"/>
         <v/>
       </c>
-    </row>
-    <row r="513" spans="2:38">
+      <c r="AQ512" s="6" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="513" spans="2:43">
       <c r="B513" s="2">
         <v>42631</v>
       </c>
@@ -58088,13 +59176,13 @@
         <v>42632.208333333336</v>
       </c>
       <c r="F513" s="5" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="G513" s="5" t="s">
         <v>241</v>
       </c>
       <c r="H513" s="3" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="I513" s="3" t="s">
         <v>241</v>
@@ -58124,6 +59212,27 @@
         <f t="shared" si="64"/>
         <v>美职</v>
       </c>
+      <c r="W513" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="X513" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y513" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z513" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA513" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB513" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC513" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="AE513" s="6">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -58142,22 +59251,25 @@
       </c>
       <c r="AI513" s="6">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ513" s="6">
         <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="AK513" s="6" t="str">
+        <v>5</v>
+      </c>
+      <c r="AK513" s="6">
         <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="AL513" s="6" t="str">
+        <v>3.6000000000000087E-2</v>
+      </c>
+      <c r="AL513" s="6">
         <f t="shared" si="72"/>
-        <v/>
-      </c>
-    </row>
-    <row r="514" spans="2:38">
+        <v>3.6000000000000087E-2</v>
+      </c>
+      <c r="AQ513" s="6" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="514" spans="2:43">
       <c r="B514" s="2">
         <v>42631</v>
       </c>
@@ -58207,6 +59319,18 @@
         <f t="shared" si="64"/>
         <v>巴西甲</v>
       </c>
+      <c r="W514" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X514" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y514" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z514" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="AE514" s="6">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -58240,7 +59364,7 @@
         <v/>
       </c>
     </row>
-    <row r="515" spans="2:38">
+    <row r="515" spans="2:43">
       <c r="B515" s="2">
         <v>42631</v>
       </c>
@@ -58290,6 +59414,27 @@
         <f t="shared" si="64"/>
         <v>巴西甲</v>
       </c>
+      <c r="W515" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X515" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y515" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z515" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA515" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB515" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC515" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="AE515" s="6">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -58308,11 +59453,11 @@
       </c>
       <c r="AI515" s="6">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ515" s="6">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK515" s="6" t="str">
         <f t="shared" si="71"/>
@@ -58323,7 +59468,7 @@
         <v/>
       </c>
     </row>
-    <row r="516" spans="2:38">
+    <row r="516" spans="2:43">
       <c r="B516" s="2">
         <v>42631</v>
       </c>
@@ -58337,16 +59482,16 @@
         <v>42632.291666666664</v>
       </c>
       <c r="F516" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G516" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="G516" s="5" t="s">
+      <c r="H516" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="I516" s="3" t="s">
         <v>1011</v>
-      </c>
-      <c r="H516" s="3" t="s">
-        <v>1010</v>
-      </c>
-      <c r="I516" s="3" t="s">
-        <v>1012</v>
       </c>
       <c r="J516" s="5">
         <v>1.74</v>
@@ -58373,6 +59518,27 @@
         <f t="shared" si="64"/>
         <v>阿甲</v>
       </c>
+      <c r="W516" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="X516" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y516" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z516" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA516" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB516" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC516" s="6">
+        <v>1</v>
+      </c>
       <c r="AE516" s="6">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -58406,7 +59572,7 @@
         <v/>
       </c>
     </row>
-    <row r="517" spans="2:38">
+    <row r="517" spans="2:43">
       <c r="B517" s="2">
         <v>42631</v>
       </c>
@@ -58456,21 +59622,36 @@
         <f t="shared" si="64"/>
         <v>墨联</v>
       </c>
+      <c r="W517" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="X517" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y517" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z517" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="AC517" s="6">
+        <v>1</v>
+      </c>
       <c r="AE517" s="6">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF517" s="6">
         <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="AG517" s="6" t="str">
+        <v>6</v>
+      </c>
+      <c r="AG517" s="6">
         <f t="shared" si="67"/>
-        <v/>
-      </c>
-      <c r="AH517" s="6" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH517" s="6">
         <f t="shared" si="68"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AI517" s="6">
         <f t="shared" si="69"/>
@@ -58488,8 +59669,11 @@
         <f t="shared" si="72"/>
         <v/>
       </c>
-    </row>
-    <row r="518" spans="2:38">
+      <c r="AQ517" s="6" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="518" spans="2:43">
       <c r="V518" s="6">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -58527,7 +59711,7 @@
         <v/>
       </c>
     </row>
-    <row r="519" spans="2:38">
+    <row r="519" spans="2:43">
       <c r="V519" s="6">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -58565,7 +59749,7 @@
         <v/>
       </c>
     </row>
-    <row r="520" spans="2:38">
+    <row r="520" spans="2:43">
       <c r="V520" s="6">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -58603,7 +59787,7 @@
         <v/>
       </c>
     </row>
-    <row r="521" spans="2:38">
+    <row r="521" spans="2:43">
       <c r="V521" s="6">
         <f t="shared" ref="V521:V584" si="73">D521</f>
         <v>0</v>
@@ -58641,7 +59825,7 @@
         <v/>
       </c>
     </row>
-    <row r="522" spans="2:38">
+    <row r="522" spans="2:43">
       <c r="V522" s="6">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -58679,7 +59863,7 @@
         <v/>
       </c>
     </row>
-    <row r="523" spans="2:38">
+    <row r="523" spans="2:43">
       <c r="V523" s="6">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -58717,7 +59901,7 @@
         <v/>
       </c>
     </row>
-    <row r="524" spans="2:38">
+    <row r="524" spans="2:43">
       <c r="V524" s="6">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -58755,7 +59939,7 @@
         <v/>
       </c>
     </row>
-    <row r="525" spans="2:38">
+    <row r="525" spans="2:43">
       <c r="V525" s="6">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -58793,7 +59977,7 @@
         <v/>
       </c>
     </row>
-    <row r="526" spans="2:38">
+    <row r="526" spans="2:43">
       <c r="V526" s="6">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -58831,7 +60015,7 @@
         <v/>
       </c>
     </row>
-    <row r="527" spans="2:38">
+    <row r="527" spans="2:43">
       <c r="V527" s="6">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -58869,7 +60053,7 @@
         <v/>
       </c>
     </row>
-    <row r="528" spans="2:38">
+    <row r="528" spans="2:43">
       <c r="V528" s="6">
         <f t="shared" si="73"/>
         <v>0</v>

--- a/soccer/php/result/analyze/分析辅助.xlsx
+++ b/soccer/php/result/analyze/分析辅助.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>作成者</author>
+    <author>作者</author>
   </authors>
   <commentList>
     <comment ref="AI1" authorId="0" shapeId="0">
@@ -30,7 +30,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>作成者:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>作成者:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -383,7 +383,7 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>作成者:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -460,7 +460,7 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>作成者:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -536,7 +536,7 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>作成者:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -885,7 +885,7 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>作成者:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -1232,7 +1232,7 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>作成者:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -1330,7 +1330,7 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>作成者:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -1386,7 +1386,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>作成者:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -1406,7 +1406,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7592" uniqueCount="1165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8170" uniqueCount="1166">
   <si>
     <t>降1次</t>
   </si>
@@ -1529,7 +1529,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1546,7 +1546,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1647,7 +1647,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1658,7 +1658,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1935,7 +1935,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1946,7 +1946,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2072,7 +2072,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2101,7 +2101,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2127,7 +2127,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -2138,7 +2138,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2258,7 +2258,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2325,7 +2325,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2760,7 +2760,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3567,7 +3567,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3946,7 +3946,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4275,7 +4275,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4326,7 +4326,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4352,7 +4352,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4378,7 +4378,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4404,7 +4404,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4610,7 +4610,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4635,7 +4635,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4652,7 +4652,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4864,7 +4864,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4885,7 +4885,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4902,7 +4902,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4919,7 +4919,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -4930,7 +4930,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4947,7 +4947,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4964,7 +4964,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4981,7 +4981,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4998,7 +4998,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5015,7 +5015,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5133,7 +5133,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5150,7 +5150,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5167,7 +5167,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5220,7 +5220,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5231,7 +5231,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5255,7 +5255,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5272,7 +5272,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5283,7 +5283,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -5316,7 +5316,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5345,7 +5345,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5522,7 +5522,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5543,7 +5543,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5572,7 +5572,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5589,7 +5589,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5621,7 +5621,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -5638,7 +5638,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5663,7 +5663,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5680,7 +5680,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5726,19 +5726,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>降1次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>这场呢，看着规律是要出冷门的，但是冷门的可能性又非常低，最近的战绩又非常不好，要不要挑战呢？差一点出了冷门，思路有点问题，挑战冷门是没错，但是每次挑战成本100啊，需要再对2场才能回本，切记不能谈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5753,7 +5741,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5764,7 +5752,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -5775,7 +5763,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5785,10 +5773,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>预感又要被摩纳哥坑呢？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5798,6 +5782,26 @@
   </si>
   <si>
     <t>今晚真心不适合。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就差1分钟就进入我的近赔标准了，直接求稳？单看结果都倾向于3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞎比挑战啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5809,20 +5813,20 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -5830,7 +5834,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5838,7 +5842,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -6029,7 +6033,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -6116,7 +6120,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6402,13 +6406,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS889"/>
+  <dimension ref="A1:AS896"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="16" ySplit="8" topLeftCell="V755" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="16" ySplit="8" topLeftCell="V839" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="W787" sqref="W787"/>
+      <selection pane="bottomRight" activeCell="E859" sqref="E859"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6601,43 +6605,43 @@
         <v>42637</v>
       </c>
       <c r="C4" s="3">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>117</v>
+        <v>240</v>
       </c>
       <c r="E4" s="4">
-        <v>42638.083333333336</v>
+        <v>42638.4375</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>995</v>
+        <v>935</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>898</v>
+        <v>615</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>995</v>
+        <v>936</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>898</v>
+        <v>615</v>
       </c>
       <c r="J4" s="5">
-        <v>2.2999999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="K4" s="5">
-        <v>2.75</v>
+        <v>3.05</v>
       </c>
       <c r="L4" s="5">
-        <v>3.02</v>
+        <v>3.08</v>
       </c>
       <c r="M4" s="3">
-        <v>5.6</v>
+        <v>4.5</v>
       </c>
       <c r="N4" s="3">
         <v>3.9</v>
       </c>
       <c r="O4" s="3">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="P4" s="3">
         <v>-1</v>
@@ -6646,19 +6650,19 @@
       <c r="U4" s="11"/>
       <c r="V4" s="6" t="str">
         <f>D4</f>
-        <v>法甲</v>
+        <v>美职</v>
       </c>
       <c r="W4" s="6" t="s">
-        <v>1156</v>
+        <v>1164</v>
       </c>
       <c r="X4" s="12" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="Y4" s="6" t="s">
-        <v>1155</v>
+        <v>1161</v>
       </c>
       <c r="Z4" s="6" t="s">
-        <v>1161</v>
+        <v>1165</v>
       </c>
       <c r="AA4" s="12"/>
       <c r="AB4" s="12"/>
@@ -6673,7 +6677,7 @@
       <c r="U5" s="11"/>
       <c r="V5" s="12" t="str">
         <f>V4</f>
-        <v>法甲</v>
+        <v>美职</v>
       </c>
       <c r="W5" s="6" t="str">
         <f>IF(COUNT(FIND("升",W4)),SUBSTITUTE(W4,"升","降"),SUBSTITUTE(W4,"降","升"))</f>
@@ -6689,7 +6693,7 @@
       </c>
       <c r="Z5" s="6" t="str">
         <f>Z4</f>
-        <v>高</v>
+        <v>低</v>
       </c>
       <c r="AA5" s="12" t="str">
         <f>IF(AA4=1,1,"")</f>
@@ -6723,7 +6727,7 @@
         <v>360</v>
       </c>
       <c r="W6" s="13" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X6" s="13" t="s">
         <v>1</v>
@@ -6732,16 +6736,20 @@
         <v>1</v>
       </c>
       <c r="Z6" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13">
-        <v>1</v>
+        <v>317</v>
+      </c>
+      <c r="AA6" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB6" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="AE6" s="12">
         <f>AE8</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF6" s="6">
         <f>MAX(AE10:AE5002)</f>
@@ -6749,7 +6757,7 @@
       </c>
       <c r="AG6" s="12">
         <f>COUNTIFS(AE10:AE5002,MAX(AE10:AE5002),AF10:AF5002,MAX(AF10:AF5002))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AH6" s="6">
         <f>MAX(AF10:AF5002)</f>
@@ -6757,15 +6765,15 @@
       </c>
       <c r="AI6" s="12">
         <f>MIN(AG10:AG5002)</f>
-        <v>0</v>
+        <v>2.6999999999999937E-2</v>
       </c>
       <c r="AJ6" s="6">
         <f>MIN(AH10:AH5002)</f>
-        <v>0</v>
+        <v>0.25300000000000017</v>
       </c>
       <c r="AK6" s="12">
         <f>AI8</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL6" s="6">
         <f t="shared" ref="AL6:AO6" si="0">AF7</f>
@@ -6777,15 +6785,15 @@
       </c>
       <c r="AN6" s="6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO6" s="6">
         <f t="shared" si="0"/>
-        <v>0.48590000000000017</v>
+        <v>0</v>
       </c>
       <c r="AP6" s="6">
         <f>AJ7</f>
-        <v>0.56119999999999892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:44">
@@ -6801,7 +6809,7 @@
       </c>
       <c r="AE7" s="6">
         <f>AI8</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF7" s="6">
         <f>MAX(AI10:AI5002)</f>
@@ -6813,15 +6821,15 @@
       </c>
       <c r="AH7" s="6">
         <f>MAX(AJ10:AJ5002)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI7" s="6">
         <f>MIN(AK10:AK5002)</f>
-        <v>0.48590000000000017</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="6">
         <f>MIN(AL10:AL5002)</f>
-        <v>0.56119999999999892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:44">
@@ -6835,19 +6843,19 @@
       <c r="AC8" s="13"/>
       <c r="AE8" s="12">
         <f>COUNTIF(AE10:AE5002,MAX(AE10:AE5002))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF8" s="12">
         <f>COUNTIF(AF10:AF5002,MAX(AF10:AF5002))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI8" s="12">
         <f>COUNTIF(AI10:AI5002,MAX(AI10:AI5002))</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ8" s="12">
         <f>COUNTIF(AJ10:AJ5002,MAX(AJ10:AJ5002))</f>
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="2:44">
@@ -7341,7 +7349,7 @@
       </c>
       <c r="AJ13" s="6">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK13" s="6" t="str">
         <f t="shared" si="8"/>
@@ -7445,7 +7453,7 @@
       </c>
       <c r="AJ14" s="6">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK14" s="6" t="str">
         <f t="shared" si="8"/>
@@ -7545,7 +7553,7 @@
       </c>
       <c r="AF15" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG15" s="6" t="str">
         <f t="shared" si="4"/>
@@ -8624,7 +8632,7 @@
       </c>
       <c r="AF25" s="6">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AG25" s="6" t="str">
         <f t="shared" si="4"/>
@@ -9838,7 +9846,7 @@
       </c>
       <c r="AJ36" s="6">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK36" s="6" t="str">
         <f t="shared" si="8"/>
@@ -9954,7 +9962,7 @@
       </c>
       <c r="AJ37" s="6">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK37" s="6" t="str">
         <f t="shared" si="8"/>
@@ -10611,7 +10619,7 @@
       </c>
       <c r="AJ43" s="6">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK43" s="6" t="str">
         <f t="shared" si="8"/>
@@ -11245,7 +11253,7 @@
       </c>
       <c r="AJ49" s="6">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK49" s="6" t="str">
         <f t="shared" si="8"/>
@@ -11684,7 +11692,7 @@
       </c>
       <c r="AF53" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG53" s="6" t="str">
         <f t="shared" si="4"/>
@@ -11929,7 +11937,7 @@
       </c>
       <c r="AJ55" s="6">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK55" s="6" t="str">
         <f t="shared" si="8"/>
@@ -12387,7 +12395,7 @@
       </c>
       <c r="AJ59" s="6">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK59" s="6" t="str">
         <f t="shared" si="8"/>
@@ -13213,7 +13221,7 @@
       </c>
       <c r="AF67" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG67" s="6" t="str">
         <f t="shared" si="4"/>
@@ -13326,7 +13334,7 @@
       </c>
       <c r="AF68" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG68" s="6" t="str">
         <f t="shared" si="4"/>
@@ -13778,7 +13786,7 @@
       </c>
       <c r="AF72" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG72" s="6" t="str">
         <f t="shared" si="4"/>
@@ -14140,7 +14148,7 @@
       </c>
       <c r="AK75" s="6">
         <f t="shared" ref="AK75:AK138" si="17">IF(AND(AB75=$AB$5,AC75=$AC$5,AI75=MAX(AI$10:AI$5002)),(J75-J$4)^2+(K75-K$4)^2+(L75-L$4)^2+(M75-M$4)^2+(N75-N$4)^2+(O75-O$4)^2,"")</f>
-        <v>5.1693999999999978</v>
+        <v>1.3934000000000002</v>
       </c>
       <c r="AL75" s="6" t="str">
         <f t="shared" ref="AL75:AL138" si="18">IF(AND(AB75=$AB$5,AC75=$AC$5,AI75=MAX(AI$10:AI$5002),AJ75=MAX(AJ$10:AJ$5002)),(J75-J$4)^2+(K75-K$4)^2+(L75-L$4)^2+(M75-M$4)^2+(N75-N$4)^2+(O75-O$4)^2,"")</f>
@@ -14353,7 +14361,7 @@
       </c>
       <c r="AG77" s="6">
         <f t="shared" si="13"/>
-        <v>30.239300000000004</v>
+        <v>22.3185</v>
       </c>
       <c r="AH77" s="6" t="str">
         <f t="shared" si="14"/>
@@ -14576,7 +14584,7 @@
       </c>
       <c r="AG79" s="6">
         <f t="shared" si="13"/>
-        <v>1.5063999999999993</v>
+        <v>0.19840000000000008</v>
       </c>
       <c r="AH79" s="6" t="str">
         <f t="shared" si="14"/>
@@ -14704,7 +14712,7 @@
       </c>
       <c r="AJ80" s="6">
         <f t="shared" si="16"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK80" s="6" t="str">
         <f t="shared" si="17"/>
@@ -14801,7 +14809,7 @@
       </c>
       <c r="AF81" s="6">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG81" s="6" t="str">
         <f t="shared" si="13"/>
@@ -15024,15 +15032,15 @@
       </c>
       <c r="AF83" s="6">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AG83" s="6">
         <f t="shared" si="13"/>
-        <v>1.3033999999999986</v>
-      </c>
-      <c r="AH83" s="6" t="str">
+        <v>0.25300000000000017</v>
+      </c>
+      <c r="AH83" s="6">
         <f t="shared" si="14"/>
-        <v/>
+        <v>0.25300000000000017</v>
       </c>
       <c r="AI83" s="6">
         <f t="shared" si="15"/>
@@ -15376,7 +15384,7 @@
       </c>
       <c r="AJ86" s="6">
         <f t="shared" si="16"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK86" s="6" t="str">
         <f t="shared" si="17"/>
@@ -15693,7 +15701,7 @@
       </c>
       <c r="AF89" s="6">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG89" s="6" t="str">
         <f t="shared" si="13"/>
@@ -15809,7 +15817,7 @@
       </c>
       <c r="AF90" s="6">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG90" s="6" t="str">
         <f t="shared" si="13"/>
@@ -15922,7 +15930,7 @@
       </c>
       <c r="AF91" s="6">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG91" s="6" t="str">
         <f t="shared" si="13"/>
@@ -16054,7 +16062,7 @@
       </c>
       <c r="AJ92" s="6">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK92" s="6" t="str">
         <f t="shared" si="17"/>
@@ -16151,7 +16159,7 @@
       </c>
       <c r="AF93" s="6">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG93" s="6" t="str">
         <f t="shared" si="13"/>
@@ -16264,7 +16272,7 @@
       </c>
       <c r="AF94" s="6">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG94" s="6" t="str">
         <f t="shared" si="13"/>
@@ -16851,7 +16859,7 @@
       </c>
       <c r="AJ99" s="6">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK99" s="6" t="str">
         <f t="shared" si="17"/>
@@ -17058,7 +17066,7 @@
       </c>
       <c r="AF101" s="6">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG101" s="6" t="str">
         <f t="shared" si="13"/>
@@ -17633,7 +17641,7 @@
       </c>
       <c r="AJ106" s="6">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK106" s="6" t="str">
         <f t="shared" si="17"/>
@@ -17844,7 +17852,7 @@
       </c>
       <c r="AJ108" s="6">
         <f t="shared" si="16"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK108" s="6" t="str">
         <f t="shared" si="17"/>
@@ -18067,7 +18075,7 @@
       </c>
       <c r="AJ110" s="6">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK110" s="6" t="str">
         <f t="shared" si="17"/>
@@ -18290,7 +18298,7 @@
       </c>
       <c r="AJ112" s="6">
         <f t="shared" si="16"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK112" s="6" t="str">
         <f t="shared" si="17"/>
@@ -18387,7 +18395,7 @@
       </c>
       <c r="AF113" s="6">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG113" s="6" t="str">
         <f t="shared" si="13"/>
@@ -18519,7 +18527,7 @@
       </c>
       <c r="AJ114" s="6">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK114" s="6" t="str">
         <f t="shared" si="17"/>
@@ -18632,7 +18640,7 @@
       </c>
       <c r="AJ115" s="6">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK115" s="6" t="str">
         <f t="shared" si="17"/>
@@ -18729,7 +18737,7 @@
       </c>
       <c r="AF116" s="6">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG116" s="6" t="str">
         <f t="shared" si="13"/>
@@ -18964,7 +18972,7 @@
       </c>
       <c r="AF118" s="6">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG118" s="6" t="str">
         <f t="shared" si="13"/>
@@ -19096,7 +19104,7 @@
       </c>
       <c r="AJ119" s="6">
         <f t="shared" si="16"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK119" s="6" t="str">
         <f t="shared" si="17"/>
@@ -19548,11 +19556,11 @@
       </c>
       <c r="AJ123" s="6">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK123" s="6">
         <f t="shared" si="17"/>
-        <v>29.279599999999995</v>
+        <v>21.017600000000002</v>
       </c>
       <c r="AL123" s="6" t="str">
         <f t="shared" si="18"/>
@@ -20038,7 +20046,7 @@
       </c>
       <c r="AJ128" s="6">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK128" s="6" t="str">
         <f t="shared" si="17"/>
@@ -20695,7 +20703,7 @@
       </c>
       <c r="AJ134" s="6">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK134" s="6" t="str">
         <f t="shared" si="17"/>
@@ -20805,7 +20813,7 @@
       </c>
       <c r="AJ135" s="6">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK135" s="6" t="str">
         <f t="shared" si="17"/>
@@ -21252,7 +21260,7 @@
       </c>
       <c r="AJ139" s="6">
         <f t="shared" ref="AJ139:AJ202" si="25">IF(AND(AB139=$AB$5,AC139=$AC$5),IF(W139=$W$5,1,0)+IF(Z139=$Z$5,1,0)+IF(X139=$X$5,1,0)+IF(Y139=$Y$5,1,0)+IF(AA139=$AA$5,1,0)+IF(V139=$V$5,1,0),0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK139" s="6" t="str">
         <f t="shared" ref="AK139:AK202" si="26">IF(AND(AB139=$AB$5,AC139=$AC$5,AI139=MAX(AI$10:AI$5002)),(J139-J$4)^2+(K139-K$4)^2+(L139-L$4)^2+(M139-M$4)^2+(N139-N$4)^2+(O139-O$4)^2,"")</f>
@@ -21903,7 +21911,7 @@
       </c>
       <c r="AG145" s="6">
         <f t="shared" si="22"/>
-        <v>0.62169999999999936</v>
+        <v>0.32770000000000027</v>
       </c>
       <c r="AH145" s="6" t="str">
         <f t="shared" si="23"/>
@@ -22212,7 +22220,7 @@
       </c>
       <c r="AJ148" s="6">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK148" s="6" t="str">
         <f t="shared" si="26"/>
@@ -22784,7 +22792,7 @@
       </c>
       <c r="AF154" s="6">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG154" s="6" t="str">
         <f t="shared" si="22"/>
@@ -22901,7 +22909,7 @@
       </c>
       <c r="AJ155" s="6">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK155" s="6" t="str">
         <f t="shared" si="26"/>
@@ -23191,11 +23199,11 @@
       </c>
       <c r="AF158" s="6">
         <f t="shared" si="21"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG158" s="6">
         <f t="shared" si="22"/>
-        <v>27.510499999999997</v>
+        <v>19.8581</v>
       </c>
       <c r="AH158" s="6" t="str">
         <f t="shared" si="23"/>
@@ -23424,7 +23432,7 @@
       </c>
       <c r="AJ160" s="6">
         <f t="shared" si="25"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK160" s="6" t="str">
         <f t="shared" si="26"/>
@@ -24615,7 +24623,7 @@
       </c>
       <c r="AF171" s="6">
         <f t="shared" si="21"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG171" s="6" t="str">
         <f t="shared" si="22"/>
@@ -26052,7 +26060,7 @@
       </c>
       <c r="AJ184" s="6">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AK184" s="6" t="str">
         <f t="shared" si="26"/>
@@ -26926,7 +26934,7 @@
       </c>
       <c r="AJ192" s="6">
         <f t="shared" si="25"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK192" s="6" t="str">
         <f t="shared" si="26"/>
@@ -28557,7 +28565,7 @@
       </c>
       <c r="AF207" s="6">
         <f t="shared" si="30"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG207" s="6" t="str">
         <f t="shared" si="31"/>
@@ -28667,7 +28675,7 @@
       </c>
       <c r="AF208" s="6">
         <f t="shared" si="30"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG208" s="6" t="str">
         <f t="shared" si="31"/>
@@ -29000,7 +29008,7 @@
       </c>
       <c r="AF211" s="6">
         <f t="shared" si="30"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG211" s="6" t="str">
         <f t="shared" si="31"/>
@@ -29330,7 +29338,7 @@
       </c>
       <c r="AF214" s="6">
         <f t="shared" si="30"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG214" s="6" t="str">
         <f t="shared" si="31"/>
@@ -29575,7 +29583,7 @@
       </c>
       <c r="AJ216" s="6">
         <f t="shared" si="34"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK216" s="6" t="str">
         <f t="shared" si="35"/>
@@ -29669,7 +29677,7 @@
       </c>
       <c r="AF217" s="6">
         <f t="shared" si="30"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG217" s="6" t="str">
         <f t="shared" si="31"/>
@@ -31891,7 +31899,7 @@
       </c>
       <c r="AJ237" s="6">
         <f t="shared" si="34"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK237" s="6" t="str">
         <f t="shared" si="35"/>
@@ -32221,7 +32229,7 @@
       </c>
       <c r="AJ240" s="6">
         <f t="shared" si="34"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK240" s="6" t="str">
         <f t="shared" si="35"/>
@@ -32883,7 +32891,7 @@
       </c>
       <c r="AF246" s="6">
         <f t="shared" si="30"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG246" s="6" t="str">
         <f t="shared" si="31"/>
@@ -33668,7 +33676,7 @@
       </c>
       <c r="AF253" s="6">
         <f t="shared" si="30"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG253" s="6" t="str">
         <f t="shared" si="31"/>
@@ -34970,7 +34978,7 @@
       </c>
       <c r="AF265" s="6">
         <f t="shared" si="30"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG265" s="6" t="str">
         <f t="shared" si="31"/>
@@ -35068,7 +35076,7 @@
       </c>
       <c r="AF266" s="6">
         <f t="shared" si="30"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG266" s="6" t="str">
         <f t="shared" si="31"/>
@@ -35185,7 +35193,7 @@
       </c>
       <c r="AJ267" s="6">
         <f t="shared" ref="AJ267:AJ330" si="43">IF(AND(AB267=$AB$5,AC267=$AC$5),IF(W267=$W$5,1,0)+IF(Z267=$Z$5,1,0)+IF(X267=$X$5,1,0)+IF(Y267=$Y$5,1,0)+IF(AA267=$AA$5,1,0)+IF(V267=$V$5,1,0),0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK267" s="6" t="str">
         <f t="shared" ref="AK267:AK330" si="44">IF(AND(AB267=$AB$5,AC267=$AC$5,AI267=MAX(AI$10:AI$5002)),(J267-J$4)^2+(K267-K$4)^2+(L267-L$4)^2+(M267-M$4)^2+(N267-N$4)^2+(O267-O$4)^2,"")</f>
@@ -35558,7 +35566,7 @@
       </c>
       <c r="AF271" s="6">
         <f t="shared" si="39"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG271" s="6" t="str">
         <f t="shared" si="40"/>
@@ -35871,15 +35879,15 @@
       </c>
       <c r="AJ274" s="6">
         <f t="shared" si="43"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK274" s="6">
         <f t="shared" si="44"/>
-        <v>29.366499999999995</v>
-      </c>
-      <c r="AL274" s="6">
+        <v>21.256499999999996</v>
+      </c>
+      <c r="AL274" s="6" t="str">
         <f t="shared" si="45"/>
-        <v>29.366499999999995</v>
+        <v/>
       </c>
     </row>
     <row r="275" spans="2:38">
@@ -35972,7 +35980,7 @@
       </c>
       <c r="AJ275" s="6">
         <f t="shared" si="43"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK275" s="6" t="str">
         <f t="shared" si="44"/>
@@ -36073,7 +36081,7 @@
       </c>
       <c r="AJ276" s="6">
         <f t="shared" si="43"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK276" s="6" t="str">
         <f t="shared" si="44"/>
@@ -36174,7 +36182,7 @@
       </c>
       <c r="AJ277" s="6">
         <f t="shared" si="43"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK277" s="6" t="str">
         <f t="shared" si="44"/>
@@ -36351,7 +36359,7 @@
       </c>
       <c r="AF279" s="6">
         <f t="shared" si="39"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG279" s="6" t="str">
         <f t="shared" si="40"/>
@@ -36468,7 +36476,7 @@
       </c>
       <c r="AJ280" s="6">
         <f t="shared" si="43"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK280" s="6" t="str">
         <f t="shared" si="44"/>
@@ -36569,7 +36577,7 @@
       </c>
       <c r="AJ281" s="6">
         <f t="shared" si="43"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK281" s="6" t="str">
         <f t="shared" si="44"/>
@@ -36942,7 +36950,7 @@
       </c>
       <c r="AF285" s="6">
         <f t="shared" si="39"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG285" s="6" t="str">
         <f t="shared" si="40"/>
@@ -37141,7 +37149,7 @@
       </c>
       <c r="AF287" s="6">
         <f t="shared" si="39"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG287" s="6" t="str">
         <f t="shared" si="40"/>
@@ -37831,7 +37839,7 @@
       </c>
       <c r="AG294" s="6">
         <f t="shared" si="40"/>
-        <v>2.5525999999999995</v>
+        <v>0.61300000000000032</v>
       </c>
       <c r="AH294" s="6" t="str">
         <f t="shared" si="41"/>
@@ -38020,11 +38028,11 @@
       </c>
       <c r="AF296" s="6">
         <f t="shared" si="39"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG296" s="6">
         <f t="shared" si="40"/>
-        <v>0.9453999999999998</v>
+        <v>0.34739999999999971</v>
       </c>
       <c r="AH296" s="6" t="str">
         <f t="shared" si="41"/>
@@ -38118,7 +38126,7 @@
       </c>
       <c r="AF297" s="6">
         <f t="shared" si="39"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG297" s="6" t="str">
         <f t="shared" si="40"/>
@@ -38235,7 +38243,7 @@
       </c>
       <c r="AJ298" s="6">
         <f t="shared" si="43"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK298" s="6" t="str">
         <f t="shared" si="44"/>
@@ -39338,7 +39346,7 @@
       </c>
       <c r="AK309" s="6">
         <f t="shared" si="44"/>
-        <v>1.1738</v>
+        <v>0.14579999999999993</v>
       </c>
       <c r="AL309" s="6" t="str">
         <f t="shared" si="45"/>
@@ -41027,7 +41035,7 @@
       </c>
       <c r="AJ326" s="6">
         <f t="shared" si="43"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK326" s="6" t="str">
         <f t="shared" si="44"/>
@@ -41308,7 +41316,7 @@
       </c>
       <c r="AF329" s="6">
         <f t="shared" si="39"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG329" s="6" t="str">
         <f t="shared" si="40"/>
@@ -41627,7 +41635,7 @@
       </c>
       <c r="AJ332" s="6">
         <f t="shared" si="52"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK332" s="6" t="str">
         <f t="shared" si="53"/>
@@ -41712,7 +41720,7 @@
       </c>
       <c r="AF333" s="6">
         <f t="shared" si="48"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG333" s="6" t="str">
         <f t="shared" si="49"/>
@@ -41829,7 +41837,7 @@
       </c>
       <c r="AJ334" s="6">
         <f t="shared" si="52"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK334" s="6" t="str">
         <f t="shared" si="53"/>
@@ -42028,7 +42036,7 @@
       </c>
       <c r="AJ336" s="6">
         <f t="shared" si="52"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK336" s="6" t="str">
         <f t="shared" si="53"/>
@@ -42113,7 +42121,7 @@
       </c>
       <c r="AF337" s="6">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG337" s="6" t="str">
         <f t="shared" si="49"/>
@@ -42230,7 +42238,7 @@
       </c>
       <c r="AJ338" s="6">
         <f t="shared" si="52"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK338" s="6" t="str">
         <f t="shared" si="53"/>
@@ -42416,7 +42424,7 @@
       </c>
       <c r="AF340" s="6">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG340" s="6" t="str">
         <f t="shared" si="49"/>
@@ -42710,7 +42718,7 @@
       </c>
       <c r="AF343" s="6">
         <f t="shared" si="48"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG343" s="6" t="str">
         <f t="shared" si="49"/>
@@ -42827,7 +42835,7 @@
       </c>
       <c r="AJ344" s="6">
         <f t="shared" si="52"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK344" s="6" t="str">
         <f t="shared" si="53"/>
@@ -43010,7 +43018,7 @@
       </c>
       <c r="AF346" s="6">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG346" s="6" t="str">
         <f t="shared" si="49"/>
@@ -43127,7 +43135,7 @@
       </c>
       <c r="AJ347" s="6">
         <f t="shared" si="52"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK347" s="6" t="str">
         <f t="shared" si="53"/>
@@ -43804,7 +43812,7 @@
       </c>
       <c r="AJ354" s="6">
         <f t="shared" si="52"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK354" s="6" t="str">
         <f t="shared" si="53"/>
@@ -43886,7 +43894,7 @@
       </c>
       <c r="AF355" s="6">
         <f t="shared" si="48"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG355" s="6" t="str">
         <f t="shared" si="49"/>
@@ -44003,7 +44011,7 @@
       </c>
       <c r="AJ356" s="6">
         <f t="shared" si="52"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK356" s="6" t="str">
         <f t="shared" si="53"/>
@@ -45005,7 +45013,7 @@
       </c>
       <c r="AK366" s="6">
         <f t="shared" si="53"/>
-        <v>0.48590000000000017</v>
+        <v>1.1238999999999997</v>
       </c>
       <c r="AL366" s="6" t="str">
         <f t="shared" si="54"/>
@@ -48655,7 +48663,7 @@
       </c>
       <c r="AJ402" s="6">
         <f t="shared" si="61"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK402" s="6" t="str">
         <f t="shared" si="62"/>
@@ -48961,7 +48969,7 @@
       </c>
       <c r="AJ405" s="6">
         <f t="shared" si="61"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK405" s="6" t="str">
         <f t="shared" si="62"/>
@@ -49258,7 +49266,7 @@
       </c>
       <c r="AJ408" s="6">
         <f t="shared" si="61"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AK408" s="6" t="str">
         <f t="shared" si="62"/>
@@ -49362,7 +49370,7 @@
       </c>
       <c r="AJ409" s="6">
         <f t="shared" si="61"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AK409" s="6" t="str">
         <f t="shared" si="62"/>
@@ -49570,7 +49578,7 @@
       </c>
       <c r="AJ411" s="6">
         <f t="shared" si="61"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AK411" s="6" t="str">
         <f t="shared" si="62"/>
@@ -49652,7 +49660,7 @@
       </c>
       <c r="AF412" s="6">
         <f t="shared" si="57"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AG412" s="6" t="str">
         <f t="shared" si="58"/>
@@ -50148,7 +50156,7 @@
       </c>
       <c r="AF417" s="6">
         <f t="shared" si="57"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG417" s="6" t="str">
         <f t="shared" si="58"/>
@@ -51054,7 +51062,7 @@
       </c>
       <c r="AF426" s="6">
         <f t="shared" si="57"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG426" s="6" t="str">
         <f t="shared" si="58"/>
@@ -51376,7 +51384,7 @@
       </c>
       <c r="AJ429" s="6">
         <f t="shared" si="61"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AK429" s="6" t="str">
         <f t="shared" si="62"/>
@@ -51484,7 +51492,7 @@
       </c>
       <c r="AK430" s="6">
         <f t="shared" si="62"/>
-        <v>39.052500000000002</v>
+        <v>30.553699999999999</v>
       </c>
       <c r="AL430" s="6" t="str">
         <f t="shared" si="63"/>
@@ -51691,7 +51699,7 @@
       </c>
       <c r="AJ432" s="6">
         <f t="shared" si="61"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK432" s="6" t="str">
         <f t="shared" si="62"/>
@@ -51795,7 +51803,7 @@
       </c>
       <c r="AJ433" s="6">
         <f t="shared" si="61"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK433" s="6" t="str">
         <f t="shared" si="62"/>
@@ -51972,7 +51980,7 @@
       </c>
       <c r="AF435" s="6">
         <f t="shared" si="57"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG435" s="6" t="str">
         <f t="shared" si="58"/>
@@ -52196,7 +52204,7 @@
       </c>
       <c r="AJ437" s="6">
         <f t="shared" si="61"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK437" s="6" t="str">
         <f t="shared" si="62"/>
@@ -52606,7 +52614,7 @@
       </c>
       <c r="AJ441" s="6">
         <f t="shared" si="61"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK441" s="6" t="str">
         <f t="shared" si="62"/>
@@ -52789,7 +52797,7 @@
       </c>
       <c r="AF443" s="6">
         <f t="shared" si="57"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG443" s="6" t="str">
         <f t="shared" si="58"/>
@@ -52909,7 +52917,7 @@
       </c>
       <c r="AJ444" s="6">
         <f t="shared" si="61"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK444" s="6" t="str">
         <f t="shared" si="62"/>
@@ -53016,7 +53024,7 @@
       </c>
       <c r="AJ445" s="6">
         <f t="shared" si="61"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK445" s="6" t="str">
         <f t="shared" si="62"/>
@@ -53101,7 +53109,7 @@
       </c>
       <c r="AF446" s="6">
         <f t="shared" si="57"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG446" s="6" t="str">
         <f t="shared" si="58"/>
@@ -53202,7 +53210,7 @@
       </c>
       <c r="AF447" s="6">
         <f t="shared" si="57"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG447" s="6" t="str">
         <f t="shared" si="58"/>
@@ -53404,7 +53412,7 @@
       </c>
       <c r="AF449" s="6">
         <f t="shared" si="57"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG449" s="6" t="str">
         <f t="shared" si="58"/>
@@ -53524,7 +53532,7 @@
       </c>
       <c r="AJ450" s="6">
         <f t="shared" si="61"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK450" s="6" t="str">
         <f t="shared" si="62"/>
@@ -53628,7 +53636,7 @@
       </c>
       <c r="AJ451" s="6">
         <f t="shared" si="61"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK451" s="6" t="str">
         <f t="shared" si="62"/>
@@ -53735,7 +53743,7 @@
       </c>
       <c r="AJ452" s="6">
         <f t="shared" si="61"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK452" s="6" t="str">
         <f t="shared" si="62"/>
@@ -53946,7 +53954,7 @@
       </c>
       <c r="AJ454" s="6">
         <f t="shared" si="61"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK454" s="6" t="str">
         <f t="shared" si="62"/>
@@ -54050,7 +54058,7 @@
       </c>
       <c r="AJ455" s="6">
         <f t="shared" si="61"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK455" s="6" t="str">
         <f t="shared" si="62"/>
@@ -54157,7 +54165,7 @@
       </c>
       <c r="AJ456" s="6">
         <f t="shared" si="61"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK456" s="6" t="str">
         <f t="shared" si="62"/>
@@ -55169,7 +55177,7 @@
       </c>
       <c r="AF466" s="6">
         <f t="shared" si="66"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG466" s="6" t="str">
         <f t="shared" si="67"/>
@@ -55289,7 +55297,7 @@
       </c>
       <c r="AJ467" s="6">
         <f t="shared" si="70"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK467" s="6" t="str">
         <f t="shared" si="71"/>
@@ -55475,7 +55483,7 @@
       </c>
       <c r="AF469" s="6">
         <f t="shared" si="66"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG469" s="6" t="str">
         <f t="shared" si="67"/>
@@ -55595,7 +55603,7 @@
       </c>
       <c r="AJ470" s="6">
         <f t="shared" si="70"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AK470" s="6" t="str">
         <f t="shared" si="71"/>
@@ -55965,7 +55973,7 @@
       </c>
       <c r="AF474" s="6">
         <f t="shared" si="66"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG474" s="6" t="str">
         <f t="shared" si="67"/>
@@ -56183,7 +56191,7 @@
       </c>
       <c r="AJ476" s="6">
         <f t="shared" si="70"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK476" s="6" t="str">
         <f t="shared" si="71"/>
@@ -56982,7 +56990,7 @@
       </c>
       <c r="AJ484" s="6">
         <f t="shared" si="70"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK484" s="6" t="str">
         <f t="shared" si="71"/>
@@ -57086,7 +57094,7 @@
       </c>
       <c r="AJ485" s="6">
         <f t="shared" si="70"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK485" s="6" t="str">
         <f t="shared" si="71"/>
@@ -57269,7 +57277,7 @@
       </c>
       <c r="AF487" s="6">
         <f t="shared" si="66"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG487" s="6" t="str">
         <f t="shared" si="67"/>
@@ -57392,7 +57400,7 @@
       </c>
       <c r="AJ488" s="6">
         <f t="shared" si="70"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK488" s="6" t="str">
         <f t="shared" si="71"/>
@@ -58729,7 +58737,7 @@
       </c>
       <c r="AJ501" s="6">
         <f t="shared" si="70"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK501" s="6" t="str">
         <f t="shared" si="71"/>
@@ -58931,7 +58939,7 @@
       </c>
       <c r="AJ503" s="6">
         <f t="shared" si="70"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AK503" s="6" t="str">
         <f t="shared" si="71"/>
@@ -59983,15 +59991,15 @@
       </c>
       <c r="AJ513" s="6">
         <f t="shared" si="70"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK513" s="6">
         <f t="shared" si="71"/>
-        <v>2.3604999999999983</v>
-      </c>
-      <c r="AL513" s="6" t="str">
+        <v>0.16409999999999991</v>
+      </c>
+      <c r="AL513" s="6">
         <f t="shared" si="72"/>
-        <v/>
+        <v>0.16409999999999991</v>
       </c>
       <c r="AQ513" s="6" t="s">
         <v>1043</v>
@@ -60371,11 +60379,11 @@
       </c>
       <c r="AF517" s="6">
         <f t="shared" si="66"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG517" s="6">
         <f t="shared" si="67"/>
-        <v>2.7558999999999996</v>
+        <v>0.2599000000000003</v>
       </c>
       <c r="AH517" s="6" t="str">
         <f t="shared" si="68"/>
@@ -60800,7 +60808,7 @@
       </c>
       <c r="AJ521" s="6">
         <f t="shared" si="70"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK521" s="6" t="str">
         <f t="shared" si="71"/>
@@ -61828,7 +61836,7 @@
       </c>
       <c r="AJ531" s="6">
         <f t="shared" si="79"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AK531" s="6" t="str">
         <f t="shared" si="80"/>
@@ -61932,7 +61940,7 @@
       </c>
       <c r="AJ532" s="6">
         <f t="shared" si="79"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK532" s="6" t="str">
         <f t="shared" si="80"/>
@@ -62014,7 +62022,7 @@
       </c>
       <c r="AF533" s="6">
         <f t="shared" si="75"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG533" s="6" t="str">
         <f t="shared" si="76"/>
@@ -62137,7 +62145,7 @@
       </c>
       <c r="AJ534" s="6">
         <f t="shared" si="79"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK534" s="6" t="str">
         <f t="shared" si="80"/>
@@ -63645,7 +63653,7 @@
       </c>
       <c r="AF549" s="6">
         <f t="shared" si="75"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG549" s="6" t="str">
         <f t="shared" si="76"/>
@@ -64277,7 +64285,7 @@
       </c>
       <c r="AK555" s="6">
         <f t="shared" si="80"/>
-        <v>39.812499999999993</v>
+        <v>31.4085</v>
       </c>
       <c r="AL555" s="6" t="str">
         <f t="shared" si="81"/>
@@ -64381,7 +64389,7 @@
       </c>
       <c r="AK556" s="6">
         <f t="shared" si="80"/>
-        <v>4.7554999999999978</v>
+        <v>1.5694999999999999</v>
       </c>
       <c r="AL556" s="6" t="str">
         <f t="shared" si="81"/>
@@ -64687,7 +64695,7 @@
       </c>
       <c r="AK559" s="6">
         <f t="shared" si="80"/>
-        <v>40.114499999999992</v>
+        <v>31.958099999999998</v>
       </c>
       <c r="AL559" s="6" t="str">
         <f t="shared" si="81"/>
@@ -65090,7 +65098,7 @@
       </c>
       <c r="AJ563" s="6">
         <f t="shared" si="79"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK563" s="6" t="str">
         <f t="shared" si="80"/>
@@ -65194,7 +65202,7 @@
       </c>
       <c r="AJ564" s="6">
         <f t="shared" si="79"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK564" s="6" t="str">
         <f t="shared" si="80"/>
@@ -65279,7 +65287,7 @@
       </c>
       <c r="AF565" s="6">
         <f t="shared" si="75"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG565" s="6" t="str">
         <f t="shared" si="76"/>
@@ -65377,7 +65385,7 @@
       </c>
       <c r="AF566" s="6">
         <f t="shared" si="75"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG566" s="6" t="str">
         <f t="shared" si="76"/>
@@ -65475,7 +65483,7 @@
       </c>
       <c r="AF567" s="6">
         <f t="shared" si="75"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG567" s="6" t="str">
         <f t="shared" si="76"/>
@@ -65595,7 +65603,7 @@
       </c>
       <c r="AJ568" s="6">
         <f t="shared" si="79"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK568" s="6" t="str">
         <f t="shared" si="80"/>
@@ -65781,7 +65789,7 @@
       </c>
       <c r="AF570" s="6">
         <f t="shared" si="75"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG570" s="6" t="str">
         <f t="shared" si="76"/>
@@ -65996,7 +66004,7 @@
       </c>
       <c r="AJ572" s="6">
         <f t="shared" si="79"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK572" s="6" t="str">
         <f t="shared" si="80"/>
@@ -66078,7 +66086,7 @@
       </c>
       <c r="AF573" s="6">
         <f t="shared" si="75"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG573" s="6" t="str">
         <f t="shared" si="76"/>
@@ -66179,7 +66187,7 @@
       </c>
       <c r="AF574" s="6">
         <f t="shared" si="75"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG574" s="6" t="str">
         <f t="shared" si="76"/>
@@ -66394,7 +66402,7 @@
       </c>
       <c r="AJ576" s="6">
         <f t="shared" si="79"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK576" s="6" t="str">
         <f t="shared" si="80"/>
@@ -66501,7 +66509,7 @@
       </c>
       <c r="AJ577" s="6">
         <f t="shared" si="79"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK577" s="6" t="str">
         <f t="shared" si="80"/>
@@ -67477,7 +67485,7 @@
       </c>
       <c r="AF587" s="6">
         <f t="shared" ref="AF587:AF650" si="84">IF(AND(AB587=$AB$4,AC587=$AC$4),IF(W587=$W$4,1,0)+IF(Z587=$Z$4,1,0)+IF(X587=$X$4,1,0)+IF(Y587=$Y$4,1,0)+IF(AA587=$AA$4,1,0)+IF(V587=$V$4,1,0),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG587" s="6" t="str">
         <f t="shared" ref="AG587:AG650" si="85">IF(AND(AB587=$AB$4,AC587=$AC$4,AE587=MAX(AE$10:AE$5002)),(J587-J$4)^2+(K587-K$4)^2+(L587-L$4)^2+(M587-M$4)^2+(N587-N$4)^2+(O587-O$4)^2,"")</f>
@@ -67575,7 +67583,7 @@
       </c>
       <c r="AF588" s="6">
         <f t="shared" si="84"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AG588" s="6" t="str">
         <f t="shared" si="85"/>
@@ -67673,15 +67681,15 @@
       </c>
       <c r="AF589" s="6">
         <f t="shared" si="84"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AG589" s="6">
         <f t="shared" si="85"/>
-        <v>3.8848999999999987</v>
-      </c>
-      <c r="AH589" s="6">
+        <v>1.0388999999999997</v>
+      </c>
+      <c r="AH589" s="6" t="str">
         <f t="shared" si="86"/>
-        <v>3.8848999999999987</v>
+        <v/>
       </c>
       <c r="AI589" s="6">
         <f t="shared" si="87"/>
@@ -67771,15 +67779,15 @@
       </c>
       <c r="AF590" s="6">
         <f t="shared" si="84"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AG590" s="6">
         <f t="shared" si="85"/>
-        <v>31.986700000000006</v>
-      </c>
-      <c r="AH590" s="6">
+        <v>23.666699999999999</v>
+      </c>
+      <c r="AH590" s="6" t="str">
         <f t="shared" si="86"/>
-        <v>31.986700000000006</v>
+        <v/>
       </c>
       <c r="AI590" s="6">
         <f t="shared" si="87"/>
@@ -67891,7 +67899,7 @@
       </c>
       <c r="AJ591" s="6">
         <f t="shared" si="88"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK591" s="6" t="str">
         <f t="shared" si="89"/>
@@ -67995,7 +68003,7 @@
       </c>
       <c r="AJ592" s="6">
         <f t="shared" si="88"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AK592" s="6" t="str">
         <f t="shared" si="89"/>
@@ -68197,7 +68205,7 @@
       </c>
       <c r="AJ594" s="6">
         <f t="shared" si="88"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AK594" s="6" t="str">
         <f t="shared" si="89"/>
@@ -68305,7 +68313,7 @@
       </c>
       <c r="AK595" s="6">
         <f t="shared" si="89"/>
-        <v>1.0624</v>
+        <v>0.53039999999999976</v>
       </c>
       <c r="AL595" s="6" t="str">
         <f t="shared" si="90"/>
@@ -68999,7 +69007,7 @@
       </c>
       <c r="AJ602" s="6">
         <f t="shared" si="88"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK602" s="6" t="str">
         <f t="shared" si="89"/>
@@ -69103,7 +69111,7 @@
       </c>
       <c r="AJ603" s="6">
         <f t="shared" si="88"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK603" s="6" t="str">
         <f t="shared" si="89"/>
@@ -69185,7 +69193,7 @@
       </c>
       <c r="AF604" s="6">
         <f t="shared" si="84"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG604" s="6" t="str">
         <f t="shared" si="85"/>
@@ -70374,7 +70382,7 @@
       </c>
       <c r="AG616" s="6">
         <f t="shared" si="85"/>
-        <v>31.085599999999999</v>
+        <v>22.665999999999997</v>
       </c>
       <c r="AH616" s="6" t="str">
         <f t="shared" si="86"/>
@@ -70667,11 +70675,11 @@
       </c>
       <c r="AF619" s="6">
         <f t="shared" si="84"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG619" s="6">
         <f t="shared" si="85"/>
-        <v>0.39799999999999952</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="AH619" s="6" t="str">
         <f t="shared" si="86"/>
@@ -70875,7 +70883,7 @@
       </c>
       <c r="AF621" s="6">
         <f t="shared" si="84"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG621" s="6" t="str">
         <f t="shared" si="85"/>
@@ -71182,7 +71190,7 @@
       </c>
       <c r="AJ624" s="6">
         <f t="shared" si="88"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK624" s="6" t="str">
         <f t="shared" si="89"/>
@@ -71286,7 +71294,7 @@
       </c>
       <c r="AJ625" s="6">
         <f t="shared" si="88"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK625" s="6" t="str">
         <f t="shared" si="89"/>
@@ -71653,15 +71661,15 @@
       </c>
       <c r="AF629" s="6">
         <f t="shared" si="84"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AG629" s="6">
         <f t="shared" si="85"/>
-        <v>1.2229999999999996</v>
-      </c>
-      <c r="AH629" s="6">
+        <v>2.6999999999999937E-2</v>
+      </c>
+      <c r="AH629" s="6" t="str">
         <f t="shared" si="86"/>
-        <v>1.2229999999999996</v>
+        <v/>
       </c>
       <c r="AI629" s="6">
         <f t="shared" si="87"/>
@@ -71773,7 +71781,7 @@
       </c>
       <c r="AJ630" s="6">
         <f t="shared" si="88"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK630" s="6" t="str">
         <f t="shared" si="89"/>
@@ -72054,7 +72062,7 @@
       </c>
       <c r="AF633" s="6">
         <f t="shared" si="84"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG633" s="6" t="str">
         <f t="shared" si="85"/>
@@ -72174,7 +72182,7 @@
       </c>
       <c r="AJ634" s="6">
         <f t="shared" si="88"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK634" s="6" t="str">
         <f t="shared" si="89"/>
@@ -72382,7 +72390,7 @@
       </c>
       <c r="AJ636" s="6">
         <f t="shared" si="88"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK636" s="6" t="str">
         <f t="shared" si="89"/>
@@ -72590,7 +72598,7 @@
       </c>
       <c r="AJ638" s="6">
         <f t="shared" si="88"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK638" s="6" t="str">
         <f t="shared" si="89"/>
@@ -72694,7 +72702,7 @@
       </c>
       <c r="AJ639" s="6">
         <f t="shared" si="88"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK639" s="6" t="str">
         <f t="shared" si="89"/>
@@ -72798,7 +72806,7 @@
       </c>
       <c r="AJ640" s="6">
         <f t="shared" si="88"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK640" s="6" t="str">
         <f t="shared" si="89"/>
@@ -73291,7 +73299,7 @@
       </c>
       <c r="AJ645" s="6">
         <f t="shared" si="88"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK645" s="6" t="str">
         <f t="shared" si="89"/>
@@ -73490,7 +73498,7 @@
       </c>
       <c r="AJ647" s="6">
         <f t="shared" si="88"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK647" s="6" t="str">
         <f t="shared" si="89"/>
@@ -73952,7 +73960,7 @@
       </c>
       <c r="AF652" s="6">
         <f t="shared" si="93"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG652" s="6" t="str">
         <f t="shared" si="94"/>
@@ -74050,7 +74058,7 @@
       </c>
       <c r="AF653" s="6">
         <f t="shared" si="93"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG653" s="6" t="str">
         <f t="shared" si="94"/>
@@ -74445,7 +74453,7 @@
       </c>
       <c r="AF657" s="6">
         <f t="shared" si="93"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG657" s="6" t="str">
         <f t="shared" si="94"/>
@@ -74868,7 +74876,7 @@
       </c>
       <c r="AJ661" s="6">
         <f t="shared" si="97"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK661" s="6" t="str">
         <f t="shared" si="98"/>
@@ -75239,7 +75247,7 @@
       </c>
       <c r="AG665" s="6">
         <f t="shared" si="94"/>
-        <v>33.0899</v>
+        <v>24.759899999999998</v>
       </c>
       <c r="AH665" s="6" t="str">
         <f t="shared" si="95"/>
@@ -75838,7 +75846,7 @@
       </c>
       <c r="AF671" s="6">
         <f t="shared" si="93"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG671" s="6" t="str">
         <f t="shared" si="94"/>
@@ -75939,11 +75947,11 @@
       </c>
       <c r="AF672" s="6">
         <f t="shared" si="93"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG672" s="6">
         <f t="shared" si="94"/>
-        <v>1.6354999999999997</v>
+        <v>0.52749999999999986</v>
       </c>
       <c r="AH672" s="6" t="str">
         <f t="shared" si="95"/>
@@ -76558,7 +76566,7 @@
       </c>
       <c r="AJ678" s="6">
         <f t="shared" si="97"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK678" s="6" t="str">
         <f t="shared" si="98"/>
@@ -77878,7 +77886,7 @@
       </c>
       <c r="AK691" s="6">
         <f t="shared" si="98"/>
-        <v>3.9157999999999982</v>
+        <v>2.097799999999999</v>
       </c>
       <c r="AL691" s="6" t="str">
         <f t="shared" si="99"/>
@@ -78064,7 +78072,7 @@
       </c>
       <c r="AG693" s="6">
         <f t="shared" si="94"/>
-        <v>2.1173999999999995</v>
+        <v>0.8233999999999998</v>
       </c>
       <c r="AH693" s="6" t="str">
         <f t="shared" si="95"/>
@@ -78462,7 +78470,7 @@
       </c>
       <c r="AG697" s="6">
         <f t="shared" si="94"/>
-        <v>4.3654999999999982</v>
+        <v>0.90149999999999986</v>
       </c>
       <c r="AH697" s="6" t="str">
         <f t="shared" si="95"/>
@@ -79117,7 +79125,7 @@
       </c>
       <c r="AF704" s="6">
         <f t="shared" si="93"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG704" s="6" t="str">
         <f t="shared" si="94"/>
@@ -79696,7 +79704,7 @@
       </c>
       <c r="AF710" s="6">
         <f t="shared" si="93"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG710" s="6" t="str">
         <f t="shared" si="94"/>
@@ -79819,7 +79827,7 @@
       </c>
       <c r="AJ711" s="6">
         <f t="shared" si="97"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK711" s="6" t="str">
         <f t="shared" si="98"/>
@@ -79999,7 +80007,7 @@
       </c>
       <c r="AF713" s="6">
         <f t="shared" si="93"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG713" s="6" t="str">
         <f t="shared" si="94"/>
@@ -80302,7 +80310,7 @@
       </c>
       <c r="AF716" s="6">
         <f t="shared" si="102"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG716" s="6" t="str">
         <f t="shared" si="103"/>
@@ -80716,7 +80724,7 @@
       </c>
       <c r="AJ720" s="6">
         <f t="shared" si="106"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK720" s="6" t="str">
         <f t="shared" si="107"/>
@@ -80893,7 +80901,7 @@
       </c>
       <c r="AF722" s="6">
         <f t="shared" si="102"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG722" s="6" t="str">
         <f t="shared" si="103"/>
@@ -81194,7 +81202,7 @@
       </c>
       <c r="AJ725" s="6">
         <f t="shared" si="106"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK725" s="6" t="str">
         <f t="shared" si="107"/>
@@ -81377,11 +81385,11 @@
       </c>
       <c r="AF727" s="6">
         <f t="shared" si="102"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG727" s="6">
         <f t="shared" si="103"/>
-        <v>23.579600000000003</v>
+        <v>16.388000000000002</v>
       </c>
       <c r="AH727" s="6" t="str">
         <f t="shared" si="104"/>
@@ -81500,7 +81508,7 @@
       </c>
       <c r="AJ728" s="6">
         <f t="shared" si="106"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK728" s="6" t="str">
         <f t="shared" si="107"/>
@@ -82798,7 +82806,7 @@
       </c>
       <c r="AJ741" s="6">
         <f t="shared" si="106"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK741" s="6" t="str">
         <f t="shared" si="107"/>
@@ -82902,7 +82910,7 @@
       </c>
       <c r="AJ742" s="6">
         <f t="shared" si="106"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK742" s="6" t="str">
         <f t="shared" si="107"/>
@@ -82984,7 +82992,7 @@
       </c>
       <c r="AF743" s="6">
         <f t="shared" si="102"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG743" s="6" t="str">
         <f t="shared" si="103"/>
@@ -83082,7 +83090,7 @@
       </c>
       <c r="AF744" s="6">
         <f t="shared" si="102"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG744" s="6" t="str">
         <f t="shared" si="103"/>
@@ -83202,7 +83210,7 @@
       </c>
       <c r="AJ745" s="6">
         <f t="shared" si="106"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK745" s="6" t="str">
         <f t="shared" si="107"/>
@@ -83284,7 +83292,7 @@
       </c>
       <c r="AF746" s="6">
         <f t="shared" si="102"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG746" s="6" t="str">
         <f t="shared" si="103"/>
@@ -83486,7 +83494,7 @@
       </c>
       <c r="AF748" s="6">
         <f t="shared" si="102"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG748" s="6" t="str">
         <f t="shared" si="103"/>
@@ -83606,7 +83614,7 @@
       </c>
       <c r="AJ749" s="6">
         <f t="shared" si="106"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK749" s="6" t="str">
         <f t="shared" si="107"/>
@@ -83710,7 +83718,7 @@
       </c>
       <c r="AJ750" s="6">
         <f t="shared" si="106"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK750" s="6" t="str">
         <f t="shared" si="107"/>
@@ -83918,7 +83926,7 @@
       </c>
       <c r="AJ752" s="6">
         <f t="shared" si="106"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK752" s="6" t="str">
         <f t="shared" si="107"/>
@@ -84711,7 +84719,7 @@
       </c>
       <c r="AJ760" s="6">
         <f t="shared" si="106"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AK760" s="6" t="str">
         <f t="shared" si="107"/>
@@ -84815,15 +84823,15 @@
       </c>
       <c r="AJ761" s="6">
         <f t="shared" si="106"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK761" s="6">
         <f t="shared" si="107"/>
-        <v>0.56119999999999892</v>
-      </c>
-      <c r="AL761" s="6">
+        <v>0.20720000000000022</v>
+      </c>
+      <c r="AL761" s="6" t="str">
         <f t="shared" si="108"/>
-        <v>0.56119999999999892</v>
+        <v/>
       </c>
     </row>
     <row r="762" spans="2:43">
@@ -85028,7 +85036,7 @@
         <v/>
       </c>
       <c r="AQ763" s="12" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="764" spans="2:43">
@@ -85106,7 +85114,7 @@
       </c>
       <c r="AG764" s="6">
         <f t="shared" si="103"/>
-        <v>23.225099999999998</v>
+        <v>15.409100000000002</v>
       </c>
       <c r="AH764" s="6" t="str">
         <f t="shared" si="104"/>
@@ -85307,7 +85315,7 @@
       </c>
       <c r="AF766" s="6">
         <f t="shared" si="102"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG766" s="6" t="str">
         <f t="shared" si="103"/>
@@ -85613,7 +85621,7 @@
       </c>
       <c r="AF769" s="6">
         <f t="shared" si="102"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG769" s="6" t="str">
         <f t="shared" si="103"/>
@@ -86041,7 +86049,7 @@
         <v/>
       </c>
       <c r="AQ773" s="12" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="774" spans="2:43">
@@ -86243,7 +86251,7 @@
         <v/>
       </c>
       <c r="AQ775" s="6" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="776" spans="2:43">
@@ -86341,7 +86349,7 @@
         <v/>
       </c>
       <c r="AQ776" s="12" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="777" spans="2:43">
@@ -86415,7 +86423,7 @@
       </c>
       <c r="AF777" s="6">
         <f t="shared" si="102"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AG777" s="6" t="str">
         <f t="shared" si="103"/>
@@ -86546,7 +86554,7 @@
         <v/>
       </c>
       <c r="AQ778" s="12" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="779" spans="2:43">
@@ -86653,7 +86661,7 @@
         <v/>
       </c>
       <c r="AQ779" s="6" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="780" spans="2:43">
@@ -86727,15 +86735,15 @@
       </c>
       <c r="AF780" s="6">
         <f t="shared" si="111"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AG780" s="6">
         <f t="shared" si="112"/>
-        <v>0</v>
-      </c>
-      <c r="AH780" s="6">
+        <v>1.353599999999999</v>
+      </c>
+      <c r="AH780" s="6" t="str">
         <f t="shared" si="113"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="AI780" s="6">
         <f t="shared" si="114"/>
@@ -86804,6 +86812,18 @@
         <f t="shared" si="109"/>
         <v>比甲</v>
       </c>
+      <c r="W781" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="X781" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y781" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z781" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="AE781" s="6">
         <f t="shared" si="110"/>
         <v>0</v>
@@ -86887,13 +86907,28 @@
         <f t="shared" si="109"/>
         <v>比甲</v>
       </c>
+      <c r="W782" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="X782" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y782" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z782" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC782" s="6">
+        <v>1</v>
+      </c>
       <c r="AE782" s="6">
         <f t="shared" si="110"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF782" s="6">
         <f t="shared" si="111"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG782" s="6" t="str">
         <f t="shared" si="112"/>
@@ -86970,13 +87005,28 @@
         <f t="shared" si="109"/>
         <v>俄超</v>
       </c>
+      <c r="W783" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="X783" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y783" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z783" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC783" s="6">
+        <v>1</v>
+      </c>
       <c r="AE783" s="6">
         <f t="shared" si="110"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF783" s="6">
         <f t="shared" si="111"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG783" s="6" t="str">
         <f t="shared" si="112"/>
@@ -87053,13 +87103,28 @@
         <f t="shared" si="109"/>
         <v>比甲</v>
       </c>
+      <c r="W784" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="X784" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y784" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z784" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC784" s="6">
+        <v>1</v>
+      </c>
       <c r="AE784" s="6">
         <f t="shared" si="110"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF784" s="6">
         <f t="shared" si="111"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG784" s="6" t="str">
         <f t="shared" si="112"/>
@@ -87085,8 +87150,11 @@
         <f t="shared" si="117"/>
         <v/>
       </c>
+      <c r="AQ784" s="6" t="s">
+        <v>1162</v>
+      </c>
     </row>
-    <row r="785" spans="2:38">
+    <row r="785" spans="2:43">
       <c r="B785" s="2">
         <v>42637</v>
       </c>
@@ -87136,6 +87204,21 @@
         <f t="shared" si="109"/>
         <v>意甲</v>
       </c>
+      <c r="W785" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="X785" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y785" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z785" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA785" s="6">
+        <v>1</v>
+      </c>
       <c r="AE785" s="6">
         <f t="shared" si="110"/>
         <v>0</v>
@@ -87168,8 +87251,11 @@
         <f t="shared" si="117"/>
         <v/>
       </c>
+      <c r="AQ785" s="6" t="s">
+        <v>1163</v>
+      </c>
     </row>
-    <row r="786" spans="2:38">
+    <row r="786" spans="2:43">
       <c r="B786" s="2">
         <v>42637</v>
       </c>
@@ -87219,6 +87305,27 @@
         <f t="shared" si="109"/>
         <v>西甲</v>
       </c>
+      <c r="W786" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="X786" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y786" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z786" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA786" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB786" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC786" s="6">
+        <v>1</v>
+      </c>
       <c r="AE786" s="6">
         <f t="shared" si="110"/>
         <v>0</v>
@@ -87252,7 +87359,7 @@
         <v/>
       </c>
     </row>
-    <row r="787" spans="2:38">
+    <row r="787" spans="2:43">
       <c r="B787" s="2">
         <v>42637</v>
       </c>
@@ -87302,6 +87409,27 @@
         <f t="shared" si="109"/>
         <v>荷甲</v>
       </c>
+      <c r="W787" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="X787" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y787" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z787" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA787" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB787" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC787" s="6">
+        <v>1</v>
+      </c>
       <c r="AE787" s="6">
         <f t="shared" si="110"/>
         <v>0</v>
@@ -87335,7 +87463,7 @@
         <v/>
       </c>
     </row>
-    <row r="788" spans="2:38">
+    <row r="788" spans="2:43">
       <c r="B788" s="2">
         <v>42637</v>
       </c>
@@ -87385,6 +87513,18 @@
         <f t="shared" si="109"/>
         <v>荷甲</v>
       </c>
+      <c r="W788" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="X788" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y788" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z788" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="AE788" s="6">
         <f t="shared" si="110"/>
         <v>0</v>
@@ -87418,7 +87558,7 @@
         <v/>
       </c>
     </row>
-    <row r="789" spans="2:38">
+    <row r="789" spans="2:43">
       <c r="B789" s="2">
         <v>42637</v>
       </c>
@@ -87468,6 +87608,18 @@
         <f t="shared" si="109"/>
         <v>巴西甲</v>
       </c>
+      <c r="W789" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X789" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y789" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z789" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="AE789" s="6">
         <f t="shared" si="110"/>
         <v>0</v>
@@ -87501,7 +87653,7 @@
         <v/>
       </c>
     </row>
-    <row r="790" spans="2:38">
+    <row r="790" spans="2:43">
       <c r="B790" s="2">
         <v>42637</v>
       </c>
@@ -87551,6 +87703,27 @@
         <f t="shared" si="109"/>
         <v>阿甲</v>
       </c>
+      <c r="W790" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="X790" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y790" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z790" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA790" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB790" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC790" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="AE790" s="6">
         <f t="shared" si="110"/>
         <v>0</v>
@@ -87569,11 +87742,11 @@
       </c>
       <c r="AI790" s="6">
         <f t="shared" si="114"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ790" s="6">
         <f t="shared" si="115"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK790" s="6" t="str">
         <f t="shared" si="116"/>
@@ -87584,7 +87757,7 @@
         <v/>
       </c>
     </row>
-    <row r="791" spans="2:38">
+    <row r="791" spans="2:43">
       <c r="B791" s="2">
         <v>42637</v>
       </c>
@@ -87634,6 +87807,18 @@
         <f t="shared" si="109"/>
         <v>葡超</v>
       </c>
+      <c r="W791" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X791" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y791" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z791" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AE791" s="6">
         <f t="shared" si="110"/>
         <v>0</v>
@@ -87667,7 +87852,7 @@
         <v/>
       </c>
     </row>
-    <row r="792" spans="2:38">
+    <row r="792" spans="2:43">
       <c r="B792" s="2">
         <v>42637</v>
       </c>
@@ -87717,13 +87902,28 @@
         <f t="shared" si="109"/>
         <v>阿甲</v>
       </c>
+      <c r="W792" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="X792" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y792" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z792" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC792" s="6">
+        <v>1</v>
+      </c>
       <c r="AE792" s="6">
         <f t="shared" si="110"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF792" s="6">
         <f t="shared" si="111"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG792" s="6" t="str">
         <f t="shared" si="112"/>
@@ -87750,7 +87950,7 @@
         <v/>
       </c>
     </row>
-    <row r="793" spans="2:38">
+    <row r="793" spans="2:43">
       <c r="B793" s="2">
         <v>42637</v>
       </c>
@@ -87800,6 +88000,27 @@
         <f t="shared" si="109"/>
         <v>智利甲</v>
       </c>
+      <c r="W793" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X793" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y793" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z793" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA793" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB793" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC793" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="AE793" s="6">
         <f t="shared" si="110"/>
         <v>0</v>
@@ -87818,11 +88039,11 @@
       </c>
       <c r="AI793" s="6">
         <f t="shared" si="114"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ793" s="6">
         <f t="shared" si="115"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK793" s="6" t="str">
         <f t="shared" si="116"/>
@@ -87833,7 +88054,7 @@
         <v/>
       </c>
     </row>
-    <row r="794" spans="2:38">
+    <row r="794" spans="2:43">
       <c r="B794" s="2">
         <v>42637</v>
       </c>
@@ -87883,6 +88104,27 @@
         <f t="shared" si="109"/>
         <v>美职</v>
       </c>
+      <c r="W794" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="X794" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y794" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z794" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA794" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB794" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC794" s="6">
+        <v>1</v>
+      </c>
       <c r="AE794" s="6">
         <f t="shared" si="110"/>
         <v>0</v>
@@ -87916,7 +88158,7 @@
         <v/>
       </c>
     </row>
-    <row r="795" spans="2:38">
+    <row r="795" spans="2:43">
       <c r="B795" s="2">
         <v>42637</v>
       </c>
@@ -87966,13 +88208,28 @@
         <f t="shared" si="109"/>
         <v>巴西甲</v>
       </c>
+      <c r="W795" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X795" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y795" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z795" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC795" s="6">
+        <v>1</v>
+      </c>
       <c r="AE795" s="6">
         <f t="shared" si="110"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF795" s="6">
         <f t="shared" si="111"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG795" s="6" t="str">
         <f t="shared" si="112"/>
@@ -87999,7 +88256,7 @@
         <v/>
       </c>
     </row>
-    <row r="796" spans="2:38">
+    <row r="796" spans="2:43">
       <c r="B796" s="2">
         <v>42637</v>
       </c>
@@ -88049,6 +88306,27 @@
         <f t="shared" si="109"/>
         <v>墨联</v>
       </c>
+      <c r="W796" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X796" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y796" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z796" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA796" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB796" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC796" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="AE796" s="6">
         <f t="shared" si="110"/>
         <v>0</v>
@@ -88067,11 +88345,11 @@
       </c>
       <c r="AI796" s="6">
         <f t="shared" si="114"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ796" s="6">
         <f t="shared" si="115"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK796" s="6" t="str">
         <f t="shared" si="116"/>
@@ -88082,7 +88360,7 @@
         <v/>
       </c>
     </row>
-    <row r="797" spans="2:38">
+    <row r="797" spans="2:43">
       <c r="B797" s="2">
         <v>42637</v>
       </c>
@@ -88132,6 +88410,27 @@
         <f t="shared" si="109"/>
         <v>阿甲</v>
       </c>
+      <c r="W797" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X797" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y797" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z797" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA797" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB797" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC797" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="AE797" s="6">
         <f t="shared" si="110"/>
         <v>0</v>
@@ -88150,11 +88449,11 @@
       </c>
       <c r="AI797" s="6">
         <f t="shared" si="114"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ797" s="6">
         <f t="shared" si="115"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK797" s="6" t="str">
         <f t="shared" si="116"/>
@@ -88165,7 +88464,7 @@
         <v/>
       </c>
     </row>
-    <row r="798" spans="2:38">
+    <row r="798" spans="2:43">
       <c r="B798" s="2">
         <v>42637</v>
       </c>
@@ -88215,6 +88514,27 @@
         <f t="shared" si="109"/>
         <v>美职</v>
       </c>
+      <c r="W798" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X798" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y798" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z798" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA798" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB798" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC798" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="AE798" s="6">
         <f t="shared" si="110"/>
         <v>0</v>
@@ -88233,11 +88553,11 @@
       </c>
       <c r="AI798" s="6">
         <f t="shared" si="114"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ798" s="6">
         <f t="shared" si="115"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AK798" s="6" t="str">
         <f t="shared" si="116"/>
@@ -88248,7 +88568,7 @@
         <v/>
       </c>
     </row>
-    <row r="799" spans="2:38">
+    <row r="799" spans="2:43">
       <c r="B799" s="2">
         <v>42637</v>
       </c>
@@ -88298,6 +88618,18 @@
         <f t="shared" si="109"/>
         <v>美职</v>
       </c>
+      <c r="W799" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="X799" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y799" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z799" s="6" t="s">
+        <v>317</v>
+      </c>
       <c r="AE799" s="6">
         <f t="shared" si="110"/>
         <v>0</v>
@@ -88331,7 +88663,7 @@
         <v/>
       </c>
     </row>
-    <row r="800" spans="2:38">
+    <row r="800" spans="2:43">
       <c r="B800" s="2">
         <v>42637</v>
       </c>
@@ -88380,6 +88712,18 @@
       <c r="V800" s="6" t="str">
         <f t="shared" si="109"/>
         <v>美职</v>
+      </c>
+      <c r="W800" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="X800" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y800" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z800" s="6" t="s">
+        <v>317</v>
       </c>
       <c r="AE800" s="6">
         <f t="shared" si="110"/>
@@ -88464,6 +88808,27 @@
         <f t="shared" si="109"/>
         <v>阿甲</v>
       </c>
+      <c r="W801" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X801" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y801" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z801" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA801" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB801" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC801" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="AE801" s="6">
         <f t="shared" si="110"/>
         <v>0</v>
@@ -88482,11 +88847,11 @@
       </c>
       <c r="AI801" s="6">
         <f t="shared" si="114"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ801" s="6">
         <f t="shared" si="115"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK801" s="6" t="str">
         <f t="shared" si="116"/>
@@ -88547,6 +88912,27 @@
         <f t="shared" si="109"/>
         <v>智利甲</v>
       </c>
+      <c r="W802" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X802" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y802" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z802" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA802" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB802" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC802" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="AE802" s="6">
         <f t="shared" si="110"/>
         <v>0</v>
@@ -88565,11 +88951,11 @@
       </c>
       <c r="AI802" s="6">
         <f t="shared" si="114"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ802" s="6">
         <f t="shared" si="115"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK802" s="6" t="str">
         <f t="shared" si="116"/>
@@ -88630,17 +89016,32 @@
         <f t="shared" si="109"/>
         <v>巴西甲</v>
       </c>
+      <c r="W803" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="X803" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y803" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z803" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC803" s="6">
+        <v>1</v>
+      </c>
       <c r="AE803" s="6">
         <f t="shared" si="110"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF803" s="6">
         <f t="shared" si="111"/>
-        <v>0</v>
-      </c>
-      <c r="AG803" s="6" t="str">
+        <v>4</v>
+      </c>
+      <c r="AG803" s="6">
         <f t="shared" si="112"/>
-        <v/>
+        <v>1.2372000000000005</v>
       </c>
       <c r="AH803" s="6" t="str">
         <f t="shared" si="113"/>
@@ -88713,6 +89114,27 @@
         <f t="shared" si="109"/>
         <v>墨联</v>
       </c>
+      <c r="W804" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="X804" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y804" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z804" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA804" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB804" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC804" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="AE804" s="6">
         <f t="shared" si="110"/>
         <v>0</v>
@@ -88731,15 +89153,15 @@
       </c>
       <c r="AI804" s="6">
         <f t="shared" si="114"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ804" s="6">
         <f t="shared" si="115"/>
-        <v>0</v>
-      </c>
-      <c r="AK804" s="6" t="str">
+        <v>5</v>
+      </c>
+      <c r="AK804" s="6">
         <f t="shared" si="116"/>
-        <v/>
+        <v>20.939399999999999</v>
       </c>
       <c r="AL804" s="6" t="str">
         <f t="shared" si="117"/>
@@ -88796,6 +89218,27 @@
         <f t="shared" si="109"/>
         <v>墨联</v>
       </c>
+      <c r="W805" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X805" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y805" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z805" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA805" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB805" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC805" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="AE805" s="6">
         <f t="shared" si="110"/>
         <v>0</v>
@@ -88814,11 +89257,11 @@
       </c>
       <c r="AI805" s="6">
         <f t="shared" si="114"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ805" s="6">
         <f t="shared" si="115"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK805" s="6" t="str">
         <f t="shared" si="116"/>
@@ -88879,6 +89322,27 @@
         <f t="shared" si="109"/>
         <v>墨联</v>
       </c>
+      <c r="W806" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X806" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y806" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z806" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA806" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB806" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC806" s="6">
+        <v>1</v>
+      </c>
       <c r="AE806" s="6">
         <f t="shared" si="110"/>
         <v>0</v>
@@ -88962,6 +89426,18 @@
         <f t="shared" si="109"/>
         <v>墨联</v>
       </c>
+      <c r="W807" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X807" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y807" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z807" s="6" t="s">
+        <v>317</v>
+      </c>
       <c r="AE807" s="6">
         <f t="shared" si="110"/>
         <v>0</v>
@@ -89045,13 +89521,28 @@
         <f t="shared" si="109"/>
         <v>美职</v>
       </c>
+      <c r="W808" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="X808" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y808" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z808" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="AC808" s="6">
+        <v>1</v>
+      </c>
       <c r="AE808" s="6">
         <f t="shared" si="110"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF808" s="6">
         <f t="shared" si="111"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AG808" s="6" t="str">
         <f t="shared" si="112"/>
@@ -89128,6 +89619,27 @@
         <f t="shared" si="109"/>
         <v>美职</v>
       </c>
+      <c r="W809" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="X809" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="Y809" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z809" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA809" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB809" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC809" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="AE809" s="6">
         <f t="shared" si="110"/>
         <v>0</v>
@@ -89146,11 +89658,11 @@
       </c>
       <c r="AI809" s="6">
         <f t="shared" si="114"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ809" s="6">
         <f t="shared" si="115"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK809" s="6" t="str">
         <f t="shared" si="116"/>
@@ -89211,6 +89723,18 @@
         <f t="shared" si="109"/>
         <v>墨联</v>
       </c>
+      <c r="W810" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="X810" s="6" t="s">
+        <v>878</v>
+      </c>
+      <c r="Y810" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z810" s="6" t="s">
+        <v>317</v>
+      </c>
       <c r="AE810" s="6">
         <f t="shared" si="110"/>
         <v>0</v>
@@ -89294,6 +89818,27 @@
         <f t="shared" si="109"/>
         <v>美职</v>
       </c>
+      <c r="W811" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="X811" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y811" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z811" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA811" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB811" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC811" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="AE811" s="6">
         <f t="shared" si="110"/>
         <v>0</v>
@@ -89312,25 +89857,70 @@
       </c>
       <c r="AI811" s="6">
         <f t="shared" si="114"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ811" s="6">
         <f t="shared" si="115"/>
-        <v>0</v>
-      </c>
-      <c r="AK811" s="6" t="str">
+        <v>6</v>
+      </c>
+      <c r="AK811" s="6">
         <f t="shared" si="116"/>
-        <v/>
-      </c>
-      <c r="AL811" s="6" t="str">
+        <v>0</v>
+      </c>
+      <c r="AL811" s="6">
         <f t="shared" si="117"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="2:38">
-      <c r="V812" s="6">
+      <c r="B812" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C812" s="3">
+        <v>1</v>
+      </c>
+      <c r="D812" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E812" s="4">
+        <v>42638.5</v>
+      </c>
+      <c r="F812" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G812" s="5" t="s">
+        <v>954</v>
+      </c>
+      <c r="H812" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I812" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="J812" s="5">
+        <v>3.08</v>
+      </c>
+      <c r="K812" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="L812" s="5">
+        <v>2.08</v>
+      </c>
+      <c r="M812" s="3">
+        <v>1.55</v>
+      </c>
+      <c r="N812" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="O812" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="P812" s="3">
+        <v>1</v>
+      </c>
+      <c r="V812" s="6" t="str">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>J2联赛</v>
       </c>
       <c r="AE812" s="6">
         <f t="shared" si="110"/>
@@ -89366,9 +89956,54 @@
       </c>
     </row>
     <row r="813" spans="2:38">
-      <c r="V813" s="6">
+      <c r="B813" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C813" s="3">
+        <v>2</v>
+      </c>
+      <c r="D813" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="E813" s="4">
+        <v>42638.541666666664</v>
+      </c>
+      <c r="F813" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G813" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="H813" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I813" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="J813" s="5">
+        <v>3.35</v>
+      </c>
+      <c r="K813" s="5">
+        <v>3.65</v>
+      </c>
+      <c r="L813" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="M813" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="N813" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="O813" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="P813" s="3">
+        <v>1</v>
+      </c>
+      <c r="V813" s="6" t="str">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>J联赛</v>
       </c>
       <c r="AE813" s="6">
         <f t="shared" si="110"/>
@@ -89404,9 +90039,54 @@
       </c>
     </row>
     <row r="814" spans="2:38">
-      <c r="V814" s="6">
+      <c r="B814" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C814" s="3">
+        <v>3</v>
+      </c>
+      <c r="D814" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="E814" s="4">
+        <v>42638.541666666664</v>
+      </c>
+      <c r="F814" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G814" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="H814" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="I814" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="J814" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="K814" s="5">
+        <v>3.15</v>
+      </c>
+      <c r="L814" s="5">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="M814" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="N814" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="O814" s="3">
+        <v>1.41</v>
+      </c>
+      <c r="P814" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V814" s="6" t="str">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>J联赛</v>
       </c>
       <c r="AE814" s="6">
         <f t="shared" si="110"/>
@@ -89442,9 +90122,54 @@
       </c>
     </row>
     <row r="815" spans="2:38">
-      <c r="V815" s="6">
+      <c r="B815" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C815" s="3">
+        <v>4</v>
+      </c>
+      <c r="D815" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E815" s="4">
+        <v>42638.541666666664</v>
+      </c>
+      <c r="F815" s="5" t="s">
+        <v>965</v>
+      </c>
+      <c r="G815" s="5" t="s">
+        <v>971</v>
+      </c>
+      <c r="H815" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="I815" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="J815" s="5">
+        <v>2</v>
+      </c>
+      <c r="K815" s="5">
+        <v>3</v>
+      </c>
+      <c r="L815" s="5">
+        <v>3.38</v>
+      </c>
+      <c r="M815" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="N815" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="O815" s="3">
+        <v>1.59</v>
+      </c>
+      <c r="P815" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V815" s="6" t="str">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>J2联赛</v>
       </c>
       <c r="AE815" s="6">
         <f t="shared" si="110"/>
@@ -89480,9 +90205,54 @@
       </c>
     </row>
     <row r="816" spans="2:38">
-      <c r="V816" s="6">
+      <c r="B816" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C816" s="3">
+        <v>5</v>
+      </c>
+      <c r="D816" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E816" s="4">
+        <v>42638.541666666664</v>
+      </c>
+      <c r="F816" s="5" t="s">
+        <v>968</v>
+      </c>
+      <c r="G816" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="H816" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="I816" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="J816" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="K816" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="L816" s="5">
+        <v>2.36</v>
+      </c>
+      <c r="M816" s="3">
+        <v>6</v>
+      </c>
+      <c r="N816" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="O816" s="3">
+        <v>1.36</v>
+      </c>
+      <c r="P816" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V816" s="6" t="str">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>J2联赛</v>
       </c>
       <c r="AE816" s="6">
         <f t="shared" si="110"/>
@@ -89517,10 +90287,55 @@
         <v/>
       </c>
     </row>
-    <row r="817" spans="22:38">
-      <c r="V817" s="6">
+    <row r="817" spans="2:38">
+      <c r="B817" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C817" s="3">
+        <v>6</v>
+      </c>
+      <c r="D817" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="E817" s="4">
+        <v>42638.583333333336</v>
+      </c>
+      <c r="F817" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="G817" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="H817" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="I817" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="J817" s="5">
+        <v>2.39</v>
+      </c>
+      <c r="K817" s="5">
+        <v>3.3</v>
+      </c>
+      <c r="L817" s="5">
+        <v>2.46</v>
+      </c>
+      <c r="M817" s="3">
+        <v>5.35</v>
+      </c>
+      <c r="N817" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="O817" s="3">
+        <v>1.41</v>
+      </c>
+      <c r="P817" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V817" s="6" t="str">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>J联赛</v>
       </c>
       <c r="AE817" s="6">
         <f t="shared" si="110"/>
@@ -89555,10 +90370,55 @@
         <v/>
       </c>
     </row>
-    <row r="818" spans="22:38">
-      <c r="V818" s="6">
+    <row r="818" spans="2:38">
+      <c r="B818" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C818" s="3">
+        <v>7</v>
+      </c>
+      <c r="D818" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="E818" s="17">
+        <v>42638.583333333336</v>
+      </c>
+      <c r="F818" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="G818" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="H818" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="I818" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="J818" s="5">
+        <v>1.7</v>
+      </c>
+      <c r="K818" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="L818" s="5">
+        <v>3.76</v>
+      </c>
+      <c r="M818" s="3">
+        <v>3.08</v>
+      </c>
+      <c r="N818" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="O818" s="3">
+        <v>1.86</v>
+      </c>
+      <c r="P818" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V818" s="6" t="str">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>J联赛</v>
       </c>
       <c r="AE818" s="6">
         <f t="shared" si="110"/>
@@ -89593,10 +90453,55 @@
         <v/>
       </c>
     </row>
-    <row r="819" spans="22:38">
-      <c r="V819" s="6">
+    <row r="819" spans="2:38">
+      <c r="B819" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C819" s="3">
+        <v>8</v>
+      </c>
+      <c r="D819" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="E819" s="4">
+        <v>42638.625</v>
+      </c>
+      <c r="F819" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G819" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="H819" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="I819" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="J819" s="5">
+        <v>1.75</v>
+      </c>
+      <c r="K819" s="5">
+        <v>3.55</v>
+      </c>
+      <c r="L819" s="5">
+        <v>3.65</v>
+      </c>
+      <c r="M819" s="3">
+        <v>3.45</v>
+      </c>
+      <c r="N819" s="3">
+        <v>3.55</v>
+      </c>
+      <c r="O819" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="P819" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V819" s="6" t="str">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>J联赛</v>
       </c>
       <c r="AE819" s="6">
         <f t="shared" si="110"/>
@@ -89631,10 +90536,55 @@
         <v/>
       </c>
     </row>
-    <row r="820" spans="22:38">
-      <c r="V820" s="6">
+    <row r="820" spans="2:38">
+      <c r="B820" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C820" s="3">
+        <v>9</v>
+      </c>
+      <c r="D820" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E820" s="4">
+        <v>42638.625</v>
+      </c>
+      <c r="F820" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="G820" s="5" t="s">
+        <v>956</v>
+      </c>
+      <c r="H820" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="I820" s="3" t="s">
+        <v>956</v>
+      </c>
+      <c r="J820" s="5">
+        <v>3.4</v>
+      </c>
+      <c r="K820" s="5">
+        <v>3.05</v>
+      </c>
+      <c r="L820" s="5">
+        <v>1.97</v>
+      </c>
+      <c r="M820" s="3">
+        <v>1.61</v>
+      </c>
+      <c r="N820" s="3">
+        <v>3.65</v>
+      </c>
+      <c r="O820" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="P820" s="3">
+        <v>1</v>
+      </c>
+      <c r="V820" s="6" t="str">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>J2联赛</v>
       </c>
       <c r="AE820" s="6">
         <f t="shared" si="110"/>
@@ -89669,10 +90619,55 @@
         <v/>
       </c>
     </row>
-    <row r="821" spans="22:38">
-      <c r="V821" s="6">
+    <row r="821" spans="2:38">
+      <c r="B821" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C821" s="3">
+        <v>10</v>
+      </c>
+      <c r="D821" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E821" s="4">
+        <v>42638.625</v>
+      </c>
+      <c r="F821" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="G821" s="5" t="s">
+        <v>949</v>
+      </c>
+      <c r="H821" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="I821" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="J821" s="5">
+        <v>3.67</v>
+      </c>
+      <c r="K821" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="L821" s="5">
+        <v>1.87</v>
+      </c>
+      <c r="M821" s="3">
+        <v>1.69</v>
+      </c>
+      <c r="N821" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="O821" s="3">
+        <v>3.85</v>
+      </c>
+      <c r="P821" s="3">
+        <v>1</v>
+      </c>
+      <c r="V821" s="6" t="str">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>J2联赛</v>
       </c>
       <c r="AE821" s="6">
         <f t="shared" si="110"/>
@@ -89707,10 +90702,55 @@
         <v/>
       </c>
     </row>
-    <row r="822" spans="22:38">
-      <c r="V822" s="6">
+    <row r="822" spans="2:38">
+      <c r="B822" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C822" s="3">
+        <v>11</v>
+      </c>
+      <c r="D822" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E822" s="4">
+        <v>42638.625</v>
+      </c>
+      <c r="F822" s="5" t="s">
+        <v>958</v>
+      </c>
+      <c r="G822" s="5" t="s">
+        <v>967</v>
+      </c>
+      <c r="H822" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="I822" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="J822" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="K822" s="5">
+        <v>3</v>
+      </c>
+      <c r="L822" s="5">
+        <v>2.65</v>
+      </c>
+      <c r="M822" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="N822" s="3">
+        <v>4.05</v>
+      </c>
+      <c r="O822" s="3">
+        <v>1.41</v>
+      </c>
+      <c r="P822" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V822" s="6" t="str">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>J2联赛</v>
       </c>
       <c r="AE822" s="6">
         <f t="shared" si="110"/>
@@ -89745,10 +90785,55 @@
         <v/>
       </c>
     </row>
-    <row r="823" spans="22:38">
-      <c r="V823" s="6">
+    <row r="823" spans="2:38">
+      <c r="B823" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C823" s="3">
+        <v>12</v>
+      </c>
+      <c r="D823" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E823" s="4">
+        <v>42638.625</v>
+      </c>
+      <c r="F823" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G823" s="5" t="s">
+        <v>952</v>
+      </c>
+      <c r="H823" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I823" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="J823" s="5">
+        <v>2.7</v>
+      </c>
+      <c r="K823" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="L823" s="5">
+        <v>2.29</v>
+      </c>
+      <c r="M823" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="N823" s="3">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="O823" s="3">
+        <v>5.05</v>
+      </c>
+      <c r="P823" s="3">
+        <v>1</v>
+      </c>
+      <c r="V823" s="6" t="str">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>K联赛</v>
       </c>
       <c r="AE823" s="6">
         <f t="shared" si="110"/>
@@ -89783,10 +90868,55 @@
         <v/>
       </c>
     </row>
-    <row r="824" spans="22:38">
-      <c r="V824" s="6">
+    <row r="824" spans="2:38">
+      <c r="B824" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C824" s="3">
+        <v>13</v>
+      </c>
+      <c r="D824" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E824" s="4">
+        <v>42638.625</v>
+      </c>
+      <c r="F824" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="G824" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H824" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="I824" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J824" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="K824" s="5">
+        <v>3</v>
+      </c>
+      <c r="L824" s="5">
+        <v>2.48</v>
+      </c>
+      <c r="M824" s="3">
+        <v>1.38</v>
+      </c>
+      <c r="N824" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="O824" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="P824" s="3">
+        <v>1</v>
+      </c>
+      <c r="V824" s="6" t="str">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>K联赛</v>
       </c>
       <c r="AE824" s="6">
         <f t="shared" si="110"/>
@@ -89821,10 +90951,55 @@
         <v/>
       </c>
     </row>
-    <row r="825" spans="22:38">
-      <c r="V825" s="6">
+    <row r="825" spans="2:38">
+      <c r="B825" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C825" s="3">
+        <v>14</v>
+      </c>
+      <c r="D825" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="E825" s="4">
+        <v>42638.645833333336</v>
+      </c>
+      <c r="F825" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="G825" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="H825" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="I825" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="J825" s="5">
+        <v>3.38</v>
+      </c>
+      <c r="K825" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="L825" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="M825" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="N825" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="O825" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="P825" s="3">
+        <v>1</v>
+      </c>
+      <c r="V825" s="6" t="str">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>J联赛</v>
       </c>
       <c r="AE825" s="6">
         <f t="shared" si="110"/>
@@ -89859,10 +91034,55 @@
         <v/>
       </c>
     </row>
-    <row r="826" spans="22:38">
-      <c r="V826" s="6">
+    <row r="826" spans="2:38">
+      <c r="B826" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C826" s="3">
+        <v>15</v>
+      </c>
+      <c r="D826" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="E826" s="4">
+        <v>42638.666666666664</v>
+      </c>
+      <c r="F826" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="G826" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="H826" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="I826" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="J826" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="K826" s="5">
+        <v>3.02</v>
+      </c>
+      <c r="L826" s="5">
+        <v>2.46</v>
+      </c>
+      <c r="M826" s="3">
+        <v>1.39</v>
+      </c>
+      <c r="N826" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="O826" s="3">
+        <v>6.05</v>
+      </c>
+      <c r="P826" s="3">
+        <v>1</v>
+      </c>
+      <c r="V826" s="6" t="str">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>J联赛</v>
       </c>
       <c r="AE826" s="6">
         <f t="shared" si="110"/>
@@ -89897,10 +91117,55 @@
         <v/>
       </c>
     </row>
-    <row r="827" spans="22:38">
-      <c r="V827" s="6">
+    <row r="827" spans="2:38">
+      <c r="B827" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C827" s="3">
+        <v>16</v>
+      </c>
+      <c r="D827" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E827" s="4">
+        <v>42638.666666666664</v>
+      </c>
+      <c r="F827" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G827" s="5" t="s">
+        <v>947</v>
+      </c>
+      <c r="H827" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I827" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J827" s="5">
+        <v>1.56</v>
+      </c>
+      <c r="K827" s="5">
+        <v>3.45</v>
+      </c>
+      <c r="L827" s="5">
+        <v>5.05</v>
+      </c>
+      <c r="M827" s="3">
+        <v>2.95</v>
+      </c>
+      <c r="N827" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="O827" s="3">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="P827" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V827" s="6" t="str">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>J2联赛</v>
       </c>
       <c r="AE827" s="6">
         <f t="shared" si="110"/>
@@ -89935,10 +91200,55 @@
         <v/>
       </c>
     </row>
-    <row r="828" spans="22:38">
-      <c r="V828" s="6">
+    <row r="828" spans="2:38">
+      <c r="B828" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C828" s="3">
+        <v>17</v>
+      </c>
+      <c r="D828" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E828" s="4">
+        <v>42638.708333333336</v>
+      </c>
+      <c r="F828" s="5" t="s">
+        <v>950</v>
+      </c>
+      <c r="G828" s="5" t="s">
+        <v>963</v>
+      </c>
+      <c r="H828" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="I828" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="J828" s="5">
+        <v>1.56</v>
+      </c>
+      <c r="K828" s="5">
+        <v>3.65</v>
+      </c>
+      <c r="L828" s="5">
+        <v>4.67</v>
+      </c>
+      <c r="M828" s="3">
+        <v>2.87</v>
+      </c>
+      <c r="N828" s="3">
+        <v>3.38</v>
+      </c>
+      <c r="O828" s="3">
+        <v>2.06</v>
+      </c>
+      <c r="P828" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V828" s="6" t="str">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>J2联赛</v>
       </c>
       <c r="AE828" s="6">
         <f t="shared" si="110"/>
@@ -89973,10 +91283,55 @@
         <v/>
       </c>
     </row>
-    <row r="829" spans="22:38">
-      <c r="V829" s="6">
+    <row r="829" spans="2:38">
+      <c r="B829" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C829" s="3">
+        <v>18</v>
+      </c>
+      <c r="D829" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E829" s="4">
+        <v>42638.708333333336</v>
+      </c>
+      <c r="F829" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="G829" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="H829" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="I829" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="J829" s="5">
+        <v>1.97</v>
+      </c>
+      <c r="K829" s="5">
+        <v>2.72</v>
+      </c>
+      <c r="L829" s="5">
+        <v>3.93</v>
+      </c>
+      <c r="M829" s="3">
+        <v>4.58</v>
+      </c>
+      <c r="N829" s="3">
+        <v>3.45</v>
+      </c>
+      <c r="O829" s="3">
+        <v>1.61</v>
+      </c>
+      <c r="P829" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V829" s="6" t="str">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>俄超</v>
       </c>
       <c r="AE829" s="6">
         <f t="shared" si="110"/>
@@ -90011,10 +91366,55 @@
         <v/>
       </c>
     </row>
-    <row r="830" spans="22:38">
-      <c r="V830" s="6">
+    <row r="830" spans="2:38">
+      <c r="B830" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C830" s="3">
+        <v>19</v>
+      </c>
+      <c r="D830" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="E830" s="4">
+        <v>42638.75</v>
+      </c>
+      <c r="F830" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="G830" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="H830" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="I830" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="J830" s="5">
+        <v>1.35</v>
+      </c>
+      <c r="K830" s="5">
+        <v>4.25</v>
+      </c>
+      <c r="L830" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="M830" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N830" s="3">
+        <v>3.45</v>
+      </c>
+      <c r="O830" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="P830" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V830" s="6" t="str">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>J联赛</v>
       </c>
       <c r="AE830" s="6">
         <f t="shared" si="110"/>
@@ -90049,10 +91449,55 @@
         <v/>
       </c>
     </row>
-    <row r="831" spans="22:38">
-      <c r="V831" s="6">
+    <row r="831" spans="2:38">
+      <c r="B831" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C831" s="3">
+        <v>20</v>
+      </c>
+      <c r="D831" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="E831" s="17">
+        <v>42638.75</v>
+      </c>
+      <c r="F831" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="G831" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="H831" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="I831" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="J831" s="5">
+        <v>1.9</v>
+      </c>
+      <c r="K831" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="L831" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="M831" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="N831" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="O831" s="3">
+        <v>1.65</v>
+      </c>
+      <c r="P831" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V831" s="6" t="str">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>J联赛</v>
       </c>
       <c r="AE831" s="6">
         <f t="shared" si="110"/>
@@ -90087,10 +91532,55 @@
         <v/>
       </c>
     </row>
-    <row r="832" spans="22:38">
-      <c r="V832" s="6">
+    <row r="832" spans="2:38">
+      <c r="B832" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C832" s="3">
+        <v>21</v>
+      </c>
+      <c r="D832" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E832" s="4">
+        <v>42638.75</v>
+      </c>
+      <c r="F832" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="G832" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="H832" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="I832" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="J832" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="K832" s="5">
+        <v>2.78</v>
+      </c>
+      <c r="L832" s="5">
+        <v>2.83</v>
+      </c>
+      <c r="M832" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="N832" s="3">
+        <v>3.95</v>
+      </c>
+      <c r="O832" s="3">
+        <v>1.38</v>
+      </c>
+      <c r="P832" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V832" s="6" t="str">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>J2联赛</v>
       </c>
       <c r="AE832" s="6">
         <f t="shared" si="110"/>
@@ -90125,10 +91615,55 @@
         <v/>
       </c>
     </row>
-    <row r="833" spans="22:38">
-      <c r="V833" s="6">
+    <row r="833" spans="2:38">
+      <c r="B833" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C833" s="3">
+        <v>22</v>
+      </c>
+      <c r="D833" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E833" s="4">
+        <v>42638.75</v>
+      </c>
+      <c r="F833" s="5" t="s">
+        <v>957</v>
+      </c>
+      <c r="G833" s="5" t="s">
+        <v>948</v>
+      </c>
+      <c r="H833" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="I833" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="J833" s="5">
+        <v>4.53</v>
+      </c>
+      <c r="K833" s="5">
+        <v>3.35</v>
+      </c>
+      <c r="L833" s="5">
+        <v>1.7</v>
+      </c>
+      <c r="M833" s="3">
+        <v>1.85</v>
+      </c>
+      <c r="N833" s="3">
+        <v>3.35</v>
+      </c>
+      <c r="O833" s="3">
+        <v>3.45</v>
+      </c>
+      <c r="P833" s="3">
+        <v>1</v>
+      </c>
+      <c r="V833" s="6" t="str">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>J2联赛</v>
       </c>
       <c r="AE833" s="6">
         <f t="shared" si="110"/>
@@ -90163,10 +91698,55 @@
         <v/>
       </c>
     </row>
-    <row r="834" spans="22:38">
-      <c r="V834" s="6">
+    <row r="834" spans="2:38">
+      <c r="B834" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C834" s="3">
+        <v>23</v>
+      </c>
+      <c r="D834" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E834" s="4">
+        <v>42638.75</v>
+      </c>
+      <c r="F834" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="G834" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="H834" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="I834" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="J834" s="5">
+        <v>2.83</v>
+      </c>
+      <c r="K834" s="5">
+        <v>3</v>
+      </c>
+      <c r="L834" s="5">
+        <v>2.37</v>
+      </c>
+      <c r="M834" s="3">
+        <v>1.42</v>
+      </c>
+      <c r="N834" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="O834" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="P834" s="3">
+        <v>1</v>
+      </c>
+      <c r="V834" s="6" t="str">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>西甲</v>
       </c>
       <c r="AE834" s="6">
         <f t="shared" si="110"/>
@@ -90201,10 +91781,55 @@
         <v/>
       </c>
     </row>
-    <row r="835" spans="22:38">
-      <c r="V835" s="6">
+    <row r="835" spans="2:38">
+      <c r="B835" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C835" s="3">
+        <v>24</v>
+      </c>
+      <c r="D835" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E835" s="17">
+        <v>42638.770833333336</v>
+      </c>
+      <c r="F835" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G835" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="H835" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="I835" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="J835" s="5">
+        <v>3.25</v>
+      </c>
+      <c r="K835" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="L835" s="5">
+        <v>1.98</v>
+      </c>
+      <c r="M835" s="3">
+        <v>1.63</v>
+      </c>
+      <c r="N835" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="O835" s="3">
+        <v>3.85</v>
+      </c>
+      <c r="P835" s="3">
+        <v>1</v>
+      </c>
+      <c r="V835" s="6" t="str">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>意甲</v>
       </c>
       <c r="AE835" s="6">
         <f t="shared" si="110"/>
@@ -90239,10 +91864,55 @@
         <v/>
       </c>
     </row>
-    <row r="836" spans="22:38">
-      <c r="V836" s="6">
+    <row r="836" spans="2:38">
+      <c r="B836" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C836" s="3">
+        <v>25</v>
+      </c>
+      <c r="D836" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E836" s="4">
+        <v>42638.770833333336</v>
+      </c>
+      <c r="F836" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G836" s="5" t="s">
+        <v>908</v>
+      </c>
+      <c r="H836" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I836" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="J836" s="5">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="K836" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="L836" s="5">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="M836" s="3">
+        <v>5.75</v>
+      </c>
+      <c r="N836" s="3">
+        <v>4.25</v>
+      </c>
+      <c r="O836" s="3">
+        <v>1.39</v>
+      </c>
+      <c r="P836" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V836" s="6" t="str">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>荷甲</v>
       </c>
       <c r="AE836" s="6">
         <f t="shared" si="110"/>
@@ -90277,10 +91947,55 @@
         <v/>
       </c>
     </row>
-    <row r="837" spans="22:38">
-      <c r="V837" s="6">
+    <row r="837" spans="2:38">
+      <c r="B837" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C837" s="3">
+        <v>26</v>
+      </c>
+      <c r="D837" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E837" s="4">
+        <v>42638.8125</v>
+      </c>
+      <c r="F837" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G837" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H837" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I837" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J837" s="5">
+        <v>2.11</v>
+      </c>
+      <c r="K837" s="5">
+        <v>3.25</v>
+      </c>
+      <c r="L837" s="5">
+        <v>2.88</v>
+      </c>
+      <c r="M837" s="3">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="N837" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="O837" s="3">
+        <v>1.53</v>
+      </c>
+      <c r="P837" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V837" s="6" t="str">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>德乙</v>
       </c>
       <c r="AE837" s="6">
         <f t="shared" si="110"/>
@@ -90315,10 +92030,55 @@
         <v/>
       </c>
     </row>
-    <row r="838" spans="22:38">
-      <c r="V838" s="6">
+    <row r="838" spans="2:38">
+      <c r="B838" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C838" s="3">
+        <v>27</v>
+      </c>
+      <c r="D838" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E838" s="4">
+        <v>42638.8125</v>
+      </c>
+      <c r="F838" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G838" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="H838" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I838" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="J838" s="5">
+        <v>2.17</v>
+      </c>
+      <c r="K838" s="5">
+        <v>2.95</v>
+      </c>
+      <c r="L838" s="5">
+        <v>3</v>
+      </c>
+      <c r="M838" s="3">
+        <v>4.55</v>
+      </c>
+      <c r="N838" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="O838" s="3">
+        <v>1.53</v>
+      </c>
+      <c r="P838" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V838" s="6" t="str">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>德乙</v>
       </c>
       <c r="AE838" s="6">
         <f t="shared" si="110"/>
@@ -90353,10 +92113,55 @@
         <v/>
       </c>
     </row>
-    <row r="839" spans="22:38">
-      <c r="V839" s="6">
+    <row r="839" spans="2:38">
+      <c r="B839" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C839" s="3">
+        <v>28</v>
+      </c>
+      <c r="D839" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E839" s="4">
+        <v>42638.8125</v>
+      </c>
+      <c r="F839" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="G839" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="H839" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="I839" s="3" t="s">
+        <v>980</v>
+      </c>
+      <c r="J839" s="5">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="K839" s="5">
+        <v>3.25</v>
+      </c>
+      <c r="L839" s="5">
+        <v>2.52</v>
+      </c>
+      <c r="M839" s="3">
+        <v>1.42</v>
+      </c>
+      <c r="N839" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="O839" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="P839" s="3">
+        <v>1</v>
+      </c>
+      <c r="V839" s="6" t="str">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>德乙</v>
       </c>
       <c r="AE839" s="6">
         <f t="shared" si="110"/>
@@ -90391,10 +92196,55 @@
         <v/>
       </c>
     </row>
-    <row r="840" spans="22:38">
-      <c r="V840" s="6">
+    <row r="840" spans="2:38">
+      <c r="B840" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C840" s="3">
+        <v>29</v>
+      </c>
+      <c r="D840" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E840" s="4">
+        <v>42638.8125</v>
+      </c>
+      <c r="F840" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G840" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H840" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I840" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="J840" s="5">
+        <v>2.82</v>
+      </c>
+      <c r="K840" s="5">
+        <v>2.85</v>
+      </c>
+      <c r="L840" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="M840" s="3">
+        <v>1.41</v>
+      </c>
+      <c r="N840" s="3">
+        <v>3.95</v>
+      </c>
+      <c r="O840" s="3">
+        <v>6</v>
+      </c>
+      <c r="P840" s="3">
+        <v>1</v>
+      </c>
+      <c r="V840" s="6" t="str">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>俄超</v>
       </c>
       <c r="AE840" s="6">
         <f t="shared" si="110"/>
@@ -90429,10 +92279,55 @@
         <v/>
       </c>
     </row>
-    <row r="841" spans="22:38">
-      <c r="V841" s="6">
+    <row r="841" spans="2:38">
+      <c r="B841" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C841" s="3">
+        <v>30</v>
+      </c>
+      <c r="D841" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E841" s="4">
+        <v>42638.833333333336</v>
+      </c>
+      <c r="F841" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="G841" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="H841" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="I841" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="J841" s="5">
+        <v>2.7</v>
+      </c>
+      <c r="K841" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="L841" s="5">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="M841" s="3">
+        <v>1.47</v>
+      </c>
+      <c r="N841" s="3">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="O841" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="P841" s="3">
+        <v>1</v>
+      </c>
+      <c r="V841" s="6" t="str">
         <f t="shared" ref="V841:V889" si="118">D841</f>
-        <v>0</v>
+        <v>苏超</v>
       </c>
       <c r="AE841" s="6">
         <f t="shared" si="110"/>
@@ -90467,10 +92362,55 @@
         <v/>
       </c>
     </row>
-    <row r="842" spans="22:38">
-      <c r="V842" s="6">
+    <row r="842" spans="2:38">
+      <c r="B842" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C842" s="3">
+        <v>31</v>
+      </c>
+      <c r="D842" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E842" s="4">
+        <v>42638.854166666664</v>
+      </c>
+      <c r="F842" s="5" t="s">
+        <v>887</v>
+      </c>
+      <c r="G842" s="5" t="s">
+        <v>891</v>
+      </c>
+      <c r="H842" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="I842" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="J842" s="5">
+        <v>3.4</v>
+      </c>
+      <c r="K842" s="5">
+        <v>3.55</v>
+      </c>
+      <c r="L842" s="5">
+        <v>1.81</v>
+      </c>
+      <c r="M842" s="3">
+        <v>1.74</v>
+      </c>
+      <c r="N842" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="O842" s="3">
+        <v>3.43</v>
+      </c>
+      <c r="P842" s="3">
+        <v>1</v>
+      </c>
+      <c r="V842" s="6" t="str">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>荷甲</v>
       </c>
       <c r="AE842" s="6">
         <f t="shared" si="110"/>
@@ -90505,10 +92445,55 @@
         <v/>
       </c>
     </row>
-    <row r="843" spans="22:38">
-      <c r="V843" s="6">
+    <row r="843" spans="2:38">
+      <c r="B843" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C843" s="3">
+        <v>32</v>
+      </c>
+      <c r="D843" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E843" s="4">
+        <v>42638.854166666664</v>
+      </c>
+      <c r="F843" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="G843" s="5" t="s">
+        <v>975</v>
+      </c>
+      <c r="H843" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="I843" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="J843" s="5">
+        <v>1.65</v>
+      </c>
+      <c r="K843" s="5">
+        <v>3.77</v>
+      </c>
+      <c r="L843" s="5">
+        <v>3.87</v>
+      </c>
+      <c r="M843" s="3">
+        <v>2.96</v>
+      </c>
+      <c r="N843" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="O843" s="3">
+        <v>1.92</v>
+      </c>
+      <c r="P843" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V843" s="6" t="str">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>荷甲</v>
       </c>
       <c r="AE843" s="6">
         <f t="shared" ref="AE843:AE889" si="119">IF(AND(AB843=$AB$4,AC843=$AC$4),IF(W843=$W$4,1,0)+IF(X843=$X$4,1,0)+IF(Y843=$Y$4,1,0),0)</f>
@@ -90543,10 +92528,55 @@
         <v/>
       </c>
     </row>
-    <row r="844" spans="22:38">
-      <c r="V844" s="6">
+    <row r="844" spans="2:38">
+      <c r="B844" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C844" s="3">
+        <v>33</v>
+      </c>
+      <c r="D844" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E844" s="4">
+        <v>42638.854166666664</v>
+      </c>
+      <c r="F844" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G844" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="H844" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I844" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="J844" s="5">
+        <v>1.37</v>
+      </c>
+      <c r="K844" s="5">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="L844" s="5">
+        <v>6.3</v>
+      </c>
+      <c r="M844" s="3">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="N844" s="3">
+        <v>3.45</v>
+      </c>
+      <c r="O844" s="3">
+        <v>2.52</v>
+      </c>
+      <c r="P844" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V844" s="6" t="str">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>比甲</v>
       </c>
       <c r="AE844" s="6">
         <f t="shared" si="119"/>
@@ -90581,10 +92611,55 @@
         <v/>
       </c>
     </row>
-    <row r="845" spans="22:38">
-      <c r="V845" s="6">
+    <row r="845" spans="2:38">
+      <c r="B845" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C845" s="3">
+        <v>34</v>
+      </c>
+      <c r="D845" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E845" s="4">
+        <v>42638.875</v>
+      </c>
+      <c r="F845" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="G845" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="H845" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="I845" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="J845" s="5">
+        <v>1.54</v>
+      </c>
+      <c r="K845" s="5">
+        <v>3.7</v>
+      </c>
+      <c r="L845" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="M845" s="3">
+        <v>2.75</v>
+      </c>
+      <c r="N845" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="O845" s="3">
+        <v>2.09</v>
+      </c>
+      <c r="P845" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V845" s="6" t="str">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>意甲</v>
       </c>
       <c r="AE845" s="6">
         <f t="shared" si="119"/>
@@ -90619,10 +92694,55 @@
         <v/>
       </c>
     </row>
-    <row r="846" spans="22:38">
-      <c r="V846" s="6">
+    <row r="846" spans="2:38">
+      <c r="B846" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C846" s="3">
+        <v>35</v>
+      </c>
+      <c r="D846" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E846" s="17">
+        <v>42638.875</v>
+      </c>
+      <c r="F846" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G846" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="H846" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I846" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="J846" s="5">
+        <v>1.37</v>
+      </c>
+      <c r="K846" s="5">
+        <v>3.9</v>
+      </c>
+      <c r="L846" s="5">
+        <v>7</v>
+      </c>
+      <c r="M846" s="3">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="N846" s="3">
+        <v>3.35</v>
+      </c>
+      <c r="O846" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="P846" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V846" s="6" t="str">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>意甲</v>
       </c>
       <c r="AE846" s="6">
         <f t="shared" si="119"/>
@@ -90657,10 +92777,55 @@
         <v/>
       </c>
     </row>
-    <row r="847" spans="22:38">
-      <c r="V847" s="6">
+    <row r="847" spans="2:38">
+      <c r="B847" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C847" s="3">
+        <v>36</v>
+      </c>
+      <c r="D847" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E847" s="4">
+        <v>42638.875</v>
+      </c>
+      <c r="F847" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="G847" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="H847" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="I847" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="J847" s="5">
+        <v>1.33</v>
+      </c>
+      <c r="K847" s="5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L847" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="M847" s="3">
+        <v>2.17</v>
+      </c>
+      <c r="N847" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="O847" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="P847" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V847" s="6" t="str">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>意甲</v>
       </c>
       <c r="AE847" s="6">
         <f t="shared" si="119"/>
@@ -90695,10 +92860,55 @@
         <v/>
       </c>
     </row>
-    <row r="848" spans="22:38">
-      <c r="V848" s="6">
+    <row r="848" spans="2:38">
+      <c r="B848" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C848" s="3">
+        <v>37</v>
+      </c>
+      <c r="D848" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E848" s="4">
+        <v>42638.875</v>
+      </c>
+      <c r="F848" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G848" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="H848" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="I848" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="J848" s="5">
+        <v>1.83</v>
+      </c>
+      <c r="K848" s="5">
+        <v>3.22</v>
+      </c>
+      <c r="L848" s="5">
+        <v>3.68</v>
+      </c>
+      <c r="M848" s="3">
+        <v>3.65</v>
+      </c>
+      <c r="N848" s="3">
+        <v>3.65</v>
+      </c>
+      <c r="O848" s="3">
+        <v>1.72</v>
+      </c>
+      <c r="P848" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V848" s="6" t="str">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>意甲</v>
       </c>
       <c r="AE848" s="6">
         <f t="shared" si="119"/>
@@ -90733,10 +92943,55 @@
         <v/>
       </c>
     </row>
-    <row r="849" spans="22:38">
-      <c r="V849" s="6">
+    <row r="849" spans="2:38">
+      <c r="B849" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C849" s="3">
+        <v>38</v>
+      </c>
+      <c r="D849" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E849" s="4">
+        <v>42638.875</v>
+      </c>
+      <c r="F849" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G849" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H849" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="I849" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="J849" s="5">
+        <v>2.15</v>
+      </c>
+      <c r="K849" s="5">
+        <v>2.76</v>
+      </c>
+      <c r="L849" s="5">
+        <v>3.32</v>
+      </c>
+      <c r="M849" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="N849" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="O849" s="3">
+        <v>1.51</v>
+      </c>
+      <c r="P849" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V849" s="6" t="str">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>法甲</v>
       </c>
       <c r="AE849" s="6">
         <f t="shared" si="119"/>
@@ -90771,10 +93026,55 @@
         <v/>
       </c>
     </row>
-    <row r="850" spans="22:38">
-      <c r="V850" s="6">
+    <row r="850" spans="2:38">
+      <c r="B850" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C850" s="3">
+        <v>39</v>
+      </c>
+      <c r="D850" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E850" s="4">
+        <v>42638.875</v>
+      </c>
+      <c r="F850" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G850" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H850" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I850" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J850" s="5">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="K850" s="5">
+        <v>3.4</v>
+      </c>
+      <c r="L850" s="5">
+        <v>2.6</v>
+      </c>
+      <c r="M850" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="N850" s="3">
+        <v>4.25</v>
+      </c>
+      <c r="O850" s="3">
+        <v>1.48</v>
+      </c>
+      <c r="P850" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V850" s="6" t="str">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>瑞典超</v>
       </c>
       <c r="AE850" s="6">
         <f t="shared" si="119"/>
@@ -90809,10 +93109,55 @@
         <v/>
       </c>
     </row>
-    <row r="851" spans="22:38">
-      <c r="V851" s="6">
+    <row r="851" spans="2:38">
+      <c r="B851" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C851" s="3">
+        <v>40</v>
+      </c>
+      <c r="D851" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E851" s="4">
+        <v>42638.895833333336</v>
+      </c>
+      <c r="F851" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G851" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="H851" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I851" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="J851" s="5">
+        <v>2.68</v>
+      </c>
+      <c r="K851" s="5">
+        <v>3.45</v>
+      </c>
+      <c r="L851" s="5">
+        <v>2.15</v>
+      </c>
+      <c r="M851" s="3">
+        <v>1.51</v>
+      </c>
+      <c r="N851" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="O851" s="3">
+        <v>4.28</v>
+      </c>
+      <c r="P851" s="3">
+        <v>1</v>
+      </c>
+      <c r="V851" s="6" t="str">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>德甲</v>
       </c>
       <c r="AE851" s="6">
         <f t="shared" si="119"/>
@@ -90847,10 +93192,55 @@
         <v/>
       </c>
     </row>
-    <row r="852" spans="22:38">
-      <c r="V852" s="6">
+    <row r="852" spans="2:38">
+      <c r="B852" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C852" s="3">
+        <v>41</v>
+      </c>
+      <c r="D852" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E852" s="4">
+        <v>42638.895833333336</v>
+      </c>
+      <c r="F852" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G852" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H852" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="I852" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J852" s="5">
+        <v>2</v>
+      </c>
+      <c r="K852" s="5">
+        <v>3.35</v>
+      </c>
+      <c r="L852" s="5">
+        <v>3.02</v>
+      </c>
+      <c r="M852" s="3">
+        <v>4.05</v>
+      </c>
+      <c r="N852" s="3">
+        <v>3.95</v>
+      </c>
+      <c r="O852" s="3">
+        <v>1.59</v>
+      </c>
+      <c r="P852" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V852" s="6" t="str">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>挪超</v>
       </c>
       <c r="AE852" s="6">
         <f t="shared" si="119"/>
@@ -90885,10 +93275,55 @@
         <v/>
       </c>
     </row>
-    <row r="853" spans="22:38">
-      <c r="V853" s="6">
+    <row r="853" spans="2:38">
+      <c r="B853" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C853" s="3">
+        <v>42</v>
+      </c>
+      <c r="D853" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E853" s="4">
+        <v>42638.916666666664</v>
+      </c>
+      <c r="F853" s="5" t="s">
+        <v>873</v>
+      </c>
+      <c r="G853" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="H853" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="I853" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="J853" s="5">
+        <v>2.85</v>
+      </c>
+      <c r="K853" s="5">
+        <v>3.15</v>
+      </c>
+      <c r="L853" s="5">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="M853" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="N853" s="3">
+        <v>3.95</v>
+      </c>
+      <c r="O853" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="P853" s="3">
+        <v>1</v>
+      </c>
+      <c r="V853" s="6" t="str">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>苏超</v>
       </c>
       <c r="AE853" s="6">
         <f t="shared" si="119"/>
@@ -90923,10 +93358,55 @@
         <v/>
       </c>
     </row>
-    <row r="854" spans="22:38">
-      <c r="V854" s="6">
+    <row r="854" spans="2:38">
+      <c r="B854" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C854" s="3">
+        <v>43</v>
+      </c>
+      <c r="D854" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E854" s="4">
+        <v>42638.916666666664</v>
+      </c>
+      <c r="F854" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G854" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="H854" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="I854" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="J854" s="5">
+        <v>1.23</v>
+      </c>
+      <c r="K854" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L854" s="5">
+        <v>11.25</v>
+      </c>
+      <c r="M854" s="3">
+        <v>1.93</v>
+      </c>
+      <c r="N854" s="3">
+        <v>3.35</v>
+      </c>
+      <c r="O854" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="P854" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V854" s="6" t="str">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>俄超</v>
       </c>
       <c r="AE854" s="6">
         <f t="shared" si="119"/>
@@ -90961,10 +93441,55 @@
         <v/>
       </c>
     </row>
-    <row r="855" spans="22:38">
-      <c r="V855" s="6">
+    <row r="855" spans="2:38">
+      <c r="B855" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C855" s="3">
+        <v>44</v>
+      </c>
+      <c r="D855" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E855" s="4">
+        <v>42638.916666666664</v>
+      </c>
+      <c r="F855" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="G855" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="H855" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="I855" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="J855" s="5">
+        <v>2.16</v>
+      </c>
+      <c r="K855" s="5">
+        <v>2.85</v>
+      </c>
+      <c r="L855" s="5">
+        <v>3.18</v>
+      </c>
+      <c r="M855" s="3">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="N855" s="3">
+        <v>3.85</v>
+      </c>
+      <c r="O855" s="3">
+        <v>1.51</v>
+      </c>
+      <c r="P855" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V855" s="6" t="str">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>巴西甲</v>
       </c>
       <c r="AE855" s="6">
         <f t="shared" si="119"/>
@@ -90999,10 +93524,55 @@
         <v/>
       </c>
     </row>
-    <row r="856" spans="22:38">
-      <c r="V856" s="6">
+    <row r="856" spans="2:38">
+      <c r="B856" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C856" s="3">
+        <v>45</v>
+      </c>
+      <c r="D856" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E856" s="4">
+        <v>42638.916666666664</v>
+      </c>
+      <c r="F856" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G856" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="H856" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I856" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J856" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K856" s="5">
+        <v>2.88</v>
+      </c>
+      <c r="L856" s="5">
+        <v>3.05</v>
+      </c>
+      <c r="M856" s="3">
+        <v>5.05</v>
+      </c>
+      <c r="N856" s="3">
+        <v>3.85</v>
+      </c>
+      <c r="O856" s="3">
+        <v>1.49</v>
+      </c>
+      <c r="P856" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V856" s="6" t="str">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>巴西甲</v>
       </c>
       <c r="AE856" s="6">
         <f t="shared" si="119"/>
@@ -91037,10 +93607,55 @@
         <v/>
       </c>
     </row>
-    <row r="857" spans="22:38">
-      <c r="V857" s="6">
+    <row r="857" spans="2:38">
+      <c r="B857" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C857" s="3">
+        <v>46</v>
+      </c>
+      <c r="D857" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E857" s="4">
+        <v>42638.927083333336</v>
+      </c>
+      <c r="F857" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="G857" s="5" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H857" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="I857" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="J857" s="5">
+        <v>1.08</v>
+      </c>
+      <c r="K857" s="5">
+        <v>6.45</v>
+      </c>
+      <c r="L857" s="5">
+        <v>21</v>
+      </c>
+      <c r="M857" s="3">
+        <v>1.48</v>
+      </c>
+      <c r="N857" s="3">
+        <v>4</v>
+      </c>
+      <c r="O857" s="3">
+        <v>4.95</v>
+      </c>
+      <c r="P857" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V857" s="6" t="str">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>西甲</v>
       </c>
       <c r="AE857" s="6">
         <f t="shared" si="119"/>
@@ -91075,10 +93690,55 @@
         <v/>
       </c>
     </row>
-    <row r="858" spans="22:38">
-      <c r="V858" s="6">
+    <row r="858" spans="2:38">
+      <c r="B858" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C858" s="3">
+        <v>47</v>
+      </c>
+      <c r="D858" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E858" s="4">
+        <v>42638.947916666664</v>
+      </c>
+      <c r="F858" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="G858" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="H858" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="I858" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="J858" s="5">
+        <v>1.06</v>
+      </c>
+      <c r="K858" s="5">
+        <v>7.65</v>
+      </c>
+      <c r="L858" s="5">
+        <v>18</v>
+      </c>
+      <c r="M858" s="3">
+        <v>1.38</v>
+      </c>
+      <c r="N858" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="O858" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="P858" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V858" s="6" t="str">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>荷甲</v>
       </c>
       <c r="AE858" s="6">
         <f t="shared" si="119"/>
@@ -91113,10 +93773,55 @@
         <v/>
       </c>
     </row>
-    <row r="859" spans="22:38">
-      <c r="V859" s="6">
+    <row r="859" spans="2:38">
+      <c r="B859" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C859" s="3">
+        <v>48</v>
+      </c>
+      <c r="D859" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E859" s="17">
+        <v>42638.958333333336</v>
+      </c>
+      <c r="F859" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G859" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="H859" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I859" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="J859" s="5">
+        <v>2.9</v>
+      </c>
+      <c r="K859" s="5">
+        <v>3</v>
+      </c>
+      <c r="L859" s="5">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="M859" s="3">
+        <v>1.48</v>
+      </c>
+      <c r="N859" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="O859" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="P859" s="3">
+        <v>1</v>
+      </c>
+      <c r="V859" s="6" t="str">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>英超</v>
       </c>
       <c r="AE859" s="6">
         <f t="shared" si="119"/>
@@ -91151,10 +93856,55 @@
         <v/>
       </c>
     </row>
-    <row r="860" spans="22:38">
-      <c r="V860" s="6">
+    <row r="860" spans="2:38">
+      <c r="B860" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C860" s="3">
+        <v>49</v>
+      </c>
+      <c r="D860" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E860" s="4">
+        <v>42638.958333333336</v>
+      </c>
+      <c r="F860" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="G860" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="H860" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="I860" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="J860" s="5">
+        <v>2.39</v>
+      </c>
+      <c r="K860" s="5">
+        <v>2.88</v>
+      </c>
+      <c r="L860" s="5">
+        <v>2.75</v>
+      </c>
+      <c r="M860" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="N860" s="3">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="O860" s="3">
+        <v>1.41</v>
+      </c>
+      <c r="P860" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V860" s="6" t="str">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>法甲</v>
       </c>
       <c r="AE860" s="6">
         <f t="shared" si="119"/>
@@ -91189,10 +93939,55 @@
         <v/>
       </c>
     </row>
-    <row r="861" spans="22:38">
-      <c r="V861" s="6">
+    <row r="861" spans="2:38">
+      <c r="B861" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C861" s="3">
+        <v>50</v>
+      </c>
+      <c r="D861" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E861" s="4">
+        <v>42638.958333333336</v>
+      </c>
+      <c r="F861" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G861" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="H861" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I861" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="J861" s="5">
+        <v>1.88</v>
+      </c>
+      <c r="K861" s="5">
+        <v>3</v>
+      </c>
+      <c r="L861" s="5">
+        <v>3.8</v>
+      </c>
+      <c r="M861" s="3">
+        <v>3.98</v>
+      </c>
+      <c r="N861" s="3">
+        <v>3.55</v>
+      </c>
+      <c r="O861" s="3">
+        <v>1.68</v>
+      </c>
+      <c r="P861" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V861" s="6" t="str">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>葡超</v>
       </c>
       <c r="AE861" s="6">
         <f t="shared" si="119"/>
@@ -91227,10 +94022,55 @@
         <v/>
       </c>
     </row>
-    <row r="862" spans="22:38">
-      <c r="V862" s="6">
+    <row r="862" spans="2:38">
+      <c r="B862" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C862" s="3">
+        <v>51</v>
+      </c>
+      <c r="D862" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E862" s="4">
+        <v>42638.958333333336</v>
+      </c>
+      <c r="F862" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="G862" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="H862" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="I862" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="J862" s="5">
+        <v>3.45</v>
+      </c>
+      <c r="K862" s="5">
+        <v>3.7</v>
+      </c>
+      <c r="L862" s="5">
+        <v>1.76</v>
+      </c>
+      <c r="M862" s="3">
+        <v>1.79</v>
+      </c>
+      <c r="N862" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="O862" s="3">
+        <v>3.25</v>
+      </c>
+      <c r="P862" s="3">
+        <v>1</v>
+      </c>
+      <c r="V862" s="6" t="str">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>智利甲</v>
       </c>
       <c r="AE862" s="6">
         <f t="shared" si="119"/>
@@ -91265,10 +94105,55 @@
         <v/>
       </c>
     </row>
-    <row r="863" spans="22:38">
-      <c r="V863" s="6">
+    <row r="863" spans="2:38">
+      <c r="B863" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C863" s="3">
+        <v>53</v>
+      </c>
+      <c r="D863" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E863" s="4">
+        <v>42638.979166666664</v>
+      </c>
+      <c r="F863" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G863" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="H863" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="I863" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J863" s="5">
+        <v>1.19</v>
+      </c>
+      <c r="K863" s="5">
+        <v>5.45</v>
+      </c>
+      <c r="L863" s="5">
+        <v>9.5</v>
+      </c>
+      <c r="M863" s="3">
+        <v>1.71</v>
+      </c>
+      <c r="N863" s="3">
+        <v>3.85</v>
+      </c>
+      <c r="O863" s="3">
+        <v>3.51</v>
+      </c>
+      <c r="P863" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V863" s="6" t="str">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>瑞典超</v>
       </c>
       <c r="AE863" s="6">
         <f t="shared" si="119"/>
@@ -91303,10 +94188,55 @@
         <v/>
       </c>
     </row>
-    <row r="864" spans="22:38">
-      <c r="V864" s="6">
+    <row r="864" spans="2:38">
+      <c r="B864" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C864" s="3">
+        <v>52</v>
+      </c>
+      <c r="D864" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E864" s="4">
+        <v>42638.989583333336</v>
+      </c>
+      <c r="F864" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="G864" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="H864" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="I864" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J864" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="K864" s="5">
+        <v>3.18</v>
+      </c>
+      <c r="L864" s="5">
+        <v>2.95</v>
+      </c>
+      <c r="M864" s="3">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="N864" s="3">
+        <v>4</v>
+      </c>
+      <c r="O864" s="3">
+        <v>1.54</v>
+      </c>
+      <c r="P864" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V864" s="6" t="str">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>德甲</v>
       </c>
       <c r="AE864" s="6">
         <f t="shared" si="119"/>
@@ -91341,10 +94271,55 @@
         <v/>
       </c>
     </row>
-    <row r="865" spans="22:38">
-      <c r="V865" s="6">
+    <row r="865" spans="2:38">
+      <c r="B865" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C865" s="3">
+        <v>54</v>
+      </c>
+      <c r="D865" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E865" s="4">
+        <v>42639</v>
+      </c>
+      <c r="F865" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G865" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="H865" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I865" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="J865" s="5">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="K865" s="5">
+        <v>3.8</v>
+      </c>
+      <c r="L865" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="M865" s="3">
+        <v>1.99</v>
+      </c>
+      <c r="N865" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="O865" s="3">
+        <v>2.86</v>
+      </c>
+      <c r="P865" s="3">
+        <v>1</v>
+      </c>
+      <c r="V865" s="6" t="str">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>挪超</v>
       </c>
       <c r="AE865" s="6">
         <f t="shared" si="119"/>
@@ -91379,10 +94354,55 @@
         <v/>
       </c>
     </row>
-    <row r="866" spans="22:38">
-      <c r="V866" s="6">
+    <row r="866" spans="2:38">
+      <c r="B866" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C866" s="3">
+        <v>55</v>
+      </c>
+      <c r="D866" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E866" s="4">
+        <v>42639</v>
+      </c>
+      <c r="F866" s="5" t="s">
+        <v>998</v>
+      </c>
+      <c r="G866" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="H866" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="I866" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="J866" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K866" s="5">
+        <v>3.4</v>
+      </c>
+      <c r="L866" s="5">
+        <v>2.63</v>
+      </c>
+      <c r="M866" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="N866" s="3">
+        <v>4.25</v>
+      </c>
+      <c r="O866" s="3">
+        <v>1.49</v>
+      </c>
+      <c r="P866" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V866" s="6" t="str">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>挪超</v>
       </c>
       <c r="AE866" s="6">
         <f t="shared" si="119"/>
@@ -91417,10 +94437,55 @@
         <v/>
       </c>
     </row>
-    <row r="867" spans="22:38">
-      <c r="V867" s="6">
+    <row r="867" spans="2:38">
+      <c r="B867" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C867" s="3">
+        <v>56</v>
+      </c>
+      <c r="D867" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E867" s="4">
+        <v>42639</v>
+      </c>
+      <c r="F867" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="G867" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="H867" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="I867" s="3" t="s">
+        <v>997</v>
+      </c>
+      <c r="J867" s="5">
+        <v>1.42</v>
+      </c>
+      <c r="K867" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="L867" s="5">
+        <v>5.2</v>
+      </c>
+      <c r="M867" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N867" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="O867" s="3">
+        <v>2.36</v>
+      </c>
+      <c r="P867" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V867" s="6" t="str">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>挪超</v>
       </c>
       <c r="AE867" s="6">
         <f t="shared" si="119"/>
@@ -91455,10 +94520,55 @@
         <v/>
       </c>
     </row>
-    <row r="868" spans="22:38">
-      <c r="V868" s="6">
+    <row r="868" spans="2:38">
+      <c r="B868" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C868" s="3">
+        <v>57</v>
+      </c>
+      <c r="D868" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E868" s="4">
+        <v>42639</v>
+      </c>
+      <c r="F868" s="5" t="s">
+        <v>906</v>
+      </c>
+      <c r="G868" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="H868" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="I868" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="J868" s="5">
+        <v>2.52</v>
+      </c>
+      <c r="K868" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="L868" s="5">
+        <v>2.38</v>
+      </c>
+      <c r="M868" s="3">
+        <v>5.75</v>
+      </c>
+      <c r="N868" s="3">
+        <v>4.45</v>
+      </c>
+      <c r="O868" s="3">
+        <v>1.37</v>
+      </c>
+      <c r="P868" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V868" s="6" t="str">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>比甲</v>
       </c>
       <c r="AE868" s="6">
         <f t="shared" si="119"/>
@@ -91493,10 +94603,55 @@
         <v/>
       </c>
     </row>
-    <row r="869" spans="22:38">
-      <c r="V869" s="6">
+    <row r="869" spans="2:38">
+      <c r="B869" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C869" s="3">
+        <v>58</v>
+      </c>
+      <c r="D869" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E869" s="4">
+        <v>42639.020833333336</v>
+      </c>
+      <c r="F869" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="G869" s="5" t="s">
+        <v>970</v>
+      </c>
+      <c r="H869" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="I869" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="J869" s="5">
+        <v>1.21</v>
+      </c>
+      <c r="K869" s="5">
+        <v>4.75</v>
+      </c>
+      <c r="L869" s="5">
+        <v>11</v>
+      </c>
+      <c r="M869" s="3">
+        <v>1.87</v>
+      </c>
+      <c r="N869" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="O869" s="3">
+        <v>3.35</v>
+      </c>
+      <c r="P869" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V869" s="6" t="str">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>西甲</v>
       </c>
       <c r="AE869" s="6">
         <f t="shared" si="119"/>
@@ -91531,10 +94686,55 @@
         <v/>
       </c>
     </row>
-    <row r="870" spans="22:38">
-      <c r="V870" s="6">
+    <row r="870" spans="2:38">
+      <c r="B870" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C870" s="3">
+        <v>59</v>
+      </c>
+      <c r="D870" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E870" s="4">
+        <v>42639.020833333336</v>
+      </c>
+      <c r="F870" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="G870" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="H870" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="I870" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="J870" s="5">
+        <v>8.6</v>
+      </c>
+      <c r="K870" s="5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L870" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="M870" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="N870" s="3">
+        <v>3.45</v>
+      </c>
+      <c r="O870" s="3">
+        <v>2.08</v>
+      </c>
+      <c r="P870" s="3">
+        <v>1</v>
+      </c>
+      <c r="V870" s="6" t="str">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>俄超</v>
       </c>
       <c r="AE870" s="6">
         <f t="shared" si="119"/>
@@ -91569,10 +94769,55 @@
         <v/>
       </c>
     </row>
-    <row r="871" spans="22:38">
-      <c r="V871" s="6">
+    <row r="871" spans="2:38">
+      <c r="B871" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C871" s="3">
+        <v>60</v>
+      </c>
+      <c r="D871" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E871" s="4">
+        <v>42639.041666666664</v>
+      </c>
+      <c r="F871" s="5" t="s">
+        <v>888</v>
+      </c>
+      <c r="G871" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="H871" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="I871" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="J871" s="5">
+        <v>2.73</v>
+      </c>
+      <c r="K871" s="5">
+        <v>2.88</v>
+      </c>
+      <c r="L871" s="5">
+        <v>2.41</v>
+      </c>
+      <c r="M871" s="3">
+        <v>6.93</v>
+      </c>
+      <c r="N871" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="O871" s="3">
+        <v>1.31</v>
+      </c>
+      <c r="P871" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V871" s="6" t="str">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>葡超</v>
       </c>
       <c r="AE871" s="6">
         <f t="shared" si="119"/>
@@ -91607,10 +94852,55 @@
         <v/>
       </c>
     </row>
-    <row r="872" spans="22:38">
-      <c r="V872" s="6">
+    <row r="872" spans="2:38">
+      <c r="B872" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C872" s="3">
+        <v>61</v>
+      </c>
+      <c r="D872" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E872" s="4">
+        <v>42639.041666666664</v>
+      </c>
+      <c r="F872" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G872" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="H872" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="I872" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="J872" s="5">
+        <v>1.33</v>
+      </c>
+      <c r="K872" s="5">
+        <v>3.65</v>
+      </c>
+      <c r="L872" s="5">
+        <v>9.75</v>
+      </c>
+      <c r="M872" s="3">
+        <v>2.29</v>
+      </c>
+      <c r="N872" s="3">
+        <v>3.15</v>
+      </c>
+      <c r="O872" s="3">
+        <v>2.67</v>
+      </c>
+      <c r="P872" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V872" s="6" t="str">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>阿甲</v>
       </c>
       <c r="AE872" s="6">
         <f t="shared" si="119"/>
@@ -91645,10 +94935,55 @@
         <v/>
       </c>
     </row>
-    <row r="873" spans="22:38">
-      <c r="V873" s="6">
+    <row r="873" spans="2:38">
+      <c r="B873" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C873" s="3">
+        <v>62</v>
+      </c>
+      <c r="D873" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E873" s="4">
+        <v>42639.041666666664</v>
+      </c>
+      <c r="F873" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G873" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="H873" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="I873" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="J873" s="5">
+        <v>2.06</v>
+      </c>
+      <c r="K873" s="5">
+        <v>3.4</v>
+      </c>
+      <c r="L873" s="5">
+        <v>2.86</v>
+      </c>
+      <c r="M873" s="3">
+        <v>4.25</v>
+      </c>
+      <c r="N873" s="3">
+        <v>3.95</v>
+      </c>
+      <c r="O873" s="3">
+        <v>1.56</v>
+      </c>
+      <c r="P873" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V873" s="6" t="str">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>墨联</v>
       </c>
       <c r="AE873" s="6">
         <f t="shared" si="119"/>
@@ -91683,10 +95018,55 @@
         <v/>
       </c>
     </row>
-    <row r="874" spans="22:38">
-      <c r="V874" s="6">
+    <row r="874" spans="2:38">
+      <c r="B874" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C874" s="3">
+        <v>63</v>
+      </c>
+      <c r="D874" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E874" s="4">
+        <v>42639.083333333336</v>
+      </c>
+      <c r="F874" s="5" t="s">
+        <v>999</v>
+      </c>
+      <c r="G874" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="H874" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="I874" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J874" s="5">
+        <v>1.46</v>
+      </c>
+      <c r="K874" s="5">
+        <v>3.8</v>
+      </c>
+      <c r="L874" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="M874" s="3">
+        <v>2.57</v>
+      </c>
+      <c r="N874" s="3">
+        <v>3.35</v>
+      </c>
+      <c r="O874" s="3">
+        <v>2.27</v>
+      </c>
+      <c r="P874" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V874" s="6" t="str">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>挪超</v>
       </c>
       <c r="AE874" s="6">
         <f t="shared" si="119"/>
@@ -91721,10 +95101,55 @@
         <v/>
       </c>
     </row>
-    <row r="875" spans="22:38">
-      <c r="V875" s="6">
+    <row r="875" spans="2:38">
+      <c r="B875" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C875" s="3">
+        <v>64</v>
+      </c>
+      <c r="D875" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E875" s="4">
+        <v>42639.083333333336</v>
+      </c>
+      <c r="F875" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="G875" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="H875" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="I875" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="J875" s="5">
+        <v>1.06</v>
+      </c>
+      <c r="K875" s="5">
+        <v>7.75</v>
+      </c>
+      <c r="L875" s="5">
+        <v>17.5</v>
+      </c>
+      <c r="M875" s="3">
+        <v>1.36</v>
+      </c>
+      <c r="N875" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="O875" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="P875" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V875" s="6" t="str">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>比甲</v>
       </c>
       <c r="AE875" s="6">
         <f t="shared" si="119"/>
@@ -91759,10 +95184,55 @@
         <v/>
       </c>
     </row>
-    <row r="876" spans="22:38">
-      <c r="V876" s="6">
+    <row r="876" spans="2:38">
+      <c r="B876" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C876" s="3">
+        <v>65</v>
+      </c>
+      <c r="D876" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E876" s="4">
+        <v>42639.083333333336</v>
+      </c>
+      <c r="F876" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="G876" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="H876" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="I876" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="J876" s="5">
+        <v>1.65</v>
+      </c>
+      <c r="K876" s="5">
+        <v>3.15</v>
+      </c>
+      <c r="L876" s="5">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="M876" s="3">
+        <v>3.35</v>
+      </c>
+      <c r="N876" s="3">
+        <v>3.25</v>
+      </c>
+      <c r="O876" s="3">
+        <v>1.92</v>
+      </c>
+      <c r="P876" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V876" s="6" t="str">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>阿甲</v>
       </c>
       <c r="AE876" s="6">
         <f t="shared" si="119"/>
@@ -91797,10 +95267,55 @@
         <v/>
       </c>
     </row>
-    <row r="877" spans="22:38">
-      <c r="V877" s="6">
+    <row r="877" spans="2:38">
+      <c r="B877" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C877" s="3">
+        <v>66</v>
+      </c>
+      <c r="D877" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E877" s="4">
+        <v>42639.104166666664</v>
+      </c>
+      <c r="F877" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="G877" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="H877" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="I877" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="J877" s="5">
+        <v>1.88</v>
+      </c>
+      <c r="K877" s="5">
+        <v>3.45</v>
+      </c>
+      <c r="L877" s="5">
+        <v>3.25</v>
+      </c>
+      <c r="M877" s="3">
+        <v>3.65</v>
+      </c>
+      <c r="N877" s="3">
+        <v>3.85</v>
+      </c>
+      <c r="O877" s="3">
+        <v>1.68</v>
+      </c>
+      <c r="P877" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V877" s="6" t="str">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>智利甲</v>
       </c>
       <c r="AE877" s="6">
         <f t="shared" si="119"/>
@@ -91835,10 +95350,55 @@
         <v/>
       </c>
     </row>
-    <row r="878" spans="22:38">
-      <c r="V878" s="6">
+    <row r="878" spans="2:38">
+      <c r="B878" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C878" s="3">
+        <v>67</v>
+      </c>
+      <c r="D878" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E878" s="4">
+        <v>42639.114583333336</v>
+      </c>
+      <c r="F878" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G878" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="H878" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="I878" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="J878" s="5">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="K878" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="L878" s="5">
+        <v>3.14</v>
+      </c>
+      <c r="M878" s="3">
+        <v>4.38</v>
+      </c>
+      <c r="N878" s="3">
+        <v>3.85</v>
+      </c>
+      <c r="O878" s="3">
+        <v>1.56</v>
+      </c>
+      <c r="P878" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V878" s="6" t="str">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>意甲</v>
       </c>
       <c r="AE878" s="6">
         <f t="shared" si="119"/>
@@ -91873,10 +95433,55 @@
         <v/>
       </c>
     </row>
-    <row r="879" spans="22:38">
-      <c r="V879" s="6">
+    <row r="879" spans="2:38">
+      <c r="B879" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C879" s="3">
+        <v>68</v>
+      </c>
+      <c r="D879" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E879" s="4">
+        <v>42639.114583333336</v>
+      </c>
+      <c r="F879" s="5" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G879" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="H879" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I879" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="J879" s="5">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="K879" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="L879" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="M879" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="N879" s="3">
+        <v>4</v>
+      </c>
+      <c r="O879" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="P879" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V879" s="6" t="str">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>西甲</v>
       </c>
       <c r="AE879" s="6">
         <f t="shared" si="119"/>
@@ -91911,10 +95516,55 @@
         <v/>
       </c>
     </row>
-    <row r="880" spans="22:38">
-      <c r="V880" s="6">
+    <row r="880" spans="2:38">
+      <c r="B880" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C880" s="3">
+        <v>69</v>
+      </c>
+      <c r="D880" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E880" s="4">
+        <v>42639.114583333336</v>
+      </c>
+      <c r="F880" s="5" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G880" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H880" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="I880" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J880" s="5">
+        <v>1.99</v>
+      </c>
+      <c r="K880" s="5">
+        <v>2.95</v>
+      </c>
+      <c r="L880" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="M880" s="3">
+        <v>4.42</v>
+      </c>
+      <c r="N880" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="O880" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="P880" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V880" s="6" t="str">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>法甲</v>
       </c>
       <c r="AE880" s="6">
         <f t="shared" si="119"/>
@@ -91949,10 +95599,55 @@
         <v/>
       </c>
     </row>
-    <row r="881" spans="22:38">
-      <c r="V881" s="6">
+    <row r="881" spans="2:38">
+      <c r="B881" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C881" s="3">
+        <v>70</v>
+      </c>
+      <c r="D881" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E881" s="4">
+        <v>42639.114583333336</v>
+      </c>
+      <c r="F881" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="G881" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="H881" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="I881" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="J881" s="5">
+        <v>2.09</v>
+      </c>
+      <c r="K881" s="5">
+        <v>2.87</v>
+      </c>
+      <c r="L881" s="5">
+        <v>3.3</v>
+      </c>
+      <c r="M881" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="N881" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="O881" s="3">
+        <v>1.54</v>
+      </c>
+      <c r="P881" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V881" s="6" t="str">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>阿甲</v>
       </c>
       <c r="AE881" s="6">
         <f t="shared" si="119"/>
@@ -91987,10 +95682,55 @@
         <v/>
       </c>
     </row>
-    <row r="882" spans="22:38">
-      <c r="V882" s="6">
+    <row r="882" spans="2:38">
+      <c r="B882" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C882" s="3">
+        <v>71</v>
+      </c>
+      <c r="D882" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E882" s="4">
+        <v>42639.125</v>
+      </c>
+      <c r="F882" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="G882" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="H882" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="I882" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="J882" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="K882" s="5">
+        <v>3.15</v>
+      </c>
+      <c r="L882" s="5">
+        <v>5.35</v>
+      </c>
+      <c r="M882" s="3">
+        <v>3.26</v>
+      </c>
+      <c r="N882" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="O882" s="3">
+        <v>2</v>
+      </c>
+      <c r="P882" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V882" s="6" t="str">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>巴西甲</v>
       </c>
       <c r="AE882" s="6">
         <f t="shared" si="119"/>
@@ -92025,10 +95765,55 @@
         <v/>
       </c>
     </row>
-    <row r="883" spans="22:38">
-      <c r="V883" s="6">
+    <row r="883" spans="2:38">
+      <c r="B883" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C883" s="3">
+        <v>72</v>
+      </c>
+      <c r="D883" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E883" s="4">
+        <v>42639.125</v>
+      </c>
+      <c r="F883" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="G883" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="H883" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="I883" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="J883" s="5">
+        <v>1.68</v>
+      </c>
+      <c r="K883" s="5">
+        <v>3.35</v>
+      </c>
+      <c r="L883" s="5">
+        <v>4.25</v>
+      </c>
+      <c r="M883" s="3">
+        <v>3.25</v>
+      </c>
+      <c r="N883" s="3">
+        <v>3.45</v>
+      </c>
+      <c r="O883" s="3">
+        <v>1.88</v>
+      </c>
+      <c r="P883" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V883" s="6" t="str">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>巴西甲</v>
       </c>
       <c r="AE883" s="6">
         <f t="shared" si="119"/>
@@ -92063,10 +95848,55 @@
         <v/>
       </c>
     </row>
-    <row r="884" spans="22:38">
-      <c r="V884" s="6">
+    <row r="884" spans="2:38">
+      <c r="B884" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C884" s="3">
+        <v>73</v>
+      </c>
+      <c r="D884" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E884" s="4">
+        <v>42639.125</v>
+      </c>
+      <c r="F884" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G884" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H884" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="I884" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="J884" s="5">
+        <v>1.49</v>
+      </c>
+      <c r="K884" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="L884" s="5">
+        <v>5.55</v>
+      </c>
+      <c r="M884" s="3">
+        <v>2.72</v>
+      </c>
+      <c r="N884" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="O884" s="3">
+        <v>2.19</v>
+      </c>
+      <c r="P884" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V884" s="6" t="str">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>巴西甲</v>
       </c>
       <c r="AE884" s="6">
         <f t="shared" si="119"/>
@@ -92101,10 +95931,55 @@
         <v/>
       </c>
     </row>
-    <row r="885" spans="22:38">
-      <c r="V885" s="6">
+    <row r="885" spans="2:38">
+      <c r="B885" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C885" s="3">
+        <v>74</v>
+      </c>
+      <c r="D885" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E885" s="4">
+        <v>42639.125</v>
+      </c>
+      <c r="F885" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="G885" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="H885" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="I885" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="J885" s="5">
+        <v>2.11</v>
+      </c>
+      <c r="K885" s="5">
+        <v>3.12</v>
+      </c>
+      <c r="L885" s="5">
+        <v>3</v>
+      </c>
+      <c r="M885" s="3">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="N885" s="3">
+        <v>3.85</v>
+      </c>
+      <c r="O885" s="3">
+        <v>1.53</v>
+      </c>
+      <c r="P885" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V885" s="6" t="str">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>巴西甲</v>
       </c>
       <c r="AE885" s="6">
         <f t="shared" si="119"/>
@@ -92139,10 +96014,55 @@
         <v/>
       </c>
     </row>
-    <row r="886" spans="22:38">
-      <c r="V886" s="6">
+    <row r="886" spans="2:38">
+      <c r="B886" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C886" s="3">
+        <v>75</v>
+      </c>
+      <c r="D886" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E886" s="4">
+        <v>42639.125</v>
+      </c>
+      <c r="F886" s="5" t="s">
+        <v>911</v>
+      </c>
+      <c r="G886" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="H886" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="I886" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="J886" s="5">
+        <v>2.52</v>
+      </c>
+      <c r="K886" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="L886" s="5">
+        <v>2.67</v>
+      </c>
+      <c r="M886" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="N886" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="O886" s="3">
+        <v>1.37</v>
+      </c>
+      <c r="P886" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V886" s="6" t="str">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>阿甲</v>
       </c>
       <c r="AE886" s="6">
         <f t="shared" si="119"/>
@@ -92177,10 +96097,55 @@
         <v/>
       </c>
     </row>
-    <row r="887" spans="22:38">
-      <c r="V887" s="6">
+    <row r="887" spans="2:38">
+      <c r="B887" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C887" s="3">
+        <v>76</v>
+      </c>
+      <c r="D887" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E887" s="4">
+        <v>42639.135416666664</v>
+      </c>
+      <c r="F887" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G887" s="5" t="s">
+        <v>913</v>
+      </c>
+      <c r="H887" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I887" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="J887" s="5">
+        <v>2.73</v>
+      </c>
+      <c r="K887" s="5">
+        <v>2.95</v>
+      </c>
+      <c r="L887" s="5">
+        <v>2.36</v>
+      </c>
+      <c r="M887" s="3">
+        <v>1.42</v>
+      </c>
+      <c r="N887" s="3">
+        <v>4.05</v>
+      </c>
+      <c r="O887" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="P887" s="3">
+        <v>1</v>
+      </c>
+      <c r="V887" s="6" t="str">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>葡超</v>
       </c>
       <c r="AE887" s="6">
         <f t="shared" si="119"/>
@@ -92215,10 +96180,55 @@
         <v/>
       </c>
     </row>
-    <row r="888" spans="22:38">
-      <c r="V888" s="6">
+    <row r="888" spans="2:38">
+      <c r="B888" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C888" s="3">
+        <v>77</v>
+      </c>
+      <c r="D888" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E888" s="4">
+        <v>42639.166666666664</v>
+      </c>
+      <c r="F888" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="G888" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H888" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="I888" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="J888" s="5">
+        <v>1.75</v>
+      </c>
+      <c r="K888" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="L888" s="5">
+        <v>3.7</v>
+      </c>
+      <c r="M888" s="3">
+        <v>3.25</v>
+      </c>
+      <c r="N888" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="O888" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="P888" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V888" s="6" t="str">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>美职</v>
       </c>
       <c r="AE888" s="6">
         <f t="shared" si="119"/>
@@ -92253,10 +96263,55 @@
         <v/>
       </c>
     </row>
-    <row r="889" spans="22:38">
-      <c r="V889" s="6">
+    <row r="889" spans="2:38">
+      <c r="B889" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C889" s="3">
+        <v>78</v>
+      </c>
+      <c r="D889" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E889" s="4">
+        <v>42639.208333333336</v>
+      </c>
+      <c r="F889" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="G889" s="5" t="s">
+        <v>917</v>
+      </c>
+      <c r="H889" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="I889" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="J889" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="K889" s="5">
+        <v>3.65</v>
+      </c>
+      <c r="L889" s="5">
+        <v>7.1</v>
+      </c>
+      <c r="M889" s="3">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="N889" s="3">
+        <v>3.25</v>
+      </c>
+      <c r="O889" s="3">
+        <v>2.42</v>
+      </c>
+      <c r="P889" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V889" s="6" t="str">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>阿甲</v>
       </c>
       <c r="AE889" s="6">
         <f t="shared" si="119"/>
@@ -92289,6 +96344,335 @@
       <c r="AL889" s="6" t="str">
         <f t="shared" si="126"/>
         <v/>
+      </c>
+    </row>
+    <row r="890" spans="2:38">
+      <c r="B890" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C890" s="3">
+        <v>79</v>
+      </c>
+      <c r="D890" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E890" s="4">
+        <v>42639.208333333336</v>
+      </c>
+      <c r="F890" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="G890" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H890" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="I890" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="J890" s="5">
+        <v>1.28</v>
+      </c>
+      <c r="K890" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="L890" s="5">
+        <v>8.65</v>
+      </c>
+      <c r="M890" s="3">
+        <v>2.02</v>
+      </c>
+      <c r="N890" s="3">
+        <v>3.45</v>
+      </c>
+      <c r="O890" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="P890" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="891" spans="2:38">
+      <c r="B891" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C891" s="3">
+        <v>80</v>
+      </c>
+      <c r="D891" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E891" s="4">
+        <v>42639.208333333336</v>
+      </c>
+      <c r="F891" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="G891" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="H891" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="I891" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="J891" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="K891" s="5">
+        <v>3.85</v>
+      </c>
+      <c r="L891" s="5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M891" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="N891" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="O891" s="3">
+        <v>1.99</v>
+      </c>
+      <c r="P891" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="892" spans="2:38">
+      <c r="B892" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C892" s="3">
+        <v>81</v>
+      </c>
+      <c r="D892" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E892" s="4">
+        <v>42639.229166666664</v>
+      </c>
+      <c r="F892" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="G892" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="H892" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="I892" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="J892" s="5">
+        <v>1.52</v>
+      </c>
+      <c r="K892" s="5">
+        <v>3.65</v>
+      </c>
+      <c r="L892" s="5">
+        <v>5.05</v>
+      </c>
+      <c r="M892" s="3">
+        <v>2.79</v>
+      </c>
+      <c r="N892" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="O892" s="3">
+        <v>2.14</v>
+      </c>
+      <c r="P892" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="893" spans="2:38">
+      <c r="B893" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C893" s="3">
+        <v>82</v>
+      </c>
+      <c r="D893" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E893" s="4">
+        <v>42639.291666666664</v>
+      </c>
+      <c r="F893" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G893" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="H893" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="I893" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="J893" s="5">
+        <v>2.9</v>
+      </c>
+      <c r="K893" s="5">
+        <v>2.9</v>
+      </c>
+      <c r="L893" s="5">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="M893" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="N893" s="3">
+        <v>3.95</v>
+      </c>
+      <c r="O893" s="3">
+        <v>5.35</v>
+      </c>
+      <c r="P893" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="894" spans="2:38">
+      <c r="B894" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C894" s="3">
+        <v>83</v>
+      </c>
+      <c r="D894" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E894" s="4">
+        <v>42639.291666666664</v>
+      </c>
+      <c r="F894" s="5" t="s">
+        <v>925</v>
+      </c>
+      <c r="G894" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="H894" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="I894" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="J894" s="5">
+        <v>1.75</v>
+      </c>
+      <c r="K894" s="5">
+        <v>3.7</v>
+      </c>
+      <c r="L894" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="M894" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="N894" s="3">
+        <v>3.85</v>
+      </c>
+      <c r="O894" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="P894" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="895" spans="2:38">
+      <c r="B895" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C895" s="3">
+        <v>84</v>
+      </c>
+      <c r="D895" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E895" s="4">
+        <v>42639.291666666664</v>
+      </c>
+      <c r="F895" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G895" s="5" t="s">
+        <v>933</v>
+      </c>
+      <c r="H895" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="I895" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="J895" s="5">
+        <v>2.08</v>
+      </c>
+      <c r="K895" s="5">
+        <v>3.3</v>
+      </c>
+      <c r="L895" s="5">
+        <v>2.9</v>
+      </c>
+      <c r="M895" s="3">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="N895" s="3">
+        <v>3.95</v>
+      </c>
+      <c r="O895" s="3">
+        <v>1.55</v>
+      </c>
+      <c r="P895" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="896" spans="2:38">
+      <c r="B896" s="2">
+        <v>42638</v>
+      </c>
+      <c r="C896" s="3">
+        <v>85</v>
+      </c>
+      <c r="D896" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E896" s="4">
+        <v>42639.3125</v>
+      </c>
+      <c r="F896" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="G896" s="5" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H896" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="I896" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="J896" s="5">
+        <v>1.93</v>
+      </c>
+      <c r="K896" s="5">
+        <v>3.53</v>
+      </c>
+      <c r="L896" s="5">
+        <v>3.05</v>
+      </c>
+      <c r="M896" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="N896" s="3">
+        <v>3.95</v>
+      </c>
+      <c r="O896" s="3">
+        <v>1.64</v>
+      </c>
+      <c r="P896" s="3">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
